--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4491E32-F5D2-4A23-9459-CBFD6D61EE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4901405-689E-4AA9-8B84-588FE9F619F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="5970" windowWidth="28830" windowHeight="7830" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>petId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>star|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TamporaB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TamporaA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -505,7 +515,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -525,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4901405-689E-4AA9-8B84-588FE9F619F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077A1FA5-594A-415D-80E8-F798B5F26B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>petId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,37 @@
   <si>
     <t>TamporaA</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spriteName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPortrait_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetName_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetName_0002</t>
+  </si>
+  <si>
+    <t>PetName_0003</t>
+  </si>
+  <si>
+    <t>PetName_0004</t>
+  </si>
+  <si>
+    <t>PetName_0005</t>
+  </si>
+  <si>
+    <t>PetName_0006</t>
   </si>
 </sst>
 </file>
@@ -452,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -461,146 +492,190 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077A1FA5-594A-415D-80E8-F798B5F26B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6925E-52A9-40C3-B776-CBF2601633CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
+    <sheet name="PetSaleTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>petId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,13 +121,39 @@
   </si>
   <si>
     <t>PetName_0006</t>
+  </si>
+  <si>
+    <t>star|Int</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petsale_1</t>
+  </si>
+  <si>
+    <t>petsale_2</t>
+  </si>
+  <si>
+    <t>petsale_3</t>
+  </si>
+  <si>
+    <t>petsale_4</t>
+  </si>
+  <si>
+    <t>petsale_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +166,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -165,8 +200,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,4 +721,89 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094A9C3-1EBB-401E-A882-3FFCCAB5CD4E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6925E-52A9-40C3-B776-CBF2601633CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBC16-268A-4F7B-A821-16FE412B6493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
     <sheet name="PetSaleTable" sheetId="2" r:id="rId2"/>
+    <sheet name="PetCountTable" sheetId="3" r:id="rId3"/>
+    <sheet name="PetCaptureTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>petId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +149,76 @@
   </si>
   <si>
     <t>petsale_5</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>captureId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaptureBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaptureBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaptureBest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId|String</t>
+  </si>
+  <si>
+    <t>CaptureName_Basic</t>
+  </si>
+  <si>
+    <t>CaptureName_Better</t>
+  </si>
+  <si>
+    <t>CaptureName_Best</t>
+  </si>
+  <si>
+    <t>starProb_3|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starProb_4|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starProb_5|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petcapture_better</t>
+  </si>
+  <si>
+    <t>petcapture_best</t>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petCntGo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,7 +596,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,9 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094A9C3-1EBB-401E-A882-3FFCCAB5CD4E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,4 +876,2407 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA705A78-4828-4BDB-845D-5DE50EB15A79}">
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="9" outlineLevel="1"/>
+    <col min="8" max="8" width="9" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
+        <v>"1":[0</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">IF(B2&lt;OFFSET(B2,-1,0),""""&amp;A2&amp;""":["&amp;D2,
+IF(B2&gt;OFFSET(B2,1,0),D2&amp;"]",
+D2))</f>
+        <v>"1":[0</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
+&amp;"}"</f>
+        <v>{"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000,40000000,42500000,45000000]}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" ca="1" si="0">IF(ROW()=2,F3,OFFSET(E3,-1,0)&amp;IF(LEN(F3)=0,"",","&amp;F3))</f>
+        <v>"1":[0,500000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" ca="1" si="1">IF(B3&lt;OFFSET(B3,-1,0),""""&amp;A3&amp;""":["&amp;D3,
+IF(B3&gt;OFFSET(B3,1,0),D3&amp;"]",
+D3))</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1000000</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"1":[0,500000,1000000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1500000</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E68" ca="1" si="2">IF(ROW()=2,F5,OFFSET(E5,-1,0)&amp;IF(LEN(F5)=0,"",","&amp;F5))</f>
+        <v>"1":[0,500000,1000000,1500000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F68" ca="1" si="3">IF(B5&lt;OFFSET(B5,-1,0),""""&amp;A5&amp;""":["&amp;D5,
+IF(B5&gt;OFFSET(B5,1,0),D5&amp;"]",
+D5))</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="3"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2500000</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="3"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>3000000</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>3500000</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>4000000</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="3"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>4500000</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="3"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>5000000</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="3"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>5500000</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>6000000</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="3"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>6500000</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>7000000</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="3"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>7500000</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>8000000</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="3"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>8500000</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="3"/>
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>9000000</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000]</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>9000000]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"2":[0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" ref="A22:A85" si="4">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f>D3*2</f>
+        <v>1000000</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D39" si="5">D4*2</f>
+        <v>2000000</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="3"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="3"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>4000000</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="3"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>5000000</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="3"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>6000000</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="3"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>7000000</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="3"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>8000000</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="3"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>9000000</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="3"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>10000000</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>11000000</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="3"/>
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>12000000</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="3"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>13000000</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>14000000</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>15000000</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>85</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>16000000</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>17000000</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>18000000</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000]</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>18000000]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"3":[0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f>D3*3</f>
+        <v>1500000</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D58" si="6">D4*3</f>
+        <v>3000000</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>4500000</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>6000000</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>7500000</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>9000000</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>10500000</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>12000000</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>13500000</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>15000000</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>16500000</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="3"/>
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>18000000</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="3"/>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="6"/>
+        <v>19500000</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="3"/>
+        <v>19500000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="6"/>
+        <v>21000000</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="3"/>
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="6"/>
+        <v>22500000</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="3"/>
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="6"/>
+        <v>24000000</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="3"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>25500000</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="3"/>
+        <v>25500000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>27000000</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000]</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>27000000]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"4":[0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <f>D3*4</f>
+        <v>2000000</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="3"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:D77" si="7">D4*4</f>
+        <v>4000000</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="3"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="7"/>
+        <v>6000000</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="3"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="7"/>
+        <v>8000000</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="3"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="3"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>12000000</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="3"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="7"/>
+        <v>14000000</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="3"/>
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="7"/>
+        <v>16000000</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="3"/>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>18000000</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>20000000</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ref="E69:E96" ca="1" si="8">IF(ROW()=2,F69,OFFSET(E69,-1,0)&amp;IF(LEN(F69)=0,"",","&amp;F69))</f>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F96" ca="1" si="9">IF(B69&lt;OFFSET(B69,-1,0),""""&amp;A69&amp;""":["&amp;D69,
+IF(B69&gt;OFFSET(B69,1,0),D69&amp;"]",
+D69))</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>22000000</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="9"/>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="9"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>26000000</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="9"/>
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>28000000</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="9"/>
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>30000000</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="9"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>32000000</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="9"/>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>34000000</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="9"/>
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>95</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>36000000</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000]</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>36000000]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"5":[0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <f>D3*5</f>
+        <v>2500000</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="9"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D96" si="10">D4*5</f>
+        <v>5000000</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="9"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>7500000</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="9"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>10000000</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="9"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>12500000</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="9"/>
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>15000000</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="9"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>17500000</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="9"/>
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" ref="A86:A96" si="11">A67+1</f>
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>45</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="9"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>22500000</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="9"/>
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>25000000</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="9"/>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>27500000</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="9"/>
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>65</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>30000000</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="9"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>32500000</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="9"/>
+        <v>32500000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>35000000</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="9"/>
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>37500000</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="9"/>
+        <v>37500000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>85</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>40000000</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000,40000000</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="9"/>
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>42500000</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000,40000000,42500000</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="9"/>
+        <v>42500000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>45000000</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000,40000000,42500000,45000000]</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>45000000]</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560A0A3-401E-4339-8533-5F4E360C4414}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="5" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.95</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBC16-268A-4F7B-A821-16FE412B6493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E57235-889E-4757-9C17-AACBC0EB5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA705A78-4828-4BDB-845D-5DE50EB15A79}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560A0A3-401E-4339-8533-5F4E360C4414}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E57235-889E-4757-9C17-AACBC0EB5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58444688-B9F3-412A-B5BA-D61273A99F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="PetCountTable" sheetId="3" r:id="rId3"/>
     <sheet name="PetCaptureTable" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PetTable!$I$1:$I$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,15 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
-  <si>
-    <t>petId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pet_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -60,56 +55,12 @@
   </si>
   <si>
     <t>Pet_0006</t>
-  </si>
-  <si>
-    <t>accumulatedAtk|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabAddress|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CuteUnicorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderIndex|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meetWeight|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>star|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TamporaB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TamporaA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spriteName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetPortrait_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetName_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PetName_0002</t>
   </si>
   <si>
@@ -218,6 +169,124 @@
   </si>
   <si>
     <t>petCntGo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petId|String</t>
+  </si>
+  <si>
+    <t>accumulatedAtk|Int</t>
+  </si>
+  <si>
+    <t>prefabAddress|String</t>
+  </si>
+  <si>
+    <t>spriteName|String</t>
+  </si>
+  <si>
+    <t>orderIndex|Int</t>
+  </si>
+  <si>
+    <t>meetWeight|Float</t>
+  </si>
+  <si>
+    <t>조우확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0001</t>
+  </si>
+  <si>
+    <t>PetName_0001</t>
+  </si>
+  <si>
+    <t>CuteUnicorn</t>
+  </si>
+  <si>
+    <t>PetPortrait_0001</t>
+  </si>
+  <si>
+    <t>TamporaB</t>
+  </si>
+  <si>
+    <t>PetPortrait_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TamporaA</t>
+  </si>
+  <si>
+    <t>PetPortrait_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirePigA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirePigB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShellfishA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0007</t>
+  </si>
+  <si>
+    <t>PetName_0007</t>
+  </si>
+  <si>
+    <t>ShellfishC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0008</t>
+  </si>
+  <si>
+    <t>PetName_0008</t>
+  </si>
+  <si>
+    <t>ShellfishE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0009</t>
+  </si>
+  <si>
+    <t>PetName_0009</t>
+  </si>
+  <si>
+    <t>StarfishC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0010</t>
+  </si>
+  <si>
+    <t>PetName_0010</t>
+  </si>
+  <si>
+    <t>StarfishD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0011</t>
+  </si>
+  <si>
+    <t>PetName_0011</t>
+  </si>
+  <si>
+    <t>StarfishE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,52 +662,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9" collapsed="1"/>
+    <col min="11" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -647,24 +728,37 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <f>VLOOKUP(C2,$K:$L,2,0)*100/COUNTIFS(C:C,C2,I:I,"&lt;="&amp;$N$2)</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -673,24 +767,34 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -699,24 +803,34 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -725,24 +839,34 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -751,45 +875,210 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I12" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -808,13 +1097,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -894,25 +1183,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3177,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560A0A3-401E-4339-8533-5F4E360C4414}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3191,33 +3480,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -3231,10 +3520,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3249,15 +3538,15 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3272,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58444688-B9F3-412A-B5BA-D61273A99F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C78EFC1-0E00-47F9-87AF-1BE7F0C83E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -203,23 +203,12 @@
     <t>CuteUnicorn</t>
   </si>
   <si>
-    <t>PetPortrait_0001</t>
-  </si>
-  <si>
     <t>TamporaB</t>
   </si>
   <si>
-    <t>PetPortrait_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TamporaA</t>
   </si>
   <si>
-    <t>PetPortrait_0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FirePigA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +277,226 @@
   <si>
     <t>현재업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BettyA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BettyC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuteCrabA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuteCrabB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlantaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlantaB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PuffeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PuffeB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SdDragon68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swinecone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhispaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhispaB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet_0012</t>
+  </si>
+  <si>
+    <t>Pet_0013</t>
+  </si>
+  <si>
+    <t>Pet_0014</t>
+  </si>
+  <si>
+    <t>Pet_0015</t>
+  </si>
+  <si>
+    <t>Pet_0016</t>
+  </si>
+  <si>
+    <t>Pet_0017</t>
+  </si>
+  <si>
+    <t>Pet_0018</t>
+  </si>
+  <si>
+    <t>Pet_0019</t>
+  </si>
+  <si>
+    <t>Pet_0020</t>
+  </si>
+  <si>
+    <t>Pet_0021</t>
+  </si>
+  <si>
+    <t>Pet_0022</t>
+  </si>
+  <si>
+    <t>Pet_0023</t>
+  </si>
+  <si>
+    <t>Pet_0024</t>
+  </si>
+  <si>
+    <t>Pet_0025</t>
+  </si>
+  <si>
+    <t>Pet_0026</t>
+  </si>
+  <si>
+    <t>Pet_0027</t>
+  </si>
+  <si>
+    <t>Pet_0028</t>
+  </si>
+  <si>
+    <t>Pet_0029</t>
+  </si>
+  <si>
+    <t>Pet_0030</t>
+  </si>
+  <si>
+    <t>Pet_0031</t>
+  </si>
+  <si>
+    <t>Pet_0032</t>
+  </si>
+  <si>
+    <t>Pet_0033</t>
+  </si>
+  <si>
+    <t>PetName_0012</t>
+  </si>
+  <si>
+    <t>PetName_0013</t>
+  </si>
+  <si>
+    <t>PetName_0014</t>
+  </si>
+  <si>
+    <t>PetName_0015</t>
+  </si>
+  <si>
+    <t>PetName_0016</t>
+  </si>
+  <si>
+    <t>PetName_0017</t>
+  </si>
+  <si>
+    <t>PetName_0018</t>
+  </si>
+  <si>
+    <t>PetName_0019</t>
+  </si>
+  <si>
+    <t>PetName_0020</t>
+  </si>
+  <si>
+    <t>PetName_0021</t>
+  </si>
+  <si>
+    <t>PetName_0022</t>
+  </si>
+  <si>
+    <t>PetName_0023</t>
+  </si>
+  <si>
+    <t>PetName_0024</t>
+  </si>
+  <si>
+    <t>PetName_0025</t>
+  </si>
+  <si>
+    <t>PetName_0026</t>
+  </si>
+  <si>
+    <t>PetName_0027</t>
+  </si>
+  <si>
+    <t>PetName_0028</t>
+  </si>
+  <si>
+    <t>PetName_0029</t>
+  </si>
+  <si>
+    <t>PetName_0030</t>
+  </si>
+  <si>
+    <t>PetName_0031</t>
+  </si>
+  <si>
+    <t>PetName_0032</t>
+  </si>
+  <si>
+    <t>PetName_0033</t>
   </si>
 </sst>
 </file>
@@ -662,9 +871,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -705,13 +917,13 @@
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -725,20 +937,23 @@
         <v>5</v>
       </c>
       <c r="D2">
+        <f>C2*3</f>
         <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
+      <c r="F2" t="str">
+        <f>"Pet_"&amp;E2</f>
+        <v>Pet_CuteUnicorn</v>
       </c>
       <c r="G2">
+        <f>RANK(C2,C:C)</f>
         <v>1</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(C2,$K:$L,2,0)*100/COUNTIFS(C:C,C2,I:I,"&lt;="&amp;$N$2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -764,20 +979,23 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D34" si="0">C3*3</f>
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F34" si="1">"Pet_"&amp;E3</f>
+        <v>Pet_TamporaB</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <f t="shared" ref="G3:G34" si="2">RANK(C3,C:C)</f>
+        <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="0">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
-        <v>9</v>
+        <f t="shared" ref="H3:H34" si="3">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -800,20 +1018,23 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_TamporaA</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -836,20 +1057,23 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_FirePigA</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>10</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -872,20 +1096,23 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_FirePigB</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -908,50 +1135,56 @@
         <v>3</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_ShellfishA</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_ShellfishC</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -959,29 +1192,32 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_ShellfishE</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -989,59 +1225,65 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_StarfishC</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_StarfishD</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>10</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1049,31 +1291,760 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_StarfishE</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_BettyA</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_BettyC</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_CuteCrabA</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_CuteCrabB</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_DinoA</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_DinoB</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_DinoC</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_PlantaA</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_PlantaB</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_PuffeA</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_PuffeB</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_Rosehips</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon00</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon33</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon35</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon38</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon56</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon57</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_SdDragon68</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_Swinecone</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_WhispaA</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Pet_WhispaB</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
@@ -1081,6 +2052,7 @@
   <autoFilter ref="I1:I12" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C78EFC1-0E00-47F9-87AF-1BE7F0C83E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DD2DF-F539-4D57-A730-EC67202D07FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -61,21 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PetName_0002</t>
-  </si>
-  <si>
-    <t>PetName_0003</t>
-  </si>
-  <si>
-    <t>PetName_0004</t>
-  </si>
-  <si>
-    <t>PetName_0005</t>
-  </si>
-  <si>
-    <t>PetName_0006</t>
-  </si>
-  <si>
     <t>star|Int</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Pet_0001</t>
   </si>
   <si>
-    <t>PetName_0001</t>
-  </si>
-  <si>
     <t>CuteUnicorn</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>Pet_0007</t>
   </si>
   <si>
-    <t>PetName_0007</t>
-  </si>
-  <si>
     <t>ShellfishC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,9 +213,6 @@
     <t>Pet_0008</t>
   </si>
   <si>
-    <t>PetName_0008</t>
-  </si>
-  <si>
     <t>ShellfishE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,9 +220,6 @@
     <t>Pet_0009</t>
   </si>
   <si>
-    <t>PetName_0009</t>
-  </si>
-  <si>
     <t>StarfishC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,9 +227,6 @@
     <t>Pet_0010</t>
   </si>
   <si>
-    <t>PetName_0010</t>
-  </si>
-  <si>
     <t>StarfishD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,9 +234,6 @@
     <t>Pet_0011</t>
   </si>
   <si>
-    <t>PetName_0011</t>
-  </si>
-  <si>
     <t>StarfishE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,72 +398,6 @@
   </si>
   <si>
     <t>Pet_0033</t>
-  </si>
-  <si>
-    <t>PetName_0012</t>
-  </si>
-  <si>
-    <t>PetName_0013</t>
-  </si>
-  <si>
-    <t>PetName_0014</t>
-  </si>
-  <si>
-    <t>PetName_0015</t>
-  </si>
-  <si>
-    <t>PetName_0016</t>
-  </si>
-  <si>
-    <t>PetName_0017</t>
-  </si>
-  <si>
-    <t>PetName_0018</t>
-  </si>
-  <si>
-    <t>PetName_0019</t>
-  </si>
-  <si>
-    <t>PetName_0020</t>
-  </si>
-  <si>
-    <t>PetName_0021</t>
-  </si>
-  <si>
-    <t>PetName_0022</t>
-  </si>
-  <si>
-    <t>PetName_0023</t>
-  </si>
-  <si>
-    <t>PetName_0024</t>
-  </si>
-  <si>
-    <t>PetName_0025</t>
-  </si>
-  <si>
-    <t>PetName_0026</t>
-  </si>
-  <si>
-    <t>PetName_0027</t>
-  </si>
-  <si>
-    <t>PetName_0028</t>
-  </si>
-  <si>
-    <t>PetName_0029</t>
-  </si>
-  <si>
-    <t>PetName_0030</t>
-  </si>
-  <si>
-    <t>PetName_0031</t>
-  </si>
-  <si>
-    <t>PetName_0032</t>
-  </si>
-  <si>
-    <t>PetName_0033</t>
   </si>
 </sst>
 </file>
@@ -875,13 +776,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
     <col min="9" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" collapsed="1"/>
@@ -893,45 +794,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
       <c r="N1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"PetName_"&amp;E2</f>
+        <v>PetName_CuteUnicorn</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -941,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="str">
         <f>"Pet_"&amp;E2</f>
@@ -972,29 +874,30 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B34" si="0">"PetName_"&amp;E3</f>
+        <v>PetName_TamporaB</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">C3*3</f>
+        <f t="shared" ref="D3:D34" si="1">C3*3</f>
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F34" si="1">"Pet_"&amp;E3</f>
+        <f t="shared" ref="F3:F34" si="2">"Pet_"&amp;E3</f>
         <v>Pet_TamporaB</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="2">RANK(C3,C:C)</f>
+        <f t="shared" ref="G3:G34" si="3">RANK(C3,C:C)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H34" si="3">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
+        <f t="shared" ref="H3:H34" si="4">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="I3">
@@ -1011,29 +914,30 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_TamporaA</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_TamporaA</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I4">
@@ -1050,29 +954,30 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_FirePigA</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_FirePigA</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I5">
@@ -1089,29 +994,30 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_FirePigB</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_FirePigB</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I6">
@@ -1128,29 +1034,30 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_ShellfishA</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_ShellfishA</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I7">
@@ -1159,31 +1066,32 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_ShellfishC</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_ShellfishC</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I8">
@@ -1192,31 +1100,32 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_ShellfishE</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_ShellfishE</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I9">
@@ -1225,31 +1134,32 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_StarfishC</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_StarfishC</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I10">
@@ -1258,31 +1168,32 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_StarfishD</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_StarfishD</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I11">
@@ -1291,31 +1202,32 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_StarfishE</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_StarfishE</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I12">
@@ -1324,31 +1236,32 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_BettyA</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_BettyA</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I13">
@@ -1357,31 +1270,32 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
+        <v>82</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_BettyC</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_BettyC</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I14">
@@ -1390,31 +1304,32 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
+        <v>83</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_CuteCrabA</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_CuteCrabA</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I15">
@@ -1423,31 +1338,32 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
+        <v>84</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_CuteCrabB</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_CuteCrabB</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I16">
@@ -1456,31 +1372,32 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_DinoA</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_DinoA</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I17">
@@ -1489,31 +1406,32 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
+        <v>86</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_DinoB</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_DinoB</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I18">
@@ -1522,64 +1440,66 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
+        <v>87</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_DinoC</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_DinoC</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
+        <v>88</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_PlantaA</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_PlantaA</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I20">
@@ -1588,31 +1508,32 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_PlantaB</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_PlantaB</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I21">
@@ -1621,31 +1542,32 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_PuffeA</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_PuffeA</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I22">
@@ -1654,31 +1576,32 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
+        <v>91</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_PuffeB</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_PuffeB</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I23">
@@ -1687,31 +1610,32 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
+        <v>92</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_Rosehips</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_Rosehips</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I24">
@@ -1720,64 +1644,66 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
+        <v>93</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon00</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon00</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon33</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon33</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I26">
@@ -1786,31 +1712,32 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
+        <v>95</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon35</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon35</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I27">
@@ -1819,31 +1746,32 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
+        <v>96</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon38</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon38</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I28">
@@ -1852,31 +1780,32 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon56</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon56</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I29">
@@ -1885,31 +1814,32 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
+        <v>98</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon57</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon57</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I30">
@@ -1918,31 +1848,32 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>132</v>
+        <v>99</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_SdDragon68</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_SdDragon68</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I31">
@@ -1951,31 +1882,32 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_Swinecone</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_Swinecone</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I32">
@@ -1984,31 +1916,32 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_WhispaA</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_WhispaA</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I33">
@@ -2017,31 +1950,32 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>PetName_WhispaB</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet_WhispaB</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I34">
@@ -2069,13 +2003,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2097,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2108,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2130,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2158,22 +2092,22 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4452,33 +4386,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -4492,10 +4426,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4510,15 +4444,15 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4533,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DD2DF-F539-4D57-A730-EC67202D07FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE9CFF-305D-492D-AF0E-664AA42D01B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -775,8 +775,8 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1685,11 +1685,11 @@
         <v>PetName_SdDragon33</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>1.2857142857142858</v>
+        <v>1.5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1753,11 +1753,11 @@
         <v>PetName_SdDragon38</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I28">
         <v>0</v>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE9CFF-305D-492D-AF0E-664AA42D01B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB94A8-5F46-49E5-A0CA-7A9DE29732B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="PetCaptureTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PetTable!$I$1:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PetTable!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -398,13 +398,21 @@
   </si>
   <si>
     <t>Pet_0033</t>
+  </si>
+  <si>
+    <t>참고카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firPetLst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +433,13 @@
       <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -451,11 +466,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,27 +790,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
-    <col min="9" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" collapsed="1"/>
-    <col min="11" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" collapsed="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="9" max="11" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -820,14 +836,26 @@
       <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -854,1136 +882,1426 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(C2,$K:$L,2,0)*100/COUNTIFS(C:C,C2,I:I,"&lt;="&amp;$N$2)</f>
+        <f>VLOOKUP(C2,$M:$N,2,0)*100/COUNTIFS(C:C,C2,I:I,"&lt;="&amp;$Q$2)</f>
         <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2" ca="1" si="0">IF(ROW()=2,K2,OFFSET(J2,-1,0)&amp;IF(LEN(K2)=0,"",","&amp;K2))</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K34" si="1">IF(C2&lt;&gt;1,"",""""&amp;A2&amp;"""")</f>
+        <v/>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
+        <f>COUNTIF(C:C,M2)</f>
+        <v>6</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(J1,COUNTA(J:J)-1,0),1)=",",SUBSTITUTE(OFFSET(J1,COUNTA(J:J)-1,0),",","",1),OFFSET(J1,COUNTA(J:J)-1,0))
+&amp;"]"</f>
+        <v>["Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022","Pet_0033"]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B34" si="0">"PetName_"&amp;E3</f>
+        <f t="shared" ref="B3:B34" si="2">"PetName_"&amp;E3</f>
         <v>PetName_TamporaB</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="1">C3*3</f>
+        <f t="shared" ref="D3:D34" si="3">C3*3</f>
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F34" si="2">"Pet_"&amp;E3</f>
+        <f t="shared" ref="F3:F34" si="4">"Pet_"&amp;E3</f>
         <v>Pet_TamporaB</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="3">RANK(C3,C:C)</f>
+        <f t="shared" ref="G3:G34" si="5">RANK(C3,C:C)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H34" si="4">VLOOKUP(C3,$K:$L,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$N$2)</f>
+        <f t="shared" ref="H3:H34" si="6">VLOOKUP(C3,$M:$N,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$Q$2)</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J34" ca="1" si="7">IF(ROW()=2,K3,OFFSET(J3,-1,0)&amp;IF(LEN(K3)=0,"",","&amp;K3))</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="8">COUNTIF(C:C,M3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_TamporaA</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_TamporaA</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="J4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_FirePigA</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_FirePigA</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="J5" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_FirePigB</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_FirePigB</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="J6" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005"</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(C6&lt;&gt;1,"",""""&amp;A6&amp;"""")</f>
+        <v>"Pet_0005"</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_ShellfishA</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_ShellfishA</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005"</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K34" si="9">IF(C7&lt;&gt;1,"",""""&amp;A7&amp;"""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_ShellfishC</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_ShellfishC</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007"</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="9"/>
+        <v>"Pet_0007"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_ShellfishE</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_ShellfishE</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>1.5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007"</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_StarfishC</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_StarfishC</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007"</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_StarfishD</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_StarfishD</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007"</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_StarfishE</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_StarfishE</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="9"/>
+        <v>"Pet_0011"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>81</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_BettyA</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_BettyA</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>82</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_BettyC</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_BettyC</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_CuteCrabA</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_CuteCrabA</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_CuteCrabB</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_CuteCrabB</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="9"/>
+        <v>"Pet_0015"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>85</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_DinoA</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_DinoA</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>86</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_DinoB</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_DinoB</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_DinoC</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_DinoC</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_PlantaA</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_PlantaA</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_PlantaB</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_PlantaB</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>90</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_PuffeA</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_PuffeA</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>91</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_PuffeB</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_PuffeB</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="9"/>
+        <v>"Pet_0022"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_Rosehips</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_Rosehips</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>93</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon00</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon00</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>94</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon33</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon33</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon35</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon35</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon38</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon38</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>97</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon56</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon56</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>98</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon57</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon57</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>99</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_SdDragon68</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>77</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_SdDragon68</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>100</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_Swinecone</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_Swinecone</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_WhispaA</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>79</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_WhispaA</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>102</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>PetName_WhispaB</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>80</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pet_WhispaB</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
+      <c r="J34" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022","Pet_0033"</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v>"Pet_0033"</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I12" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}"/>
+  <autoFilter ref="A1:I34" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1996,12 +2314,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2023,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2034,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2045,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2056,7 +2374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2081,13 +2399,13 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="5" max="6" width="9" outlineLevel="1"/>
     <col min="8" max="8" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2140,7 +2458,7 @@
         <v>{"1":[0,500000,1000000,1500000,2000000,2500000,3000000,3500000,4000000,4500000,5000000,5500000,6000000,6500000,7000000,7500000,8000000,8500000,9000000],"2":[0,1000000,2000000,3000000,4000000,5000000,6000000,7000000,8000000,9000000,10000000,11000000,12000000,13000000,14000000,15000000,16000000,17000000,18000000],"3":[0,1500000,3000000,4500000,6000000,7500000,9000000,10500000,12000000,13500000,15000000,16500000,18000000,19500000,21000000,22500000,24000000,25500000,27000000],"4":[0,2000000,4000000,6000000,8000000,10000000,12000000,14000000,16000000,18000000,20000000,22000000,24000000,26000000,28000000,30000000,32000000,34000000,36000000],"5":[0,2500000,5000000,7500000,10000000,12500000,15000000,17500000,20000000,22500000,25000000,27500000,30000000,32500000,35000000,37500000,40000000,42500000,45000000]}</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2164,7 +2482,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2186,7 +2504,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2210,7 +2528,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2232,7 +2550,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2254,7 +2572,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2276,7 +2594,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2298,7 +2616,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2320,7 +2638,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2342,7 +2660,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2364,7 +2682,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2386,7 +2704,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2408,7 +2726,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2430,7 +2748,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2452,7 +2770,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2474,7 +2792,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2496,7 +2814,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2518,7 +2836,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2540,7 +2858,7 @@
         <v>9000000]</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>A2+1</f>
         <v>2</v>
@@ -2563,7 +2881,7 @@
         <v>"2":[0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <f t="shared" ref="A22:A85" si="4">A3+1</f>
         <v>2</v>
@@ -2587,7 +2905,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2611,7 +2929,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2635,7 +2953,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2659,7 +2977,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2683,7 +3001,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2707,7 +3025,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2731,7 +3049,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2755,7 +3073,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2779,7 +3097,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2803,7 +3121,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2827,7 +3145,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2851,7 +3169,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2875,7 +3193,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2899,7 +3217,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2923,7 +3241,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2947,7 +3265,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2971,7 +3289,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2995,7 +3313,7 @@
         <v>18000000]</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3018,7 +3336,7 @@
         <v>"3":[0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3042,7 +3360,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3066,7 +3384,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3090,7 +3408,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3114,7 +3432,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3138,7 +3456,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3162,7 +3480,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3186,7 +3504,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3210,7 +3528,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3234,7 +3552,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3258,7 +3576,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3282,7 +3600,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3306,7 +3624,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3330,7 +3648,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3354,7 +3672,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3378,7 +3696,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3402,7 +3720,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3426,7 +3744,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3450,7 +3768,7 @@
         <v>27000000]</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3473,7 +3791,7 @@
         <v>"4":[0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3497,7 +3815,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3521,7 +3839,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3545,7 +3863,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3569,7 +3887,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3593,7 +3911,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3617,7 +3935,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3641,7 +3959,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3665,7 +3983,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3689,7 +4007,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3715,7 +4033,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3739,7 +4057,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3763,7 +4081,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3787,7 +4105,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3811,7 +4129,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3835,7 +4153,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3859,7 +4177,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3883,7 +4201,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3907,7 +4225,7 @@
         <v>36000000]</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3930,7 +4248,7 @@
         <v>"5":[0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3954,7 +4272,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3978,7 +4296,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4002,7 +4320,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4026,7 +4344,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4050,7 +4368,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4074,7 +4392,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4098,7 +4416,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <f t="shared" ref="A86:A96" si="11">A67+1</f>
         <v>5</v>
@@ -4122,7 +4440,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4146,7 +4464,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4170,7 +4488,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4194,7 +4512,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4218,7 +4536,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4242,7 +4560,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4266,7 +4584,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4290,7 +4608,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4314,7 +4632,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4338,7 +4656,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -4376,7 +4694,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4384,7 +4702,7 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4407,7 +4725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4424,7 +4742,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4447,7 +4765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>20</v>
       </c>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB94A8-5F46-49E5-A0CA-7A9DE29732B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9376C8C-14F0-4280-951A-33F2A969219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="PetCountTable" sheetId="3" r:id="rId3"/>
     <sheet name="PetCaptureTable" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PetTable!$A$1:$I$34</definedName>
   </definedNames>
@@ -39,6 +42,92 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1B0B415D-37B7-48EF-A06C-851A42D22034}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6DB51DEF-ACB5-48D0-AF37-FC3329A85095}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판매량</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
@@ -412,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +531,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,6 +593,4239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ShopProductTable"/>
+      <sheetName val="LevelPassTable"/>
+      <sheetName val="ConsumeItemTable"/>
+      <sheetName val="StageClearTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>productId|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>내용</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>이벤트프로덕트카운트참고</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>등록상품개수</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>indexSub|Int</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>free|Bool</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>times|Int</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>eng|Float</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>kor|Int</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>serverItemId|String</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>key</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>key|Int</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>tp1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>vl1</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>cn1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>levelpass</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>계정당 하나 사는 레벨 패스</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>levelpass</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>levelpass</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+          <cell r="G2" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>9.99</v>
+          </cell>
+          <cell r="J2">
+            <v>13000</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>levelpass</v>
+          </cell>
+          <cell r="L2">
+            <v>744</v>
+          </cell>
+          <cell r="M2">
+            <v>744</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>Cash_bLevelPass</v>
+          </cell>
+          <cell r="Q2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+          <cell r="G3" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>4.99</v>
+          </cell>
+          <cell r="J3">
+            <v>6500</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="L3">
+            <v>493</v>
+          </cell>
+          <cell r="M3">
+            <v>493</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="Q3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>다 떨어졌을 때 5분 빅부스트</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>ev1</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
+          <cell r="G4" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>9.99</v>
+          </cell>
+          <cell r="J4">
+            <v>13000</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="L4">
+            <v>234</v>
+          </cell>
+          <cell r="M4">
+            <v>234</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q4">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ev2_almostthere</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ev2_almostthere</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>ev2</v>
+          </cell>
+          <cell r="E5">
+            <v>2</v>
+          </cell>
+          <cell r="G5" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>4.99</v>
+          </cell>
+          <cell r="J5">
+            <v>6500</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>ev2_almostthere</v>
+          </cell>
+          <cell r="L5">
+            <v>125</v>
+          </cell>
+          <cell r="M5">
+            <v>125</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q5">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ev3_oneofthree_1</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>ev3_oneofthree_1</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E6">
+            <v>3</v>
+          </cell>
+          <cell r="G6" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>14.99</v>
+          </cell>
+          <cell r="J6">
+            <v>19000</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>ev3_oneofthree_1</v>
+          </cell>
+          <cell r="L6">
+            <v>348</v>
+          </cell>
+          <cell r="M6">
+            <v>348</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P6" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q6">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ev3_oneofthree_2</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>ev3_oneofthree_2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="G7" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>29.99</v>
+          </cell>
+          <cell r="J7">
+            <v>39000</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>ev3_oneofthree_2</v>
+          </cell>
+          <cell r="L7">
+            <v>431</v>
+          </cell>
+          <cell r="M7">
+            <v>431</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q7">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ev3_oneofthree_3</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>ev3_oneofthree_3</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E8">
+            <v>4</v>
+          </cell>
+          <cell r="G8" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>49.99</v>
+          </cell>
+          <cell r="J8">
+            <v>69000</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>ev3_oneofthree_3</v>
+          </cell>
+          <cell r="L8">
+            <v>969</v>
+          </cell>
+          <cell r="M8">
+            <v>969</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q8">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>ev4_conti_1</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>ev4_conti_1</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>1</v>
+          </cell>
+          <cell r="G9" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L9">
+            <v>987</v>
+          </cell>
+          <cell r="M9">
+            <v>987</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q9">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ev4_conti_2</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>ev4_conti_2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+          <cell r="F10">
+            <v>2</v>
+          </cell>
+          <cell r="G10" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L10">
+            <v>261</v>
+          </cell>
+          <cell r="M10">
+            <v>261</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q10">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>3</v>
+          </cell>
+          <cell r="G11" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>1.99</v>
+          </cell>
+          <cell r="J11">
+            <v>2500</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="L11">
+            <v>390</v>
+          </cell>
+          <cell r="M11">
+            <v>390</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q11">
+            <v>20000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ev4_conti_4</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>ev4_conti_4</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E12">
+            <v>2</v>
+          </cell>
+          <cell r="F12">
+            <v>4</v>
+          </cell>
+          <cell r="G12" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L12">
+            <v>997</v>
+          </cell>
+          <cell r="M12">
+            <v>997</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q12">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E13">
+            <v>4</v>
+          </cell>
+          <cell r="F13">
+            <v>1</v>
+          </cell>
+          <cell r="G13" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J13">
+            <v>25000</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="L13">
+            <v>384</v>
+          </cell>
+          <cell r="M13">
+            <v>384</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P13" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q13">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>ev5_oneplustwo_2</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>ev5_oneplustwo_2</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E14">
+            <v>3</v>
+          </cell>
+          <cell r="F14">
+            <v>2</v>
+          </cell>
+          <cell r="G14" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L14">
+            <v>619</v>
+          </cell>
+          <cell r="M14">
+            <v>619</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P14" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q14">
+            <v>50000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>ev5_oneplustwo_3</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>ev5_oneplustwo_3</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E15">
+            <v>4</v>
+          </cell>
+          <cell r="F15">
+            <v>3</v>
+          </cell>
+          <cell r="G15" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L15">
+            <v>150</v>
+          </cell>
+          <cell r="M15">
+            <v>150</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P15" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q15">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>ev11_flashsale</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>ev11_flashsale</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>ev11</v>
+          </cell>
+          <cell r="E16">
+            <v>2</v>
+          </cell>
+          <cell r="G16" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>9.99</v>
+          </cell>
+          <cell r="J16">
+            <v>13000</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>ev11_flashsale</v>
+          </cell>
+          <cell r="L16">
+            <v>682</v>
+          </cell>
+          <cell r="M16">
+            <v>682</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P16" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q16">
+            <v>700</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>ev12_nuclearsale</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>ev12_nuclearsale</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>ev12</v>
+          </cell>
+          <cell r="E17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>9.99</v>
+          </cell>
+          <cell r="J17">
+            <v>13000</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>ev12_nuclearsale</v>
+          </cell>
+          <cell r="L17">
+            <v>601</v>
+          </cell>
+          <cell r="M17">
+            <v>601</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P17" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q17">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="E18">
+            <v>1</v>
+          </cell>
+          <cell r="G18" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0.99</v>
+          </cell>
+          <cell r="J18">
+            <v>1200</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="L18">
+            <v>797</v>
+          </cell>
+          <cell r="M18">
+            <v>797</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P18" t="str">
+            <v>Cash_sFortuneWheel</v>
+          </cell>
+          <cell r="Q18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="E19">
+            <v>3</v>
+          </cell>
+          <cell r="G19" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="L19">
+            <v>658</v>
+          </cell>
+          <cell r="M19">
+            <v>658</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P19" t="str">
+            <v>Spell_0003</v>
+          </cell>
+          <cell r="Q19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v xml:space="preserve">세븐데이즈 </v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="E20">
+            <v>3</v>
+          </cell>
+          <cell r="G20" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>9.99</v>
+          </cell>
+          <cell r="J20">
+            <v>13000</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="L20">
+            <v>386</v>
+          </cell>
+          <cell r="M20">
+            <v>386</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P20" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q20">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>seventotalgroup1_2</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>seventotalgroup1_2</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="E21">
+            <v>3</v>
+          </cell>
+          <cell r="G21" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>14.99</v>
+          </cell>
+          <cell r="J21">
+            <v>19000</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>seventotalgroup1_2</v>
+          </cell>
+          <cell r="L21">
+            <v>582</v>
+          </cell>
+          <cell r="M21">
+            <v>582</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P21" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q21">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>seventotalgroup1_3</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>seventotalgroup1_3</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="E22">
+            <v>3</v>
+          </cell>
+          <cell r="G22" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>29.99</v>
+          </cell>
+          <cell r="J22">
+            <v>39000</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>seventotalgroup1_3</v>
+          </cell>
+          <cell r="L22">
+            <v>538</v>
+          </cell>
+          <cell r="M22">
+            <v>538</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P22" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q22">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>seventotalgroup1_4</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>seventotalgroup1_4</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="E23">
+            <v>3</v>
+          </cell>
+          <cell r="G23" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>49.99</v>
+          </cell>
+          <cell r="J23">
+            <v>69000</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>seventotalgroup1_4</v>
+          </cell>
+          <cell r="L23">
+            <v>620</v>
+          </cell>
+          <cell r="M23">
+            <v>620</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P23" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q23">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>seventotalgroup2_1</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>seventotalgroup2_1</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+          <cell r="G24" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>9.99</v>
+          </cell>
+          <cell r="J24">
+            <v>13000</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>seventotalgroup2_1</v>
+          </cell>
+          <cell r="L24">
+            <v>474</v>
+          </cell>
+          <cell r="M24">
+            <v>474</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O24" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P24" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q24">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>seventotalgroup2_2</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>seventotalgroup2_2</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="E25">
+            <v>3</v>
+          </cell>
+          <cell r="G25" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>14.99</v>
+          </cell>
+          <cell r="J25">
+            <v>19000</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>seventotalgroup2_2</v>
+          </cell>
+          <cell r="L25">
+            <v>244</v>
+          </cell>
+          <cell r="M25">
+            <v>244</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P25" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q25">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>seventotalgroup2_3</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>seventotalgroup2_3</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="E26">
+            <v>3</v>
+          </cell>
+          <cell r="G26" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I26">
+            <v>29.99</v>
+          </cell>
+          <cell r="J26">
+            <v>39000</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>seventotalgroup2_3</v>
+          </cell>
+          <cell r="L26">
+            <v>944</v>
+          </cell>
+          <cell r="M26">
+            <v>944</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P26" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q26">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>seventotalgroup2_4</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>seventotalgroup2_4</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="E27">
+            <v>3</v>
+          </cell>
+          <cell r="G27" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>49.99</v>
+          </cell>
+          <cell r="J27">
+            <v>69000</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>seventotalgroup2_4</v>
+          </cell>
+          <cell r="L27">
+            <v>383</v>
+          </cell>
+          <cell r="M27">
+            <v>383</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P27" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q27">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>seventotalgroup3_1</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>seventotalgroup3_1</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E28">
+            <v>3</v>
+          </cell>
+          <cell r="G28" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>9.99</v>
+          </cell>
+          <cell r="J28">
+            <v>13000</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>seventotalgroup3_1</v>
+          </cell>
+          <cell r="L28">
+            <v>545</v>
+          </cell>
+          <cell r="M28">
+            <v>545</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P28" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q28">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>seventotalgroup3_2</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>seventotalgroup3_2</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E29">
+            <v>3</v>
+          </cell>
+          <cell r="G29" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I29">
+            <v>14.99</v>
+          </cell>
+          <cell r="J29">
+            <v>19000</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>seventotalgroup3_2</v>
+          </cell>
+          <cell r="L29">
+            <v>231</v>
+          </cell>
+          <cell r="M29">
+            <v>231</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P29" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q29">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E30">
+            <v>3</v>
+          </cell>
+          <cell r="G30" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>29.99</v>
+          </cell>
+          <cell r="J30">
+            <v>39000</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="L30">
+            <v>654</v>
+          </cell>
+          <cell r="M30">
+            <v>654</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P30" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q30">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E31">
+            <v>3</v>
+          </cell>
+          <cell r="G31" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I31">
+            <v>49.99</v>
+          </cell>
+          <cell r="J31">
+            <v>69000</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="L31">
+            <v>279</v>
+          </cell>
+          <cell r="M31">
+            <v>279</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O31" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P31" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="Q31">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>페스티발</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="E32">
+            <v>3</v>
+          </cell>
+          <cell r="G32" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>9.99</v>
+          </cell>
+          <cell r="J32">
+            <v>13000</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="L32">
+            <v>359</v>
+          </cell>
+          <cell r="M32">
+            <v>359</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O32" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P32" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q32">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>festivalgroup1_2</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>festivalgroup1_2</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="E33">
+            <v>3</v>
+          </cell>
+          <cell r="G33" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I33">
+            <v>14.99</v>
+          </cell>
+          <cell r="J33">
+            <v>19000</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>festivalgroup1_2</v>
+          </cell>
+          <cell r="L33">
+            <v>881</v>
+          </cell>
+          <cell r="M33">
+            <v>881</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O33" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P33" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q33">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>festivalgroup1_3</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>festivalgroup1_3</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="E34">
+            <v>3</v>
+          </cell>
+          <cell r="G34" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>29.99</v>
+          </cell>
+          <cell r="J34">
+            <v>39000</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>festivalgroup1_3</v>
+          </cell>
+          <cell r="L34">
+            <v>108</v>
+          </cell>
+          <cell r="M34">
+            <v>108</v>
+          </cell>
+          <cell r="N34" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O34" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P34" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q34">
+            <v>1500</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>festivalgroup1_4</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>festivalgroup1_4</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="E35">
+            <v>3</v>
+          </cell>
+          <cell r="G35" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>49.99</v>
+          </cell>
+          <cell r="J35">
+            <v>69000</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>festivalgroup1_4</v>
+          </cell>
+          <cell r="L35">
+            <v>550</v>
+          </cell>
+          <cell r="M35">
+            <v>550</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P35" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q35">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>festivalgroup2_1</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>festivalgroup2_1</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="E36">
+            <v>3</v>
+          </cell>
+          <cell r="G36" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
+            <v>9.99</v>
+          </cell>
+          <cell r="J36">
+            <v>13000</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>festivalgroup2_1</v>
+          </cell>
+          <cell r="L36">
+            <v>397</v>
+          </cell>
+          <cell r="M36">
+            <v>397</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P36" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q36">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>festivalgroup2_2</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>festivalgroup2_2</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="E37">
+            <v>3</v>
+          </cell>
+          <cell r="G37" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I37">
+            <v>14.99</v>
+          </cell>
+          <cell r="J37">
+            <v>19000</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>festivalgroup2_2</v>
+          </cell>
+          <cell r="L37">
+            <v>401</v>
+          </cell>
+          <cell r="M37">
+            <v>401</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O37" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P37" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q37">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>festivalgroup2_3</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>festivalgroup2_3</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="E38">
+            <v>3</v>
+          </cell>
+          <cell r="G38" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I38">
+            <v>29.99</v>
+          </cell>
+          <cell r="J38">
+            <v>39000</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>festivalgroup2_3</v>
+          </cell>
+          <cell r="L38">
+            <v>177</v>
+          </cell>
+          <cell r="M38">
+            <v>177</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O38" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P38" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q38">
+            <v>1500</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>festivalgroup2_4</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>festivalgroup2_4</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="E39">
+            <v>3</v>
+          </cell>
+          <cell r="G39" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I39">
+            <v>49.99</v>
+          </cell>
+          <cell r="J39">
+            <v>69000</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>festivalgroup2_4</v>
+          </cell>
+          <cell r="L39">
+            <v>506</v>
+          </cell>
+          <cell r="M39">
+            <v>506</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O39" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P39" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q39">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>festivalgroup3_1</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>festivalgroup3_1</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="E40">
+            <v>3</v>
+          </cell>
+          <cell r="G40" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
+            <v>9.99</v>
+          </cell>
+          <cell r="J40">
+            <v>13000</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>festivalgroup3_1</v>
+          </cell>
+          <cell r="L40">
+            <v>741</v>
+          </cell>
+          <cell r="M40">
+            <v>741</v>
+          </cell>
+          <cell r="N40" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O40" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P40" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q40">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>festivalgroup3_2</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>festivalgroup3_2</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="E41">
+            <v>3</v>
+          </cell>
+          <cell r="G41" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I41">
+            <v>14.99</v>
+          </cell>
+          <cell r="J41">
+            <v>19000</v>
+          </cell>
+          <cell r="K41" t="str">
+            <v>festivalgroup3_2</v>
+          </cell>
+          <cell r="L41">
+            <v>578</v>
+          </cell>
+          <cell r="M41">
+            <v>578</v>
+          </cell>
+          <cell r="N41" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O41" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P41" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q41">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>festivalgroup3_3</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>festivalgroup3_3</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="E42">
+            <v>3</v>
+          </cell>
+          <cell r="G42" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I42">
+            <v>29.99</v>
+          </cell>
+          <cell r="J42">
+            <v>39000</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>festivalgroup3_3</v>
+          </cell>
+          <cell r="L42">
+            <v>106</v>
+          </cell>
+          <cell r="M42">
+            <v>106</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P42" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="Q42">
+            <v>1500</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>festivalgroup3_4</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>festivalgroup3_4</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="E43">
+            <v>3</v>
+          </cell>
+          <cell r="G43" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I43">
+            <v>49.99</v>
+          </cell>
+          <cell r="J43">
+            <v>69000</v>
+          </cell>
+          <cell r="K43" t="str">
+            <v>festivalgroup3_4</v>
+          </cell>
+          <cell r="L43">
+            <v>440</v>
+          </cell>
+          <cell r="M43">
+            <v>440</v>
+          </cell>
+          <cell r="N43" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P43" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q43">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>상점 에너지</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E44">
+            <v>1</v>
+          </cell>
+          <cell r="G44" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I44">
+            <v>0.99</v>
+          </cell>
+          <cell r="J44">
+            <v>1200</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="L44">
+            <v>713</v>
+          </cell>
+          <cell r="M44">
+            <v>713</v>
+          </cell>
+          <cell r="N44" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O44" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P44" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q44">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E45">
+            <v>1</v>
+          </cell>
+          <cell r="G45" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I45">
+            <v>4.99</v>
+          </cell>
+          <cell r="J45">
+            <v>5900</v>
+          </cell>
+          <cell r="K45" t="str">
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="L45">
+            <v>794</v>
+          </cell>
+          <cell r="M45">
+            <v>794</v>
+          </cell>
+          <cell r="N45" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O45" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P45" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q45">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E46">
+            <v>1</v>
+          </cell>
+          <cell r="G46" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>9.99</v>
+          </cell>
+          <cell r="J46">
+            <v>12000</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="L46">
+            <v>121</v>
+          </cell>
+          <cell r="M46">
+            <v>121</v>
+          </cell>
+          <cell r="N46" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P46" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q46">
+            <v>260</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+          <cell r="G47" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I47">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J47">
+            <v>25000</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="L47">
+            <v>114</v>
+          </cell>
+          <cell r="M47">
+            <v>114</v>
+          </cell>
+          <cell r="N47" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O47" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P47" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q47">
+            <v>525</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E48">
+            <v>1</v>
+          </cell>
+          <cell r="G48" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I48">
+            <v>49.99</v>
+          </cell>
+          <cell r="J48">
+            <v>65000</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="L48">
+            <v>950</v>
+          </cell>
+          <cell r="M48">
+            <v>950</v>
+          </cell>
+          <cell r="N48" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P48" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q48">
+            <v>1600</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E49">
+            <v>1</v>
+          </cell>
+          <cell r="G49" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>99.99</v>
+          </cell>
+          <cell r="J49">
+            <v>119000</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="L49">
+            <v>490</v>
+          </cell>
+          <cell r="M49">
+            <v>490</v>
+          </cell>
+          <cell r="N49" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P49" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q49">
+            <v>3600</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>상점 에너지 200% 더</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E50">
+            <v>1</v>
+          </cell>
+          <cell r="G50" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I50">
+            <v>0.99</v>
+          </cell>
+          <cell r="J50">
+            <v>1200</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="L50">
+            <v>338</v>
+          </cell>
+          <cell r="M50">
+            <v>338</v>
+          </cell>
+          <cell r="N50" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O50" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P50" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q50">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E51">
+            <v>1</v>
+          </cell>
+          <cell r="G51" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I51">
+            <v>4.99</v>
+          </cell>
+          <cell r="J51">
+            <v>5900</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="L51">
+            <v>215</v>
+          </cell>
+          <cell r="M51">
+            <v>215</v>
+          </cell>
+          <cell r="N51" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O51" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P51" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q51">
+            <v>270</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+          <cell r="G52" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>9.99</v>
+          </cell>
+          <cell r="J52">
+            <v>12000</v>
+          </cell>
+          <cell r="K52" t="str">
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="L52">
+            <v>674</v>
+          </cell>
+          <cell r="M52">
+            <v>674</v>
+          </cell>
+          <cell r="N52" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O52" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P52" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q52">
+            <v>780</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E53">
+            <v>1</v>
+          </cell>
+          <cell r="G53" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J53">
+            <v>25000</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="L53">
+            <v>145</v>
+          </cell>
+          <cell r="M53">
+            <v>145</v>
+          </cell>
+          <cell r="N53" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O53" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P53" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q53">
+            <v>1575</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E54">
+            <v>1</v>
+          </cell>
+          <cell r="G54" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I54">
+            <v>49.99</v>
+          </cell>
+          <cell r="J54">
+            <v>65000</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="L54">
+            <v>858</v>
+          </cell>
+          <cell r="M54">
+            <v>858</v>
+          </cell>
+          <cell r="N54" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O54" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P54" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q54">
+            <v>4800</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E55">
+            <v>1</v>
+          </cell>
+          <cell r="G55" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I55">
+            <v>99.99</v>
+          </cell>
+          <cell r="J55">
+            <v>119000</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="L55">
+            <v>173</v>
+          </cell>
+          <cell r="M55">
+            <v>173</v>
+          </cell>
+          <cell r="N55" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O55" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P55" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q55">
+            <v>10800</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E56">
+            <v>1</v>
+          </cell>
+          <cell r="G56" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I56">
+            <v>0.99</v>
+          </cell>
+          <cell r="J56">
+            <v>1200</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="L56">
+            <v>201</v>
+          </cell>
+          <cell r="M56">
+            <v>201</v>
+          </cell>
+          <cell r="N56" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O56" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P56" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q56">
+            <v>40000</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E57">
+            <v>1</v>
+          </cell>
+          <cell r="G57" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I57">
+            <v>4.99</v>
+          </cell>
+          <cell r="J57">
+            <v>5900</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="L57">
+            <v>803</v>
+          </cell>
+          <cell r="M57">
+            <v>803</v>
+          </cell>
+          <cell r="N57" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O57" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P57" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q57">
+            <v>105000</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E58">
+            <v>1</v>
+          </cell>
+          <cell r="G58" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>9.99</v>
+          </cell>
+          <cell r="J58">
+            <v>12000</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="L58">
+            <v>650</v>
+          </cell>
+          <cell r="M58">
+            <v>650</v>
+          </cell>
+          <cell r="N58" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O58" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P58" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q58">
+            <v>250000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E59">
+            <v>1</v>
+          </cell>
+          <cell r="G59" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I59">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J59">
+            <v>25000</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="L59">
+            <v>953</v>
+          </cell>
+          <cell r="M59">
+            <v>953</v>
+          </cell>
+          <cell r="N59" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O59" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P59" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q59">
+            <v>600000</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E60">
+            <v>1</v>
+          </cell>
+          <cell r="G60" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I60">
+            <v>49.99</v>
+          </cell>
+          <cell r="J60">
+            <v>65000</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="L60">
+            <v>640</v>
+          </cell>
+          <cell r="M60">
+            <v>640</v>
+          </cell>
+          <cell r="N60" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O60" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P60" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q60">
+            <v>1900000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E61">
+            <v>1</v>
+          </cell>
+          <cell r="G61" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I61">
+            <v>99.99</v>
+          </cell>
+          <cell r="J61">
+            <v>119000</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="L61">
+            <v>553</v>
+          </cell>
+          <cell r="M61">
+            <v>553</v>
+          </cell>
+          <cell r="N61" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O61" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P61" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q61">
+            <v>4500000</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E62">
+            <v>1</v>
+          </cell>
+          <cell r="G62" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>0.99</v>
+          </cell>
+          <cell r="J62">
+            <v>1200</v>
+          </cell>
+          <cell r="K62" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="L62">
+            <v>963</v>
+          </cell>
+          <cell r="M62">
+            <v>963</v>
+          </cell>
+          <cell r="N62" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O62" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P62" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q62">
+            <v>120000</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E63">
+            <v>1</v>
+          </cell>
+          <cell r="G63" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>4.99</v>
+          </cell>
+          <cell r="J63">
+            <v>5900</v>
+          </cell>
+          <cell r="K63" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="L63">
+            <v>340</v>
+          </cell>
+          <cell r="M63">
+            <v>340</v>
+          </cell>
+          <cell r="N63" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O63" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P63" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q63">
+            <v>315000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E64">
+            <v>1</v>
+          </cell>
+          <cell r="G64" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I64">
+            <v>9.99</v>
+          </cell>
+          <cell r="J64">
+            <v>12000</v>
+          </cell>
+          <cell r="K64" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="L64">
+            <v>420</v>
+          </cell>
+          <cell r="M64">
+            <v>420</v>
+          </cell>
+          <cell r="N64" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O64" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P64" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q64">
+            <v>750000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E65">
+            <v>1</v>
+          </cell>
+          <cell r="G65" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I65">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J65">
+            <v>25000</v>
+          </cell>
+          <cell r="K65" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="L65">
+            <v>756</v>
+          </cell>
+          <cell r="M65">
+            <v>756</v>
+          </cell>
+          <cell r="N65" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O65" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P65" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q65">
+            <v>1800000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E66">
+            <v>1</v>
+          </cell>
+          <cell r="G66" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I66">
+            <v>49.99</v>
+          </cell>
+          <cell r="J66">
+            <v>65000</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="L66">
+            <v>979</v>
+          </cell>
+          <cell r="M66">
+            <v>979</v>
+          </cell>
+          <cell r="N66" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O66" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P66" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q66">
+            <v>5700000</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E67">
+            <v>1</v>
+          </cell>
+          <cell r="G67" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I67">
+            <v>99.99</v>
+          </cell>
+          <cell r="J67">
+            <v>119000</v>
+          </cell>
+          <cell r="K67" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="L67">
+            <v>435</v>
+          </cell>
+          <cell r="M67">
+            <v>435</v>
+          </cell>
+          <cell r="N67" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O67" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P67" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="Q67">
+            <v>13500000</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>펫 대량 판매</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E68">
+            <v>1</v>
+          </cell>
+          <cell r="G68" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I68">
+            <v>9.99</v>
+          </cell>
+          <cell r="J68">
+            <v>13000</v>
+          </cell>
+          <cell r="K68" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="L68">
+            <v>781</v>
+          </cell>
+          <cell r="M68">
+            <v>781</v>
+          </cell>
+          <cell r="N68" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O68" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P68" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="Q68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E69">
+            <v>1</v>
+          </cell>
+          <cell r="G69" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I69">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J69">
+            <v>19000</v>
+          </cell>
+          <cell r="K69" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="L69">
+            <v>142</v>
+          </cell>
+          <cell r="M69">
+            <v>142</v>
+          </cell>
+          <cell r="N69" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O69" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P69" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="Q69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E70">
+            <v>1</v>
+          </cell>
+          <cell r="G70" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I70">
+            <v>29.99</v>
+          </cell>
+          <cell r="J70">
+            <v>39000</v>
+          </cell>
+          <cell r="K70" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="L70">
+            <v>610</v>
+          </cell>
+          <cell r="M70">
+            <v>610</v>
+          </cell>
+          <cell r="N70" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O70" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P70" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="Q70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E71">
+            <v>1</v>
+          </cell>
+          <cell r="G71" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I71">
+            <v>39.99</v>
+          </cell>
+          <cell r="J71">
+            <v>48000</v>
+          </cell>
+          <cell r="K71" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="L71">
+            <v>433</v>
+          </cell>
+          <cell r="M71">
+            <v>433</v>
+          </cell>
+          <cell r="N71" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O71" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P71" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="Q71">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E72">
+            <v>1</v>
+          </cell>
+          <cell r="G72" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I72">
+            <v>49.99</v>
+          </cell>
+          <cell r="J72">
+            <v>65000</v>
+          </cell>
+          <cell r="K72" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="L72">
+            <v>604</v>
+          </cell>
+          <cell r="M72">
+            <v>604</v>
+          </cell>
+          <cell r="N72" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O72" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P72" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="Q72">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>펫 포획도구</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="E73">
+            <v>1</v>
+          </cell>
+          <cell r="G73" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I73">
+            <v>0.99</v>
+          </cell>
+          <cell r="J73">
+            <v>1200</v>
+          </cell>
+          <cell r="K73" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="L73">
+            <v>902</v>
+          </cell>
+          <cell r="M73">
+            <v>902</v>
+          </cell>
+          <cell r="N73" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O73" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P73" t="str">
+            <v>Item_cCaptureBetter</v>
+          </cell>
+          <cell r="Q73">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="E74">
+            <v>1</v>
+          </cell>
+          <cell r="G74" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I74">
+            <v>4.99</v>
+          </cell>
+          <cell r="J74">
+            <v>5900</v>
+          </cell>
+          <cell r="K74" t="str">
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="L74">
+            <v>924</v>
+          </cell>
+          <cell r="M74">
+            <v>924</v>
+          </cell>
+          <cell r="N74" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O74" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P74" t="str">
+            <v>Item_cCaptureBest</v>
+          </cell>
+          <cell r="Q74">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>n층 돌파 패키지</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E75">
+            <v>4</v>
+          </cell>
+          <cell r="G75" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H75">
+            <v>4</v>
+          </cell>
+          <cell r="I75">
+            <v>0.99</v>
+          </cell>
+          <cell r="J75">
+            <v>1200</v>
+          </cell>
+          <cell r="K75" t="str">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="L75">
+            <v>802</v>
+          </cell>
+          <cell r="M75">
+            <v>802</v>
+          </cell>
+          <cell r="N75" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O75" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P75" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q75">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E76">
+            <v>4</v>
+          </cell>
+          <cell r="G76" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H76">
+            <v>4</v>
+          </cell>
+          <cell r="I76">
+            <v>4.99</v>
+          </cell>
+          <cell r="J76">
+            <v>5900</v>
+          </cell>
+          <cell r="K76" t="str">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="L76">
+            <v>585</v>
+          </cell>
+          <cell r="M76">
+            <v>585</v>
+          </cell>
+          <cell r="N76" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O76" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P76" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q76">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E77">
+            <v>4</v>
+          </cell>
+          <cell r="G77" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H77">
+            <v>4</v>
+          </cell>
+          <cell r="I77">
+            <v>9.99</v>
+          </cell>
+          <cell r="J77">
+            <v>13000</v>
+          </cell>
+          <cell r="K77" t="str">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="L77">
+            <v>634</v>
+          </cell>
+          <cell r="M77">
+            <v>634</v>
+          </cell>
+          <cell r="N77" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O77" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P77" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q77">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E78">
+            <v>4</v>
+          </cell>
+          <cell r="G78" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H78">
+            <v>4</v>
+          </cell>
+          <cell r="I78">
+            <v>9.99</v>
+          </cell>
+          <cell r="J78">
+            <v>13000</v>
+          </cell>
+          <cell r="K78" t="str">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="L78">
+            <v>791</v>
+          </cell>
+          <cell r="M78">
+            <v>791</v>
+          </cell>
+          <cell r="N78" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O78" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P78" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q78">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E79">
+            <v>4</v>
+          </cell>
+          <cell r="G79" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H79">
+            <v>4</v>
+          </cell>
+          <cell r="I79">
+            <v>9.99</v>
+          </cell>
+          <cell r="J79">
+            <v>13000</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="L79">
+            <v>484</v>
+          </cell>
+          <cell r="M79">
+            <v>484</v>
+          </cell>
+          <cell r="N79" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O79" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P79" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q79">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>다이아 월정액</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="E80">
+            <v>2</v>
+          </cell>
+          <cell r="G80" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I80">
+            <v>4.99</v>
+          </cell>
+          <cell r="J80">
+            <v>5900</v>
+          </cell>
+          <cell r="K80" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="L80">
+            <v>212</v>
+          </cell>
+          <cell r="M80">
+            <v>212</v>
+          </cell>
+          <cell r="N80" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O80" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P80" t="str">
+            <v>Item_cDailyGem</v>
+          </cell>
+          <cell r="Q80">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>분석 월정액</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="E81">
+            <v>2</v>
+          </cell>
+          <cell r="G81" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I81">
+            <v>4.99</v>
+          </cell>
+          <cell r="J81">
+            <v>5900</v>
+          </cell>
+          <cell r="K81" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="L81">
+            <v>131</v>
+          </cell>
+          <cell r="M81">
+            <v>131</v>
+          </cell>
+          <cell r="N81" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O81" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P81" t="str">
+            <v>Cash_sResearchBoost</v>
+          </cell>
+          <cell r="Q81">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>릴레이팩</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E82">
+            <v>3</v>
+          </cell>
+          <cell r="G82" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I82">
+            <v>0.99</v>
+          </cell>
+          <cell r="J82">
+            <v>1200</v>
+          </cell>
+          <cell r="K82" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="L82">
+            <v>704</v>
+          </cell>
+          <cell r="M82">
+            <v>704</v>
+          </cell>
+          <cell r="N82" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O82" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P82" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q82">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E83">
+            <v>3</v>
+          </cell>
+          <cell r="G83" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I83">
+            <v>0.99</v>
+          </cell>
+          <cell r="J83">
+            <v>1200</v>
+          </cell>
+          <cell r="K83" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="L83">
+            <v>148</v>
+          </cell>
+          <cell r="M83">
+            <v>148</v>
+          </cell>
+          <cell r="N83" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O83" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P83" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q83">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E84">
+            <v>4</v>
+          </cell>
+          <cell r="G84" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I84">
+            <v>0.99</v>
+          </cell>
+          <cell r="J84">
+            <v>1200</v>
+          </cell>
+          <cell r="K84" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="L84">
+            <v>784</v>
+          </cell>
+          <cell r="M84">
+            <v>784</v>
+          </cell>
+          <cell r="N84" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O84" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P84" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q84">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E85">
+            <v>3</v>
+          </cell>
+          <cell r="G85" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I85">
+            <v>4.99</v>
+          </cell>
+          <cell r="J85">
+            <v>5900</v>
+          </cell>
+          <cell r="K85" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="L85">
+            <v>354</v>
+          </cell>
+          <cell r="M85">
+            <v>354</v>
+          </cell>
+          <cell r="N85" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O85" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P85" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q85">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E86">
+            <v>3</v>
+          </cell>
+          <cell r="G86" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I86">
+            <v>4.99</v>
+          </cell>
+          <cell r="J86">
+            <v>5900</v>
+          </cell>
+          <cell r="K86" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="L86">
+            <v>414</v>
+          </cell>
+          <cell r="M86">
+            <v>414</v>
+          </cell>
+          <cell r="N86" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O86" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P86" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q86">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E87">
+            <v>4</v>
+          </cell>
+          <cell r="G87" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I87">
+            <v>9.99</v>
+          </cell>
+          <cell r="J87">
+            <v>13000</v>
+          </cell>
+          <cell r="K87" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="L87">
+            <v>726</v>
+          </cell>
+          <cell r="M87">
+            <v>726</v>
+          </cell>
+          <cell r="N87" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O87" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P87" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q87">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E88">
+            <v>3</v>
+          </cell>
+          <cell r="G88" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I88">
+            <v>9.99</v>
+          </cell>
+          <cell r="J88">
+            <v>13000</v>
+          </cell>
+          <cell r="K88" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="L88">
+            <v>679</v>
+          </cell>
+          <cell r="M88">
+            <v>679</v>
+          </cell>
+          <cell r="N88" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O88" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P88" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q88">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E89">
+            <v>3</v>
+          </cell>
+          <cell r="G89" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I89">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="J89">
+            <v>25000</v>
+          </cell>
+          <cell r="K89" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="L89">
+            <v>752</v>
+          </cell>
+          <cell r="M89">
+            <v>752</v>
+          </cell>
+          <cell r="N89" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O89" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P89" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q89">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E90">
+            <v>3</v>
+          </cell>
+          <cell r="G90" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I90">
+            <v>39.99</v>
+          </cell>
+          <cell r="J90">
+            <v>48000</v>
+          </cell>
+          <cell r="K90" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="L90">
+            <v>534</v>
+          </cell>
+          <cell r="M90">
+            <v>534</v>
+          </cell>
+          <cell r="N90" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O90" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P90" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q90">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E91">
+            <v>4</v>
+          </cell>
+          <cell r="G91" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I91">
+            <v>49.99</v>
+          </cell>
+          <cell r="J91">
+            <v>69000</v>
+          </cell>
+          <cell r="K91" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="L91">
+            <v>243</v>
+          </cell>
+          <cell r="M91">
+            <v>243</v>
+          </cell>
+          <cell r="N91" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="O91" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="P91" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="Q91">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>autonew_1</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>없는 거 신규 패키지</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>autonew_1</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>autonew</v>
+          </cell>
+          <cell r="E92">
+            <v>4</v>
+          </cell>
+          <cell r="G92" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I92">
+            <v>99.99</v>
+          </cell>
+          <cell r="J92">
+            <v>109000</v>
+          </cell>
+          <cell r="K92" t="str">
+            <v>autonew_1</v>
+          </cell>
+          <cell r="L92">
+            <v>792</v>
+          </cell>
+          <cell r="M92">
+            <v>792</v>
+          </cell>
+          <cell r="N92" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O92" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P92" t="str">
+            <v>Cash_sAutoNew</v>
+          </cell>
+          <cell r="Q92">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>analysisexpboost_1</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>분석 부스트</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>analysisexpboost_1</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>analysisexpboost</v>
+          </cell>
+          <cell r="E93">
+            <v>4</v>
+          </cell>
+          <cell r="G93" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I93">
+            <v>0.99</v>
+          </cell>
+          <cell r="J93">
+            <v>1200</v>
+          </cell>
+          <cell r="K93" t="str">
+            <v>analysisexpboost_1</v>
+          </cell>
+          <cell r="L93">
+            <v>384</v>
+          </cell>
+          <cell r="M93">
+            <v>384</v>
+          </cell>
+          <cell r="N93" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O93" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P93" t="str">
+            <v>Cash_sAutoNew</v>
+          </cell>
+          <cell r="Q93">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>analysisexpboost_2</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>analysisexpboost_2</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>analysisexpboost</v>
+          </cell>
+          <cell r="E94">
+            <v>4</v>
+          </cell>
+          <cell r="G94" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I94">
+            <v>4.99</v>
+          </cell>
+          <cell r="J94">
+            <v>5900</v>
+          </cell>
+          <cell r="K94" t="str">
+            <v>analysisexpboost_2</v>
+          </cell>
+          <cell r="L94">
+            <v>681</v>
+          </cell>
+          <cell r="M94">
+            <v>681</v>
+          </cell>
+          <cell r="N94" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O94" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P94" t="str">
+            <v>Cash_sAutoNew</v>
+          </cell>
+          <cell r="Q94">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>analysisexpboost_3</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>analysisexpboost_3</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>analysisexpboost</v>
+          </cell>
+          <cell r="E95">
+            <v>4</v>
+          </cell>
+          <cell r="G95" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="I95">
+            <v>9.99</v>
+          </cell>
+          <cell r="J95">
+            <v>13000</v>
+          </cell>
+          <cell r="K95" t="str">
+            <v>analysisexpboost_3</v>
+          </cell>
+          <cell r="L95">
+            <v>813</v>
+          </cell>
+          <cell r="M95">
+            <v>813</v>
+          </cell>
+          <cell r="N95" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="O95" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="P95" t="str">
+            <v>Cash_sAutoNew</v>
+          </cell>
+          <cell r="Q95">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +5127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
@@ -893,7 +5228,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K34" si="1">IF(C2&lt;&gt;1,"",""""&amp;A2&amp;"""")</f>
+        <f t="shared" ref="K2:K5" si="1">IF(C2&lt;&gt;1,"",""""&amp;A2&amp;"""")</f>
         <v/>
       </c>
       <c r="M2">
@@ -2309,10 +6644,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094A9C3-1EBB-401E-A882-3FFCCAB5CD4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094A9C3-1EBB-401E-A882-3FFCCAB5CD4E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2388,6 +6725,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4687,12 +9025,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560A0A3-401E-4339-8533-5F4E360C4414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560A0A3-401E-4339-8533-5F4E360C4414}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4759,6 +9095,7 @@
         <v>0.5</v>
       </c>
       <c r="F3">
+        <f>VLOOKUP(G3,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
         <v>5</v>
       </c>
       <c r="G3" t="s">
@@ -4782,6 +9119,7 @@
         <v>0.9</v>
       </c>
       <c r="F4">
+        <f>VLOOKUP(G4,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
         <v>5</v>
       </c>
       <c r="G4" t="s">
@@ -4791,5 +9129,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9376C8C-14F0-4280-951A-33F2A969219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED64BF-B9FF-4F2A-BD68-F1424ECA7EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -5127,9 +5127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55A155-7E48-460A-87C5-02EDDB69BB91}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="H2">
         <f>VLOOKUP(C2,$M:$N,2,0)*100/COUNTIFS(C:C,C2,I:I,"&lt;="&amp;$Q$2)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="O2">
         <f>COUNTIF(C:C,M2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -5248,7 +5248,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(J1,COUNTA(J:J)-1,0),1)=",",SUBSTITUTE(OFFSET(J1,COUNTA(J:J)-1,0),",","",1),OFFSET(J1,COUNTA(J:J)-1,0))
 &amp;"]"</f>
-        <v>["Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022","Pet_0033"]</v>
+        <v>["Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021","Pet_0032"]</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5260,11 +5260,11 @@
         <v>PetName_TamporaB</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" si="3">C3*3</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -5275,11 +5275,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G34" si="5">RANK(C3,C:C)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" si="6">VLOOKUP(C3,$M:$N,2,0)*100/COUNTIFS(C:C,C3,I:I,"&lt;="&amp;$Q$2)</f>
-        <v>1.2857142857142858</v>
+        <v>0.75</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O6" si="8">COUNTIF(C:C,M3)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5327,11 +5327,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5379,11 +5379,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5416,11 +5416,11 @@
         <v>PetName_FirePigB</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5431,22 +5431,22 @@
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005"</v>
+        <v/>
       </c>
       <c r="K6" t="str">
         <f>IF(C6&lt;&gt;1,"",""""&amp;A6&amp;"""")</f>
-        <v>"Pet_0005"</v>
+        <v/>
       </c>
       <c r="M6">
         <v>5</v>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5468,11 +5468,11 @@
         <v>PetName_ShellfishA</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -5483,22 +5483,22 @@
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005"</v>
+        <v>,"Pet_0006"</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ref="K7:K34" si="9">IF(C7&lt;&gt;1,"",""""&amp;A7&amp;"""")</f>
-        <v/>
+        <v>"Pet_0006"</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5510,11 +5510,11 @@
         <v>PetName_ShellfishC</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -5525,22 +5525,22 @@
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007"</v>
+        <v>,"Pet_0006"</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="9"/>
-        <v>"Pet_0007"</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5552,11 +5552,11 @@
         <v>PetName_ShellfishE</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -5567,18 +5567,18 @@
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007"</v>
+        <v>,"Pet_0006"</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="9"/>
@@ -5609,18 +5609,18 @@
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007"</v>
+        <v>,"Pet_0006"</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="9"/>
@@ -5636,11 +5636,11 @@
         <v>PetName_StarfishD</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007"</v>
+        <v>,"Pet_0006","Pet_0010"</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0010"</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5678,11 +5678,11 @@
         <v>PetName_StarfishE</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -5693,22 +5693,22 @@
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+        <v>,"Pet_0006","Pet_0010"</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="9"/>
-        <v>"Pet_0011"</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5720,11 +5720,11 @@
         <v>PetName_BettyA</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -5735,22 +5735,22 @@
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012"</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0012"</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5762,11 +5762,11 @@
         <v>PetName_BettyC</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -5777,22 +5777,22 @@
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013"</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0013"</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5804,11 +5804,11 @@
         <v>PetName_CuteCrabA</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -5819,18 +5819,18 @@
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013"</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="9"/>
@@ -5846,11 +5846,11 @@
         <v>PetName_CuteCrabB</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013"</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="9"/>
-        <v>"Pet_0015"</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5888,11 +5888,11 @@
         <v>PetName_DinoA</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
@@ -5903,18 +5903,18 @@
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>2.25</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013"</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="9"/>
@@ -5930,11 +5930,11 @@
         <v>PetName_DinoB</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -5945,18 +5945,18 @@
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013"</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="9"/>
@@ -5972,11 +5972,11 @@
         <v>PetName_DinoC</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
@@ -5987,22 +5987,22 @@
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018"</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0018"</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -6014,11 +6014,11 @@
         <v>PetName_PlantaA</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -6029,18 +6029,18 @@
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>2.25</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018"</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="9"/>
@@ -6056,11 +6056,11 @@
         <v>PetName_PlantaB</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
@@ -6071,18 +6071,18 @@
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018"</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="9"/>
@@ -6098,11 +6098,11 @@
         <v>PetName_PuffeA</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -6113,22 +6113,22 @@
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0021"</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6140,11 +6140,11 @@
         <v>PetName_PuffeB</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -6155,22 +6155,22 @@
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="9"/>
-        <v>"Pet_0022"</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6182,11 +6182,11 @@
         <v>PetName_Rosehips</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -6197,18 +6197,18 @@
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>0.75</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="9"/>
@@ -6224,11 +6224,11 @@
         <v>PetName_SdDragon00</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -6239,18 +6239,18 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="9"/>
@@ -6281,18 +6281,18 @@
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="9"/>
@@ -6308,11 +6308,11 @@
         <v>PetName_SdDragon35</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
@@ -6323,18 +6323,18 @@
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>2.25</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="9"/>
@@ -6365,18 +6365,18 @@
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>1.8</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="9"/>
@@ -6392,11 +6392,11 @@
         <v>PetName_SdDragon56</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -6407,18 +6407,18 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="9"/>
@@ -6434,11 +6434,11 @@
         <v>PetName_SdDragon57</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -6449,18 +6449,18 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="9"/>
@@ -6476,11 +6476,11 @@
         <v>PetName_SdDragon68</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>77</v>
@@ -6491,18 +6491,18 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="9"/>
@@ -6518,11 +6518,11 @@
         <v>PetName_Swinecone</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
@@ -6533,18 +6533,18 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021"</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="9"/>
@@ -6560,11 +6560,11 @@
         <v>PetName_WhispaA</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>79</v>
@@ -6575,22 +6575,22 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021","Pet_0032"</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Pet_0032"</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6602,11 +6602,11 @@
         <v>PetName_WhispaB</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>80</v>
@@ -6617,22 +6617,22 @@
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>,"Pet_0005","Pet_0007","Pet_0011","Pet_0015","Pet_0022","Pet_0033"</v>
+        <v>,"Pet_0006","Pet_0010","Pet_0012","Pet_0013","Pet_0018","Pet_0021","Pet_0032"</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="9"/>
-        <v>"Pet_0033"</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094A9C3-1EBB-401E-A882-3FFCCAB5CD4E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED64BF-B9FF-4F2A-BD68-F1424ECA7EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE10B0-B04C-4D36-956B-373B9AC8713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -603,6 +603,11 @@
       <sheetName val="LevelPassTable"/>
       <sheetName val="ConsumeItemTable"/>
       <sheetName val="StageClearTable"/>
+      <sheetName val="PickOneSpellTable"/>
+      <sheetName val="PickOneCharacterTable"/>
+      <sheetName val="BrokenEnergyTable"/>
+      <sheetName val="PassAtkTable"/>
+      <sheetName val="PointShopTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -614,49 +619,49 @@
             <v>내용</v>
           </cell>
           <cell r="C1" t="str">
+            <v>영어 이름</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>한글 이름</v>
+          </cell>
+          <cell r="E1" t="str">
             <v>id</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="F1" t="str">
             <v>이벤트프로덕트카운트참고</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="G1" t="str">
             <v>등록상품개수</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="H1" t="str">
             <v>indexSub|Int</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="I1" t="str">
             <v>free|Bool</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="J1" t="str">
             <v>times|Int</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="K1" t="str">
+            <v>free검증</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>티어</v>
+          </cell>
+          <cell r="M1" t="str">
             <v>eng|Float</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="N1" t="str">
             <v>kor|Int</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="O1" t="str">
             <v>serverItemId|String</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="P1" t="str">
             <v>key</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="Q1" t="str">
             <v>key|Int</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>tp1</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>tp</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>vl1</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>cn1</v>
           </cell>
         </row>
         <row r="2">
@@ -667,4162 +672,4990 @@
             <v>계정당 하나 사는 레벨 패스</v>
           </cell>
           <cell r="C2" t="str">
+            <v>Level Pass</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>레벨 패스</v>
+          </cell>
+          <cell r="E2" t="str">
             <v>levelpass</v>
           </cell>
-          <cell r="D2" t="str">
+          <cell r="F2" t="str">
             <v>levelpass</v>
           </cell>
-          <cell r="E2">
+          <cell r="G2">
             <v>1</v>
           </cell>
-          <cell r="G2" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
+          <cell r="I2" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v/>
+          </cell>
+          <cell r="L2" t="str">
+            <v>10Tier</v>
+          </cell>
+          <cell r="M2">
             <v>9.99</v>
           </cell>
-          <cell r="J2">
-            <v>13000</v>
-          </cell>
-          <cell r="K2" t="str">
+          <cell r="N2">
+            <v>15000</v>
+          </cell>
+          <cell r="O2" t="str">
             <v>levelpass</v>
           </cell>
-          <cell r="L2">
+          <cell r="P2">
             <v>744</v>
           </cell>
-          <cell r="M2">
+          <cell r="Q2">
             <v>744</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>Cash_bLevelPass</v>
-          </cell>
-          <cell r="Q2">
-            <v>1</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
+            <v>brokenenergy_1</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Energy Piggy Bank</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>에너지 저금통</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>brokenenergy_1</v>
+          </cell>
+          <cell r="F3" t="str">
             <v>brokenenergy</v>
           </cell>
-          <cell r="C3" t="str">
-            <v>brokenenergy</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>brokenenergy</v>
-          </cell>
-          <cell r="E3">
+          <cell r="G3">
             <v>1</v>
           </cell>
-          <cell r="G3" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>4.99</v>
-          </cell>
-          <cell r="J3">
-            <v>6500</v>
+          <cell r="I3" t="b">
+            <v>0</v>
           </cell>
           <cell r="K3" t="str">
-            <v>brokenenergy</v>
-          </cell>
-          <cell r="L3">
+            <v/>
+          </cell>
+          <cell r="L3" t="str">
+            <v>1Tier</v>
+          </cell>
+          <cell r="M3">
+            <v>0.99</v>
+          </cell>
+          <cell r="N3">
+            <v>1100</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>brokenenergy_1</v>
+          </cell>
+          <cell r="P3">
             <v>493</v>
           </cell>
-          <cell r="M3">
+          <cell r="Q3">
             <v>493</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>Cash_sBrokenEnergy</v>
-          </cell>
-          <cell r="Q3">
-            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ev1_bigboost</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>다 떨어졌을 때 5분 빅부스트</v>
+            <v>brokenenergy_2</v>
           </cell>
           <cell r="C4" t="str">
-            <v>ev1_bigboost</v>
+            <v>Energy Piggy Bank 2</v>
           </cell>
           <cell r="D4" t="str">
-            <v>ev1</v>
-          </cell>
-          <cell r="E4">
-            <v>2</v>
-          </cell>
-          <cell r="G4" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>9.99</v>
-          </cell>
-          <cell r="J4">
-            <v>13000</v>
+            <v>에너지 저금통2</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>brokenenergy_2</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="I4" t="b">
+            <v>0</v>
           </cell>
           <cell r="K4" t="str">
-            <v>ev1_bigboost</v>
-          </cell>
-          <cell r="L4">
-            <v>234</v>
+            <v/>
+          </cell>
+          <cell r="L4" t="str">
+            <v>2Tier</v>
           </cell>
           <cell r="M4">
-            <v>234</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>cu</v>
+            <v>1.99</v>
+          </cell>
+          <cell r="N4">
+            <v>3000</v>
           </cell>
           <cell r="O4" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>EN</v>
+            <v>brokenenergy_2</v>
+          </cell>
+          <cell r="P4">
+            <v>585</v>
           </cell>
           <cell r="Q4">
-            <v>600</v>
+            <v>585</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ev2_almostthere</v>
+            <v>brokenenergy_3</v>
           </cell>
           <cell r="C5" t="str">
-            <v>ev2_almostthere</v>
+            <v>Energy Piggy Bank 3</v>
           </cell>
           <cell r="D5" t="str">
-            <v>ev2</v>
-          </cell>
-          <cell r="E5">
-            <v>2</v>
-          </cell>
-          <cell r="G5" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>4.99</v>
-          </cell>
-          <cell r="J5">
-            <v>6500</v>
+            <v>에너지 저금통3</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>brokenenergy_3</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+          <cell r="I5" t="b">
+            <v>0</v>
           </cell>
           <cell r="K5" t="str">
-            <v>ev2_almostthere</v>
-          </cell>
-          <cell r="L5">
-            <v>125</v>
+            <v/>
+          </cell>
+          <cell r="L5" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M5">
-            <v>125</v>
-          </cell>
-          <cell r="N5" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N5">
+            <v>6000</v>
           </cell>
           <cell r="O5" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>EN</v>
+            <v>brokenenergy_3</v>
+          </cell>
+          <cell r="P5">
+            <v>752</v>
           </cell>
           <cell r="Q5">
-            <v>500</v>
+            <v>752</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ev3_oneofthree_1</v>
+            <v>brokenenergy_4</v>
           </cell>
           <cell r="C6" t="str">
-            <v>ev3_oneofthree_1</v>
+            <v>Energy Piggy Bank 4</v>
           </cell>
           <cell r="D6" t="str">
-            <v>ev3</v>
-          </cell>
-          <cell r="E6">
-            <v>3</v>
-          </cell>
-          <cell r="G6" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>14.99</v>
-          </cell>
-          <cell r="J6">
-            <v>19000</v>
+            <v>에너지 저금통4</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>brokenenergy_4</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="I6" t="b">
+            <v>0</v>
           </cell>
           <cell r="K6" t="str">
-            <v>ev3_oneofthree_1</v>
-          </cell>
-          <cell r="L6">
-            <v>348</v>
+            <v/>
+          </cell>
+          <cell r="L6" t="str">
+            <v>6Tier</v>
           </cell>
           <cell r="M6">
-            <v>348</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>cu</v>
+            <v>5.99</v>
+          </cell>
+          <cell r="N6">
+            <v>8800</v>
           </cell>
           <cell r="O6" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P6" t="str">
-            <v>EN</v>
+            <v>brokenenergy_4</v>
+          </cell>
+          <cell r="P6">
+            <v>529</v>
           </cell>
           <cell r="Q6">
-            <v>30</v>
+            <v>529</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ev3_oneofthree_2</v>
+            <v>brokenenergy_5</v>
           </cell>
           <cell r="C7" t="str">
-            <v>ev3_oneofthree_2</v>
+            <v>Energy Piggy Bank 5</v>
           </cell>
           <cell r="D7" t="str">
-            <v>ev3</v>
-          </cell>
-          <cell r="E7">
-            <v>3</v>
-          </cell>
-          <cell r="G7" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I7">
-            <v>29.99</v>
-          </cell>
-          <cell r="J7">
-            <v>39000</v>
+            <v>에너지 저금통5</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>brokenenergy_5</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>brokenenergy</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="I7" t="b">
+            <v>0</v>
           </cell>
           <cell r="K7" t="str">
-            <v>ev3_oneofthree_2</v>
-          </cell>
-          <cell r="L7">
-            <v>431</v>
+            <v/>
+          </cell>
+          <cell r="L7" t="str">
+            <v>10Tier</v>
           </cell>
           <cell r="M7">
-            <v>431</v>
-          </cell>
-          <cell r="N7" t="str">
-            <v>cu</v>
+            <v>9.99</v>
+          </cell>
+          <cell r="N7">
+            <v>15000</v>
           </cell>
           <cell r="O7" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>EN</v>
+            <v>brokenenergy_5</v>
+          </cell>
+          <cell r="P7">
+            <v>743</v>
           </cell>
           <cell r="Q7">
-            <v>60</v>
+            <v>743</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>ev3_oneofthree_3</v>
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>다 떨어졌을 때 5분 빅부스트</v>
           </cell>
           <cell r="C8" t="str">
-            <v>ev3_oneofthree_3</v>
+            <v>Big Boost</v>
           </cell>
           <cell r="D8" t="str">
-            <v>ev3</v>
-          </cell>
-          <cell r="E8">
-            <v>4</v>
-          </cell>
-          <cell r="G8" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>49.99</v>
-          </cell>
-          <cell r="J8">
-            <v>69000</v>
+            <v>빅 부스트</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>ev1</v>
+          </cell>
+          <cell r="G8">
+            <v>2</v>
+          </cell>
+          <cell r="I8" t="b">
+            <v>0</v>
           </cell>
           <cell r="K8" t="str">
-            <v>ev3_oneofthree_3</v>
-          </cell>
-          <cell r="L8">
-            <v>969</v>
+            <v/>
+          </cell>
+          <cell r="L8" t="str">
+            <v>2Tier</v>
           </cell>
           <cell r="M8">
-            <v>969</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>cu</v>
+            <v>1.99</v>
+          </cell>
+          <cell r="N8">
+            <v>3000</v>
           </cell>
           <cell r="O8" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P8" t="str">
-            <v>EN</v>
+            <v>ev1_bigboost</v>
+          </cell>
+          <cell r="P8">
+            <v>234</v>
           </cell>
           <cell r="Q8">
-            <v>90</v>
+            <v>234</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>ev4_conti_1</v>
+            <v>ev2_almostthere</v>
           </cell>
           <cell r="C9" t="str">
-            <v>ev4_conti_1</v>
+            <v>Almost There Pack</v>
           </cell>
           <cell r="D9" t="str">
-            <v>ev4</v>
-          </cell>
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>1</v>
-          </cell>
-          <cell r="G9" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="L9">
-            <v>987</v>
+            <v>고지가 눈앞 패키지</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>ev2_almostthere</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>ev2</v>
+          </cell>
+          <cell r="G9">
+            <v>2</v>
+          </cell>
+          <cell r="I9" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v/>
+          </cell>
+          <cell r="L9" t="str">
+            <v>5Tier</v>
           </cell>
           <cell r="M9">
-            <v>987</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>cu</v>
+            <v>4.99</v>
+          </cell>
+          <cell r="N9">
+            <v>7500</v>
           </cell>
           <cell r="O9" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P9" t="str">
-            <v>EN</v>
+            <v>ev2_almostthere</v>
+          </cell>
+          <cell r="P9">
+            <v>125</v>
           </cell>
           <cell r="Q9">
-            <v>80</v>
+            <v>125</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>ev4_conti_2</v>
+            <v>ev3_oneofthree_1</v>
           </cell>
           <cell r="C10" t="str">
-            <v>ev4_conti_2</v>
+            <v>Standard Pack</v>
           </cell>
           <cell r="D10" t="str">
-            <v>ev4</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-          <cell r="F10">
-            <v>2</v>
-          </cell>
-          <cell r="G10" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="L10">
-            <v>261</v>
+            <v>스탠다드 팩</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>ev3_oneofthree_1</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="G10">
+            <v>3</v>
+          </cell>
+          <cell r="I10" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v/>
+          </cell>
+          <cell r="L10" t="str">
+            <v>7Tier</v>
           </cell>
           <cell r="M10">
-            <v>261</v>
-          </cell>
-          <cell r="N10" t="str">
-            <v>cu</v>
+            <v>6.99</v>
+          </cell>
+          <cell r="N10">
+            <v>9900</v>
           </cell>
           <cell r="O10" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P10" t="str">
-            <v>EN</v>
+            <v>ev3_oneofthree_1</v>
+          </cell>
+          <cell r="P10">
+            <v>348</v>
           </cell>
           <cell r="Q10">
-            <v>150</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ev4_conti_3</v>
+            <v>ev3_oneofthree_2</v>
           </cell>
           <cell r="C11" t="str">
-            <v>ev4_conti_3</v>
+            <v>Premium Pack</v>
           </cell>
           <cell r="D11" t="str">
-            <v>ev4</v>
-          </cell>
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
+            <v>프리미엄 팩</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>ev3_oneofthree_2</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="G11">
             <v>3</v>
           </cell>
-          <cell r="G11" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>1.99</v>
-          </cell>
-          <cell r="J11">
-            <v>2500</v>
+          <cell r="I11" t="b">
+            <v>0</v>
           </cell>
           <cell r="K11" t="str">
-            <v>ev4_conti_3</v>
-          </cell>
-          <cell r="L11">
-            <v>390</v>
+            <v/>
+          </cell>
+          <cell r="L11" t="str">
+            <v>12Tier</v>
           </cell>
           <cell r="M11">
-            <v>390</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>cu</v>
+            <v>11.99</v>
+          </cell>
+          <cell r="N11">
+            <v>19000</v>
           </cell>
           <cell r="O11" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P11" t="str">
-            <v>GO</v>
+            <v>ev3_oneofthree_2</v>
+          </cell>
+          <cell r="P11">
+            <v>431</v>
           </cell>
           <cell r="Q11">
-            <v>20000</v>
+            <v>431</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>ev4_conti_4</v>
+            <v>ev3_oneofthree_3</v>
           </cell>
           <cell r="C12" t="str">
-            <v>ev4_conti_4</v>
+            <v>Royal Family Pack</v>
           </cell>
           <cell r="D12" t="str">
-            <v>ev4</v>
-          </cell>
-          <cell r="E12">
-            <v>2</v>
-          </cell>
-          <cell r="F12">
+            <v>로열패밀리 팩</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>ev3_oneofthree_3</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="G12">
             <v>4</v>
           </cell>
-          <cell r="G12" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="L12">
-            <v>997</v>
+          <cell r="I12" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v/>
+          </cell>
+          <cell r="L12" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M12">
-            <v>997</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N12">
+            <v>45000</v>
           </cell>
           <cell r="O12" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P12" t="str">
-            <v>EN</v>
+            <v>ev3_oneofthree_3</v>
+          </cell>
+          <cell r="P12">
+            <v>969</v>
           </cell>
           <cell r="Q12">
-            <v>150</v>
+            <v>969</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>ev5_oneplustwo_1</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>ev5_oneplustwo_1</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>ev5</v>
-          </cell>
-          <cell r="E13">
-            <v>4</v>
-          </cell>
-          <cell r="F13">
+            <v>ev4_conti_1</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>ev4_conti_1</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="G13">
+            <v>3</v>
+          </cell>
+          <cell r="H13">
             <v>1</v>
           </cell>
-          <cell r="G13" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J13">
-            <v>25000</v>
+          <cell r="I13" t="b">
+            <v>1</v>
           </cell>
           <cell r="K13" t="str">
-            <v>ev5_oneplustwo_1</v>
-          </cell>
-          <cell r="L13">
-            <v>384</v>
-          </cell>
-          <cell r="M13">
-            <v>384</v>
+            <v/>
+          </cell>
+          <cell r="M13" t="str">
+            <v/>
           </cell>
           <cell r="N13" t="str">
-            <v>cu</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P13" t="str">
-            <v>EN</v>
+            <v/>
+          </cell>
+          <cell r="P13">
+            <v>987</v>
           </cell>
           <cell r="Q13">
-            <v>350</v>
+            <v>987</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ev5_oneplustwo_2</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>ev5_oneplustwo_2</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>ev5</v>
-          </cell>
-          <cell r="E14">
-            <v>3</v>
-          </cell>
-          <cell r="F14">
+            <v>ev4_conti_2</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>ev4_conti_2</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
+          <cell r="H14">
             <v>2</v>
           </cell>
-          <cell r="G14" t="b">
+          <cell r="I14" t="b">
             <v>1</v>
           </cell>
-          <cell r="L14">
-            <v>619</v>
-          </cell>
-          <cell r="M14">
-            <v>619</v>
+          <cell r="K14" t="str">
+            <v/>
+          </cell>
+          <cell r="M14" t="str">
+            <v/>
           </cell>
           <cell r="N14" t="str">
-            <v>cu</v>
-          </cell>
-          <cell r="O14" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P14" t="str">
-            <v>GO</v>
+            <v/>
+          </cell>
+          <cell r="P14">
+            <v>261</v>
           </cell>
           <cell r="Q14">
-            <v>50000</v>
+            <v>261</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>ev5_oneplustwo_3</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>ev5_oneplustwo_3</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>ev5</v>
-          </cell>
-          <cell r="E15">
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="G15">
             <v>4</v>
           </cell>
-          <cell r="F15">
+          <cell r="H15">
             <v>3</v>
           </cell>
-          <cell r="G15" t="b">
-            <v>1</v>
-          </cell>
-          <cell r="L15">
-            <v>150</v>
+          <cell r="I15" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>가격필요</v>
           </cell>
           <cell r="M15">
-            <v>150</v>
-          </cell>
-          <cell r="N15" t="str">
-            <v>cu</v>
+            <v>1.99</v>
+          </cell>
+          <cell r="N15">
+            <v>2500</v>
           </cell>
           <cell r="O15" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>EN</v>
+            <v>ev4_conti_3</v>
+          </cell>
+          <cell r="P15">
+            <v>390</v>
           </cell>
           <cell r="Q15">
-            <v>450</v>
+            <v>390</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>ev11_flashsale</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>ev11_flashsale</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>ev11</v>
-          </cell>
-          <cell r="E16">
+            <v>ev4_conti_4</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>ev4_conti_4</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="G16">
             <v>2</v>
           </cell>
-          <cell r="G16" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I16">
-            <v>9.99</v>
-          </cell>
-          <cell r="J16">
-            <v>13000</v>
+          <cell r="H16">
+            <v>4</v>
+          </cell>
+          <cell r="I16" t="b">
+            <v>1</v>
           </cell>
           <cell r="K16" t="str">
-            <v>ev11_flashsale</v>
-          </cell>
-          <cell r="L16">
-            <v>682</v>
-          </cell>
-          <cell r="M16">
-            <v>682</v>
+            <v/>
+          </cell>
+          <cell r="M16" t="str">
+            <v/>
           </cell>
           <cell r="N16" t="str">
-            <v>cu</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P16" t="str">
-            <v>EN</v>
+            <v/>
+          </cell>
+          <cell r="P16">
+            <v>997</v>
           </cell>
           <cell r="Q16">
-            <v>700</v>
+            <v>997</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ev12_nuclearsale</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>ev12_nuclearsale</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>ev12</v>
-          </cell>
-          <cell r="E17">
-            <v>2</v>
-          </cell>
-          <cell r="G17" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>9.99</v>
-          </cell>
-          <cell r="J17">
-            <v>13000</v>
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="G17">
+            <v>4</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17" t="b">
+            <v>0</v>
           </cell>
           <cell r="K17" t="str">
-            <v>ev12_nuclearsale</v>
-          </cell>
-          <cell r="L17">
-            <v>601</v>
+            <v>가격필요</v>
           </cell>
           <cell r="M17">
-            <v>601</v>
-          </cell>
-          <cell r="N17" t="str">
-            <v>cu</v>
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="N17">
+            <v>25000</v>
           </cell>
           <cell r="O17" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P17" t="str">
-            <v>EN</v>
+            <v>ev5_oneplustwo_1</v>
+          </cell>
+          <cell r="P17">
+            <v>384</v>
           </cell>
           <cell r="Q17">
-            <v>800</v>
+            <v>384</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>fortunewheel</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>fortunewheel</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>fortunewheel</v>
-          </cell>
-          <cell r="E18">
+            <v>ev5_oneplustwo_2</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>ev5_oneplustwo_2</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="G18">
+            <v>3</v>
+          </cell>
+          <cell r="H18">
+            <v>2</v>
+          </cell>
+          <cell r="I18" t="b">
             <v>1</v>
           </cell>
-          <cell r="G18" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>0.99</v>
-          </cell>
-          <cell r="J18">
-            <v>1200</v>
-          </cell>
           <cell r="K18" t="str">
-            <v>fortunewheel</v>
-          </cell>
-          <cell r="L18">
-            <v>797</v>
-          </cell>
-          <cell r="M18">
-            <v>797</v>
+            <v/>
+          </cell>
+          <cell r="M18" t="str">
+            <v/>
           </cell>
           <cell r="N18" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O18" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P18" t="str">
-            <v>Cash_sFortuneWheel</v>
+            <v/>
+          </cell>
+          <cell r="P18">
+            <v>619</v>
           </cell>
           <cell r="Q18">
-            <v>1</v>
+            <v>619</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>firstpurchase</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>firstpurchase</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>firstpurchase</v>
-          </cell>
-          <cell r="E19">
+            <v>ev5_oneplustwo_3</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>ev5_oneplustwo_3</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="G19">
+            <v>4</v>
+          </cell>
+          <cell r="H19">
             <v>3</v>
           </cell>
-          <cell r="G19" t="b">
+          <cell r="I19" t="b">
             <v>1</v>
           </cell>
-          <cell r="L19">
-            <v>658</v>
-          </cell>
-          <cell r="M19">
-            <v>658</v>
+          <cell r="K19" t="str">
+            <v/>
+          </cell>
+          <cell r="M19" t="str">
+            <v/>
           </cell>
           <cell r="N19" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O19" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P19" t="str">
-            <v>Spell_0003</v>
+            <v/>
+          </cell>
+          <cell r="P19">
+            <v>150</v>
           </cell>
           <cell r="Q19">
-            <v>1</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>seventotalgroup1_1</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v xml:space="preserve">세븐데이즈 </v>
+            <v>ev11_flashsale</v>
           </cell>
           <cell r="C20" t="str">
-            <v>seventotalgroup1_1</v>
+            <v>Flash Sale</v>
           </cell>
           <cell r="D20" t="str">
-            <v>seventotalgroup1</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-          <cell r="G20" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>9.99</v>
-          </cell>
-          <cell r="J20">
-            <v>13000</v>
+            <v>번쩍 세일</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>ev11_flashsale</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>ev11</v>
+          </cell>
+          <cell r="G20">
+            <v>2</v>
+          </cell>
+          <cell r="I20" t="b">
+            <v>0</v>
           </cell>
           <cell r="K20" t="str">
-            <v>seventotalgroup1_1</v>
-          </cell>
-          <cell r="L20">
-            <v>386</v>
+            <v/>
+          </cell>
+          <cell r="L20" t="str">
+            <v>12Tier</v>
           </cell>
           <cell r="M20">
-            <v>386</v>
-          </cell>
-          <cell r="N20" t="str">
-            <v>cu</v>
+            <v>11.99</v>
+          </cell>
+          <cell r="N20">
+            <v>19000</v>
           </cell>
           <cell r="O20" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P20" t="str">
-            <v>EN</v>
+            <v>ev11_flashsale</v>
+          </cell>
+          <cell r="P20">
+            <v>682</v>
           </cell>
           <cell r="Q20">
-            <v>100</v>
+            <v>682</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>seventotalgroup1_2</v>
+            <v>ev12_nuclearsale</v>
           </cell>
           <cell r="C21" t="str">
-            <v>seventotalgroup1_2</v>
+            <v>Nuclear Sale</v>
           </cell>
           <cell r="D21" t="str">
-            <v>seventotalgroup1</v>
-          </cell>
-          <cell r="E21">
-            <v>3</v>
-          </cell>
-          <cell r="G21" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>14.99</v>
-          </cell>
-          <cell r="J21">
-            <v>19000</v>
+            <v>핵폭탄 세일</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>ev12_nuclearsale</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>ev12</v>
+          </cell>
+          <cell r="G21">
+            <v>2</v>
+          </cell>
+          <cell r="I21" t="b">
+            <v>0</v>
           </cell>
           <cell r="K21" t="str">
-            <v>seventotalgroup1_2</v>
-          </cell>
-          <cell r="L21">
-            <v>582</v>
+            <v/>
+          </cell>
+          <cell r="L21" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M21">
-            <v>582</v>
-          </cell>
-          <cell r="N21" t="str">
-            <v>it</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N21">
+            <v>45000</v>
           </cell>
           <cell r="O21" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P21" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v>ev12_nuclearsale</v>
+          </cell>
+          <cell r="P21">
+            <v>601</v>
           </cell>
           <cell r="Q21">
-            <v>75</v>
+            <v>601</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>seventotalgroup1_3</v>
+            <v>fortunewheel</v>
           </cell>
           <cell r="C22" t="str">
-            <v>seventotalgroup1_3</v>
+            <v>Golden Roulette</v>
           </cell>
           <cell r="D22" t="str">
-            <v>seventotalgroup1</v>
-          </cell>
-          <cell r="E22">
-            <v>3</v>
-          </cell>
-          <cell r="G22" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>29.99</v>
-          </cell>
-          <cell r="J22">
-            <v>39000</v>
+            <v>황금 룰렛</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="G22">
+            <v>1</v>
+          </cell>
+          <cell r="I22" t="b">
+            <v>0</v>
           </cell>
           <cell r="K22" t="str">
-            <v>seventotalgroup1_3</v>
-          </cell>
-          <cell r="L22">
-            <v>538</v>
+            <v/>
+          </cell>
+          <cell r="L22" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M22">
-            <v>538</v>
-          </cell>
-          <cell r="N22" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N22">
+            <v>1100</v>
           </cell>
           <cell r="O22" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P22" t="str">
-            <v>EN</v>
+            <v>fortunewheel</v>
+          </cell>
+          <cell r="P22">
+            <v>797</v>
           </cell>
           <cell r="Q22">
-            <v>300</v>
+            <v>797</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>seventotalgroup1_4</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>seventotalgroup1_4</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>seventotalgroup1</v>
-          </cell>
-          <cell r="E23">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>firstpurchase</v>
+          </cell>
+          <cell r="G23">
             <v>3</v>
           </cell>
-          <cell r="G23" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>49.99</v>
-          </cell>
-          <cell r="J23">
-            <v>69000</v>
+          <cell r="I23" t="b">
+            <v>1</v>
           </cell>
           <cell r="K23" t="str">
-            <v>seventotalgroup1_4</v>
-          </cell>
-          <cell r="L23">
-            <v>620</v>
-          </cell>
-          <cell r="M23">
-            <v>620</v>
+            <v/>
+          </cell>
+          <cell r="M23" t="str">
+            <v/>
           </cell>
           <cell r="N23" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O23" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P23" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v/>
+          </cell>
+          <cell r="P23">
+            <v>658</v>
           </cell>
           <cell r="Q23">
-            <v>200</v>
+            <v>658</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>seventotalgroup2_1</v>
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v xml:space="preserve">세븐데이즈 </v>
           </cell>
           <cell r="C24" t="str">
-            <v>seventotalgroup2_1</v>
+            <v>7-Day Mission Pack 1</v>
           </cell>
           <cell r="D24" t="str">
-            <v>seventotalgroup2</v>
-          </cell>
-          <cell r="E24">
+            <v>7일 미션 1팩</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="G24">
             <v>3</v>
           </cell>
-          <cell r="G24" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>9.99</v>
-          </cell>
-          <cell r="J24">
-            <v>13000</v>
+          <cell r="I24" t="b">
+            <v>0</v>
           </cell>
           <cell r="K24" t="str">
-            <v>seventotalgroup2_1</v>
-          </cell>
-          <cell r="L24">
-            <v>474</v>
+            <v/>
+          </cell>
+          <cell r="L24" t="str">
+            <v>5Tier</v>
           </cell>
           <cell r="M24">
-            <v>474</v>
-          </cell>
-          <cell r="N24" t="str">
-            <v>cu</v>
+            <v>4.99</v>
+          </cell>
+          <cell r="N24">
+            <v>7500</v>
           </cell>
           <cell r="O24" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P24" t="str">
-            <v>EN</v>
+            <v>seventotalgroup1_1</v>
+          </cell>
+          <cell r="P24">
+            <v>386</v>
           </cell>
           <cell r="Q24">
-            <v>100</v>
+            <v>386</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>seventotalgroup2_2</v>
+            <v>seventotalgroup1_2</v>
           </cell>
           <cell r="C25" t="str">
-            <v>seventotalgroup2_2</v>
+            <v>7-Day Mission Pack 2</v>
           </cell>
           <cell r="D25" t="str">
-            <v>seventotalgroup2</v>
-          </cell>
-          <cell r="E25">
+            <v>7일 미션 2팩</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>seventotalgroup1_2</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="G25">
             <v>3</v>
           </cell>
-          <cell r="G25" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>14.99</v>
-          </cell>
-          <cell r="J25">
-            <v>19000</v>
+          <cell r="I25" t="b">
+            <v>0</v>
           </cell>
           <cell r="K25" t="str">
-            <v>seventotalgroup2_2</v>
-          </cell>
-          <cell r="L25">
-            <v>244</v>
+            <v/>
+          </cell>
+          <cell r="L25" t="str">
+            <v>10Tier</v>
           </cell>
           <cell r="M25">
-            <v>244</v>
-          </cell>
-          <cell r="N25" t="str">
-            <v>it</v>
+            <v>9.99</v>
+          </cell>
+          <cell r="N25">
+            <v>15000</v>
           </cell>
           <cell r="O25" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P25" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v>seventotalgroup1_2</v>
+          </cell>
+          <cell r="P25">
+            <v>582</v>
           </cell>
           <cell r="Q25">
-            <v>400</v>
+            <v>582</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>seventotalgroup2_3</v>
+            <v>seventotalgroup1_3</v>
           </cell>
           <cell r="C26" t="str">
-            <v>seventotalgroup2_3</v>
+            <v>7-Day Mission Pack 3</v>
           </cell>
           <cell r="D26" t="str">
-            <v>seventotalgroup2</v>
-          </cell>
-          <cell r="E26">
+            <v>7일 미션 3팩</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>seventotalgroup1_3</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="G26">
             <v>3</v>
           </cell>
-          <cell r="G26" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I26">
-            <v>29.99</v>
-          </cell>
-          <cell r="J26">
-            <v>39000</v>
+          <cell r="I26" t="b">
+            <v>0</v>
           </cell>
           <cell r="K26" t="str">
-            <v>seventotalgroup2_3</v>
-          </cell>
-          <cell r="L26">
-            <v>944</v>
+            <v/>
+          </cell>
+          <cell r="L26" t="str">
+            <v>20Tier</v>
           </cell>
           <cell r="M26">
-            <v>944</v>
-          </cell>
-          <cell r="N26" t="str">
-            <v>cu</v>
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="N26">
+            <v>30000</v>
           </cell>
           <cell r="O26" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P26" t="str">
-            <v>EN</v>
+            <v>seventotalgroup1_3</v>
+          </cell>
+          <cell r="P26">
+            <v>538</v>
           </cell>
           <cell r="Q26">
-            <v>300</v>
+            <v>538</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>seventotalgroup2_4</v>
+            <v>seventotalgroup1_4</v>
           </cell>
           <cell r="C27" t="str">
-            <v>seventotalgroup2_4</v>
+            <v>7-Day Mission Pack 4</v>
           </cell>
           <cell r="D27" t="str">
-            <v>seventotalgroup2</v>
-          </cell>
-          <cell r="E27">
+            <v>7일 미션 4팩</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>seventotalgroup1_4</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>seventotalgroup1</v>
+          </cell>
+          <cell r="G27">
             <v>3</v>
           </cell>
-          <cell r="G27" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I27">
-            <v>49.99</v>
-          </cell>
-          <cell r="J27">
-            <v>69000</v>
+          <cell r="I27" t="b">
+            <v>0</v>
           </cell>
           <cell r="K27" t="str">
-            <v>seventotalgroup2_4</v>
-          </cell>
-          <cell r="L27">
-            <v>383</v>
+            <v/>
+          </cell>
+          <cell r="L27" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M27">
-            <v>383</v>
-          </cell>
-          <cell r="N27" t="str">
-            <v>it</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N27">
+            <v>45000</v>
           </cell>
           <cell r="O27" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P27" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v>seventotalgroup1_4</v>
+          </cell>
+          <cell r="P27">
+            <v>620</v>
           </cell>
           <cell r="Q27">
-            <v>1200</v>
+            <v>620</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>seventotalgroup3_1</v>
+            <v>seventotalgroup2_1</v>
           </cell>
           <cell r="C28" t="str">
-            <v>seventotalgroup3_1</v>
+            <v>7-Day Mission Pack 1</v>
           </cell>
           <cell r="D28" t="str">
-            <v>seventotalgroup3</v>
-          </cell>
-          <cell r="E28">
+            <v>7일 미션 1팩</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>seventotalgroup2_1</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="G28">
             <v>3</v>
           </cell>
-          <cell r="G28" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I28">
-            <v>9.99</v>
-          </cell>
-          <cell r="J28">
-            <v>13000</v>
+          <cell r="I28" t="b">
+            <v>0</v>
           </cell>
           <cell r="K28" t="str">
-            <v>seventotalgroup3_1</v>
-          </cell>
-          <cell r="L28">
-            <v>545</v>
+            <v/>
+          </cell>
+          <cell r="L28" t="str">
+            <v>7Tier</v>
           </cell>
           <cell r="M28">
-            <v>545</v>
-          </cell>
-          <cell r="N28" t="str">
-            <v>cu</v>
+            <v>6.99</v>
+          </cell>
+          <cell r="N28">
+            <v>9900</v>
           </cell>
           <cell r="O28" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P28" t="str">
-            <v>EN</v>
+            <v>seventotalgroup2_1</v>
+          </cell>
+          <cell r="P28">
+            <v>474</v>
           </cell>
           <cell r="Q28">
-            <v>100</v>
+            <v>474</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>seventotalgroup3_2</v>
+            <v>seventotalgroup2_2</v>
           </cell>
           <cell r="C29" t="str">
-            <v>seventotalgroup3_2</v>
+            <v>7-Day Mission Pack 2</v>
           </cell>
           <cell r="D29" t="str">
-            <v>seventotalgroup3</v>
-          </cell>
-          <cell r="E29">
+            <v>7일 미션 2팩</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>seventotalgroup2_2</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="G29">
             <v>3</v>
           </cell>
-          <cell r="G29" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I29">
-            <v>14.99</v>
-          </cell>
-          <cell r="J29">
-            <v>19000</v>
+          <cell r="I29" t="b">
+            <v>0</v>
           </cell>
           <cell r="K29" t="str">
-            <v>seventotalgroup3_2</v>
-          </cell>
-          <cell r="L29">
-            <v>231</v>
+            <v/>
+          </cell>
+          <cell r="L29" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M29">
-            <v>231</v>
-          </cell>
-          <cell r="N29" t="str">
-            <v>it</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N29">
+            <v>29000</v>
           </cell>
           <cell r="O29" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P29" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v>seventotalgroup2_2</v>
+          </cell>
+          <cell r="P29">
+            <v>244</v>
           </cell>
           <cell r="Q29">
-            <v>300</v>
+            <v>244</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>seventotalgroup3_3</v>
+            <v>seventotalgroup2_3</v>
           </cell>
           <cell r="C30" t="str">
-            <v>seventotalgroup3_3</v>
+            <v>7-Day Mission Pack 3</v>
           </cell>
           <cell r="D30" t="str">
-            <v>seventotalgroup3</v>
-          </cell>
-          <cell r="E30">
+            <v>7일 미션 3팩</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>seventotalgroup2_3</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="G30">
             <v>3</v>
           </cell>
-          <cell r="G30" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
+          <cell r="I30" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v/>
+          </cell>
+          <cell r="L30" t="str">
+            <v>30Tier</v>
+          </cell>
+          <cell r="M30">
             <v>29.99</v>
           </cell>
-          <cell r="J30">
-            <v>39000</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>seventotalgroup3_3</v>
-          </cell>
-          <cell r="L30">
-            <v>654</v>
-          </cell>
-          <cell r="M30">
-            <v>654</v>
-          </cell>
-          <cell r="N30" t="str">
-            <v>cu</v>
+          <cell r="N30">
+            <v>45000</v>
           </cell>
           <cell r="O30" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P30" t="str">
-            <v>EN</v>
+            <v>seventotalgroup2_3</v>
+          </cell>
+          <cell r="P30">
+            <v>944</v>
           </cell>
           <cell r="Q30">
-            <v>300</v>
+            <v>944</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>seventotalgroup3_4</v>
+            <v>seventotalgroup2_4</v>
           </cell>
           <cell r="C31" t="str">
-            <v>seventotalgroup3_4</v>
+            <v>7-Day Mission Pack 4</v>
           </cell>
           <cell r="D31" t="str">
-            <v>seventotalgroup3</v>
-          </cell>
-          <cell r="E31">
+            <v>7일 미션 4팩</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>seventotalgroup2_4</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>seventotalgroup2</v>
+          </cell>
+          <cell r="G31">
             <v>3</v>
           </cell>
-          <cell r="G31" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I31">
-            <v>49.99</v>
-          </cell>
-          <cell r="J31">
-            <v>69000</v>
+          <cell r="I31" t="b">
+            <v>0</v>
           </cell>
           <cell r="K31" t="str">
-            <v>seventotalgroup3_4</v>
-          </cell>
-          <cell r="L31">
-            <v>279</v>
+            <v/>
+          </cell>
+          <cell r="L31" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M31">
-            <v>279</v>
-          </cell>
-          <cell r="N31" t="str">
-            <v>it</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N31">
+            <v>99000</v>
           </cell>
           <cell r="O31" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P31" t="str">
-            <v>Cash_sSevenTotal</v>
+            <v>seventotalgroup2_4</v>
+          </cell>
+          <cell r="P31">
+            <v>383</v>
           </cell>
           <cell r="Q31">
-            <v>1000</v>
+            <v>383</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>festivalgroup1_1</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>페스티발</v>
+            <v>seventotalgroup3_1</v>
           </cell>
           <cell r="C32" t="str">
-            <v>festivalgroup1_1</v>
+            <v>7-Day Mission Pack 1</v>
           </cell>
           <cell r="D32" t="str">
-            <v>festivalgroup1</v>
-          </cell>
-          <cell r="E32">
+            <v>7일 미션 1팩</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>seventotalgroup3_1</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="G32">
             <v>3</v>
           </cell>
-          <cell r="G32" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
+          <cell r="I32" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v/>
+          </cell>
+          <cell r="L32" t="str">
+            <v>10Tier</v>
+          </cell>
+          <cell r="M32">
             <v>9.99</v>
           </cell>
-          <cell r="J32">
-            <v>13000</v>
-          </cell>
-          <cell r="K32" t="str">
-            <v>festivalgroup1_1</v>
-          </cell>
-          <cell r="L32">
-            <v>359</v>
-          </cell>
-          <cell r="M32">
-            <v>359</v>
-          </cell>
-          <cell r="N32" t="str">
-            <v>it</v>
+          <cell r="N32">
+            <v>15000</v>
           </cell>
           <cell r="O32" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P32" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>seventotalgroup3_1</v>
+          </cell>
+          <cell r="P32">
+            <v>545</v>
           </cell>
           <cell r="Q32">
-            <v>500</v>
+            <v>545</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>festivalgroup1_2</v>
+            <v>seventotalgroup3_2</v>
           </cell>
           <cell r="C33" t="str">
-            <v>festivalgroup1_2</v>
+            <v>7-Day Mission Pack 2</v>
           </cell>
           <cell r="D33" t="str">
-            <v>festivalgroup1</v>
-          </cell>
-          <cell r="E33">
+            <v>7일 미션 2팩</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>seventotalgroup3_2</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="G33">
             <v>3</v>
           </cell>
-          <cell r="G33" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I33">
-            <v>14.99</v>
-          </cell>
-          <cell r="J33">
-            <v>19000</v>
+          <cell r="I33" t="b">
+            <v>0</v>
           </cell>
           <cell r="K33" t="str">
-            <v>festivalgroup1_2</v>
-          </cell>
-          <cell r="L33">
-            <v>881</v>
+            <v/>
+          </cell>
+          <cell r="L33" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M33">
-            <v>881</v>
-          </cell>
-          <cell r="N33" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N33">
+            <v>45000</v>
           </cell>
           <cell r="O33" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P33" t="str">
-            <v>EN</v>
+            <v>seventotalgroup3_2</v>
+          </cell>
+          <cell r="P33">
+            <v>231</v>
           </cell>
           <cell r="Q33">
-            <v>300</v>
+            <v>231</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>festivalgroup1_3</v>
+            <v>seventotalgroup3_3</v>
           </cell>
           <cell r="C34" t="str">
-            <v>festivalgroup1_3</v>
+            <v>7-Day Mission Pack 3</v>
           </cell>
           <cell r="D34" t="str">
-            <v>festivalgroup1</v>
-          </cell>
-          <cell r="E34">
+            <v>7일 미션 3팩</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="G34">
             <v>3</v>
           </cell>
-          <cell r="G34" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I34">
-            <v>29.99</v>
-          </cell>
-          <cell r="J34">
-            <v>39000</v>
+          <cell r="I34" t="b">
+            <v>0</v>
           </cell>
           <cell r="K34" t="str">
-            <v>festivalgroup1_3</v>
-          </cell>
-          <cell r="L34">
-            <v>108</v>
+            <v/>
+          </cell>
+          <cell r="L34" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M34">
-            <v>108</v>
-          </cell>
-          <cell r="N34" t="str">
-            <v>it</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N34">
+            <v>99000</v>
           </cell>
           <cell r="O34" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P34" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="P34">
+            <v>654</v>
           </cell>
           <cell r="Q34">
-            <v>1500</v>
+            <v>654</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>festivalgroup1_4</v>
+            <v>seventotalgroup3_4</v>
           </cell>
           <cell r="C35" t="str">
-            <v>festivalgroup1_4</v>
+            <v>7-Day Mission Pack 4</v>
           </cell>
           <cell r="D35" t="str">
-            <v>festivalgroup1</v>
-          </cell>
-          <cell r="E35">
+            <v>7일 미션 4팩</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="G35">
             <v>3</v>
           </cell>
-          <cell r="G35" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I35">
-            <v>49.99</v>
-          </cell>
-          <cell r="J35">
-            <v>69000</v>
+          <cell r="I35" t="b">
+            <v>0</v>
           </cell>
           <cell r="K35" t="str">
-            <v>festivalgroup1_4</v>
-          </cell>
-          <cell r="L35">
-            <v>550</v>
+            <v/>
+          </cell>
+          <cell r="L35" t="str">
+            <v>60Tier</v>
           </cell>
           <cell r="M35">
-            <v>550</v>
-          </cell>
-          <cell r="N35" t="str">
-            <v>cu</v>
+            <v>99.99</v>
+          </cell>
+          <cell r="N35">
+            <v>149000</v>
           </cell>
           <cell r="O35" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P35" t="str">
-            <v>EN</v>
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="P35">
+            <v>279</v>
           </cell>
           <cell r="Q35">
-            <v>100</v>
+            <v>279</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>festivalgroup2_1</v>
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>페스티발</v>
           </cell>
           <cell r="C36" t="str">
-            <v>festivalgroup2_1</v>
+            <v>Festival Pack 1</v>
           </cell>
           <cell r="D36" t="str">
-            <v>festivalgroup2</v>
-          </cell>
-          <cell r="E36">
+            <v>페스티벌 1팩</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="G36">
             <v>3</v>
           </cell>
-          <cell r="G36" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I36">
-            <v>9.99</v>
-          </cell>
-          <cell r="J36">
-            <v>13000</v>
+          <cell r="I36" t="b">
+            <v>0</v>
           </cell>
           <cell r="K36" t="str">
-            <v>festivalgroup2_1</v>
-          </cell>
-          <cell r="L36">
-            <v>397</v>
+            <v/>
+          </cell>
+          <cell r="L36" t="str">
+            <v>7Tier</v>
           </cell>
           <cell r="M36">
-            <v>397</v>
-          </cell>
-          <cell r="N36" t="str">
-            <v>it</v>
+            <v>6.99</v>
+          </cell>
+          <cell r="N36">
+            <v>9900</v>
           </cell>
           <cell r="O36" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P36" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>festivalgroup1_1</v>
+          </cell>
+          <cell r="P36">
+            <v>359</v>
           </cell>
           <cell r="Q36">
-            <v>500</v>
+            <v>359</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>festivalgroup2_2</v>
+            <v>festivalgroup1_2</v>
           </cell>
           <cell r="C37" t="str">
-            <v>festivalgroup2_2</v>
+            <v>Festival Pack 2</v>
           </cell>
           <cell r="D37" t="str">
-            <v>festivalgroup2</v>
-          </cell>
-          <cell r="E37">
+            <v>페스티벌 2팩</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>festivalgroup1_2</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="G37">
             <v>3</v>
           </cell>
-          <cell r="G37" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I37">
-            <v>14.99</v>
-          </cell>
-          <cell r="J37">
-            <v>19000</v>
+          <cell r="I37" t="b">
+            <v>0</v>
           </cell>
           <cell r="K37" t="str">
-            <v>festivalgroup2_2</v>
-          </cell>
-          <cell r="L37">
-            <v>401</v>
+            <v/>
+          </cell>
+          <cell r="L37" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M37">
-            <v>401</v>
-          </cell>
-          <cell r="N37" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N37">
+            <v>29000</v>
           </cell>
           <cell r="O37" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P37" t="str">
-            <v>EN</v>
+            <v>festivalgroup1_2</v>
+          </cell>
+          <cell r="P37">
+            <v>881</v>
           </cell>
           <cell r="Q37">
-            <v>300</v>
+            <v>881</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>festivalgroup2_3</v>
+            <v>festivalgroup1_3</v>
           </cell>
           <cell r="C38" t="str">
-            <v>festivalgroup2_3</v>
+            <v>Festival Pack 3</v>
           </cell>
           <cell r="D38" t="str">
-            <v>festivalgroup2</v>
-          </cell>
-          <cell r="E38">
+            <v>페스티벌 3팩</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>festivalgroup1_3</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="G38">
             <v>3</v>
           </cell>
-          <cell r="G38" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I38">
+          <cell r="I38" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v/>
+          </cell>
+          <cell r="L38" t="str">
+            <v>30Tier</v>
+          </cell>
+          <cell r="M38">
             <v>29.99</v>
           </cell>
-          <cell r="J38">
-            <v>39000</v>
-          </cell>
-          <cell r="K38" t="str">
-            <v>festivalgroup2_3</v>
-          </cell>
-          <cell r="L38">
-            <v>177</v>
-          </cell>
-          <cell r="M38">
-            <v>177</v>
-          </cell>
-          <cell r="N38" t="str">
-            <v>it</v>
+          <cell r="N38">
+            <v>45000</v>
           </cell>
           <cell r="O38" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P38" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>festivalgroup1_3</v>
+          </cell>
+          <cell r="P38">
+            <v>108</v>
           </cell>
           <cell r="Q38">
-            <v>1500</v>
+            <v>108</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>festivalgroup2_4</v>
+            <v>festivalgroup1_4</v>
           </cell>
           <cell r="C39" t="str">
-            <v>festivalgroup2_4</v>
+            <v>Festival Pack 4</v>
           </cell>
           <cell r="D39" t="str">
-            <v>festivalgroup2</v>
-          </cell>
-          <cell r="E39">
+            <v>페스티벌 4팩</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>festivalgroup1_4</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>festivalgroup1</v>
+          </cell>
+          <cell r="G39">
             <v>3</v>
           </cell>
-          <cell r="G39" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I39">
-            <v>49.99</v>
-          </cell>
-          <cell r="J39">
-            <v>69000</v>
+          <cell r="I39" t="b">
+            <v>0</v>
           </cell>
           <cell r="K39" t="str">
-            <v>festivalgroup2_4</v>
-          </cell>
-          <cell r="L39">
-            <v>506</v>
+            <v/>
+          </cell>
+          <cell r="L39" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M39">
-            <v>506</v>
-          </cell>
-          <cell r="N39" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N39">
+            <v>99000</v>
           </cell>
           <cell r="O39" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P39" t="str">
-            <v>EN</v>
+            <v>festivalgroup1_4</v>
+          </cell>
+          <cell r="P39">
+            <v>550</v>
           </cell>
           <cell r="Q39">
-            <v>100</v>
+            <v>550</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>festivalgroup3_1</v>
+            <v>festivalgroup2_1</v>
           </cell>
           <cell r="C40" t="str">
-            <v>festivalgroup3_1</v>
+            <v>Festival Pack 1</v>
           </cell>
           <cell r="D40" t="str">
-            <v>festivalgroup3</v>
-          </cell>
-          <cell r="E40">
+            <v>페스티벌 1팩</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>festivalgroup2_1</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="G40">
             <v>3</v>
           </cell>
-          <cell r="G40" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I40">
-            <v>9.99</v>
-          </cell>
-          <cell r="J40">
-            <v>13000</v>
+          <cell r="I40" t="b">
+            <v>0</v>
           </cell>
           <cell r="K40" t="str">
-            <v>festivalgroup3_1</v>
-          </cell>
-          <cell r="L40">
-            <v>741</v>
+            <v/>
+          </cell>
+          <cell r="L40" t="str">
+            <v>7Tier</v>
           </cell>
           <cell r="M40">
-            <v>741</v>
-          </cell>
-          <cell r="N40" t="str">
-            <v>it</v>
+            <v>6.99</v>
+          </cell>
+          <cell r="N40">
+            <v>9900</v>
           </cell>
           <cell r="O40" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P40" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>festivalgroup2_1</v>
+          </cell>
+          <cell r="P40">
+            <v>397</v>
           </cell>
           <cell r="Q40">
-            <v>500</v>
+            <v>397</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>festivalgroup3_2</v>
+            <v>festivalgroup2_2</v>
           </cell>
           <cell r="C41" t="str">
-            <v>festivalgroup3_2</v>
+            <v>Festival Pack 2</v>
           </cell>
           <cell r="D41" t="str">
-            <v>festivalgroup3</v>
-          </cell>
-          <cell r="E41">
+            <v>페스티벌 2팩</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>festivalgroup2_2</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="G41">
             <v>3</v>
           </cell>
-          <cell r="G41" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I41">
-            <v>14.99</v>
-          </cell>
-          <cell r="J41">
-            <v>19000</v>
+          <cell r="I41" t="b">
+            <v>0</v>
           </cell>
           <cell r="K41" t="str">
-            <v>festivalgroup3_2</v>
-          </cell>
-          <cell r="L41">
-            <v>578</v>
+            <v/>
+          </cell>
+          <cell r="L41" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M41">
-            <v>578</v>
-          </cell>
-          <cell r="N41" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N41">
+            <v>29000</v>
           </cell>
           <cell r="O41" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P41" t="str">
-            <v>EN</v>
+            <v>festivalgroup2_2</v>
+          </cell>
+          <cell r="P41">
+            <v>401</v>
           </cell>
           <cell r="Q41">
-            <v>300</v>
+            <v>401</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>festivalgroup3_3</v>
+            <v>festivalgroup2_3</v>
           </cell>
           <cell r="C42" t="str">
-            <v>festivalgroup3_3</v>
+            <v>Festival Pack 3</v>
           </cell>
           <cell r="D42" t="str">
-            <v>festivalgroup3</v>
-          </cell>
-          <cell r="E42">
+            <v>페스티벌 3팩</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>festivalgroup2_3</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="G42">
             <v>3</v>
           </cell>
-          <cell r="G42" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I42">
+          <cell r="I42" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v/>
+          </cell>
+          <cell r="L42" t="str">
+            <v>30Tier</v>
+          </cell>
+          <cell r="M42">
             <v>29.99</v>
           </cell>
-          <cell r="J42">
-            <v>39000</v>
-          </cell>
-          <cell r="K42" t="str">
-            <v>festivalgroup3_3</v>
-          </cell>
-          <cell r="L42">
-            <v>106</v>
-          </cell>
-          <cell r="M42">
-            <v>106</v>
-          </cell>
-          <cell r="N42" t="str">
-            <v>it</v>
+          <cell r="N42">
+            <v>45000</v>
           </cell>
           <cell r="O42" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P42" t="str">
-            <v>Cash_sFestivalTotal</v>
+            <v>festivalgroup2_3</v>
+          </cell>
+          <cell r="P42">
+            <v>177</v>
           </cell>
           <cell r="Q42">
-            <v>1500</v>
+            <v>177</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>festivalgroup3_4</v>
+            <v>festivalgroup2_4</v>
           </cell>
           <cell r="C43" t="str">
-            <v>festivalgroup3_4</v>
+            <v>Festival Pack 4</v>
           </cell>
           <cell r="D43" t="str">
-            <v>festivalgroup3</v>
-          </cell>
-          <cell r="E43">
+            <v>페스티벌 4팩</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>festivalgroup2_4</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>festivalgroup2</v>
+          </cell>
+          <cell r="G43">
             <v>3</v>
           </cell>
-          <cell r="G43" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I43">
-            <v>49.99</v>
-          </cell>
-          <cell r="J43">
-            <v>69000</v>
+          <cell r="I43" t="b">
+            <v>0</v>
           </cell>
           <cell r="K43" t="str">
-            <v>festivalgroup3_4</v>
-          </cell>
-          <cell r="L43">
-            <v>440</v>
+            <v/>
+          </cell>
+          <cell r="L43" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M43">
-            <v>440</v>
-          </cell>
-          <cell r="N43" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N43">
+            <v>99000</v>
           </cell>
           <cell r="O43" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P43" t="str">
-            <v>EN</v>
+            <v>festivalgroup2_4</v>
+          </cell>
+          <cell r="P43">
+            <v>506</v>
           </cell>
           <cell r="Q43">
-            <v>100</v>
+            <v>506</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>cashshopenergy_1</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>상점 에너지</v>
+            <v>festivalgroup3_1</v>
           </cell>
           <cell r="C44" t="str">
-            <v>cashshopenergy_1</v>
+            <v>Festival Pack 1</v>
           </cell>
           <cell r="D44" t="str">
-            <v>cashshopenergy</v>
-          </cell>
-          <cell r="E44">
-            <v>1</v>
-          </cell>
-          <cell r="G44" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I44">
-            <v>0.99</v>
-          </cell>
-          <cell r="J44">
-            <v>1200</v>
+            <v>페스티벌 1팩</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>festivalgroup3_1</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="G44">
+            <v>3</v>
+          </cell>
+          <cell r="I44" t="b">
+            <v>0</v>
           </cell>
           <cell r="K44" t="str">
-            <v>cashshopenergy_1</v>
-          </cell>
-          <cell r="L44">
-            <v>713</v>
+            <v/>
+          </cell>
+          <cell r="L44" t="str">
+            <v>10Tier</v>
           </cell>
           <cell r="M44">
-            <v>713</v>
-          </cell>
-          <cell r="N44" t="str">
-            <v>cu</v>
+            <v>9.99</v>
+          </cell>
+          <cell r="N44">
+            <v>15000</v>
           </cell>
           <cell r="O44" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P44" t="str">
-            <v>EN</v>
+            <v>festivalgroup3_1</v>
+          </cell>
+          <cell r="P44">
+            <v>741</v>
           </cell>
           <cell r="Q44">
-            <v>30</v>
+            <v>741</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>cashshopenergy_2</v>
+            <v>festivalgroup3_2</v>
           </cell>
           <cell r="C45" t="str">
-            <v>cashshopenergy_2</v>
+            <v>Festival Pack 2</v>
           </cell>
           <cell r="D45" t="str">
-            <v>cashshopenergy</v>
-          </cell>
-          <cell r="E45">
-            <v>1</v>
-          </cell>
-          <cell r="G45" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I45">
-            <v>4.99</v>
-          </cell>
-          <cell r="J45">
-            <v>5900</v>
+            <v>페스티벌 2팩</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>festivalgroup3_2</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="G45">
+            <v>3</v>
+          </cell>
+          <cell r="I45" t="b">
+            <v>0</v>
           </cell>
           <cell r="K45" t="str">
-            <v>cashshopenergy_2</v>
-          </cell>
-          <cell r="L45">
-            <v>794</v>
+            <v/>
+          </cell>
+          <cell r="L45" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M45">
-            <v>794</v>
-          </cell>
-          <cell r="N45" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N45">
+            <v>45000</v>
           </cell>
           <cell r="O45" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P45" t="str">
-            <v>EN</v>
+            <v>festivalgroup3_2</v>
+          </cell>
+          <cell r="P45">
+            <v>578</v>
           </cell>
           <cell r="Q45">
-            <v>90</v>
+            <v>578</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>cashshopenergy_3</v>
+            <v>festivalgroup3_3</v>
           </cell>
           <cell r="C46" t="str">
-            <v>cashshopenergy_3</v>
+            <v>Festival Pack 3</v>
           </cell>
           <cell r="D46" t="str">
-            <v>cashshopenergy</v>
-          </cell>
-          <cell r="E46">
-            <v>1</v>
-          </cell>
-          <cell r="G46" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I46">
-            <v>9.99</v>
-          </cell>
-          <cell r="J46">
-            <v>12000</v>
+            <v>페스티벌 3팩</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>festivalgroup3_3</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="G46">
+            <v>3</v>
+          </cell>
+          <cell r="I46" t="b">
+            <v>0</v>
           </cell>
           <cell r="K46" t="str">
-            <v>cashshopenergy_3</v>
-          </cell>
-          <cell r="L46">
-            <v>121</v>
+            <v/>
+          </cell>
+          <cell r="L46" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M46">
-            <v>121</v>
-          </cell>
-          <cell r="N46" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N46">
+            <v>99000</v>
           </cell>
           <cell r="O46" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P46" t="str">
-            <v>EN</v>
+            <v>festivalgroup3_3</v>
+          </cell>
+          <cell r="P46">
+            <v>106</v>
           </cell>
           <cell r="Q46">
-            <v>260</v>
+            <v>106</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>cashshopenergy_4</v>
+            <v>festivalgroup3_4</v>
           </cell>
           <cell r="C47" t="str">
-            <v>cashshopenergy_4</v>
+            <v>Festival Pack 4</v>
           </cell>
           <cell r="D47" t="str">
-            <v>cashshopenergy</v>
-          </cell>
-          <cell r="E47">
-            <v>1</v>
-          </cell>
-          <cell r="G47" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I47">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J47">
-            <v>25000</v>
+            <v>페스티벌 4팩</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>festivalgroup3_4</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>festivalgroup3</v>
+          </cell>
+          <cell r="G47">
+            <v>3</v>
+          </cell>
+          <cell r="I47" t="b">
+            <v>0</v>
           </cell>
           <cell r="K47" t="str">
-            <v>cashshopenergy_4</v>
-          </cell>
-          <cell r="L47">
-            <v>114</v>
+            <v/>
+          </cell>
+          <cell r="L47" t="str">
+            <v>60Tier</v>
           </cell>
           <cell r="M47">
-            <v>114</v>
-          </cell>
-          <cell r="N47" t="str">
-            <v>cu</v>
+            <v>99.99</v>
+          </cell>
+          <cell r="N47">
+            <v>149000</v>
           </cell>
           <cell r="O47" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P47" t="str">
-            <v>EN</v>
+            <v>festivalgroup3_4</v>
+          </cell>
+          <cell r="P47">
+            <v>440</v>
           </cell>
           <cell r="Q47">
-            <v>525</v>
+            <v>440</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>cashshopenergy_5</v>
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>상점 에너지</v>
           </cell>
           <cell r="C48" t="str">
-            <v>cashshopenergy_5</v>
+            <v>Energy Pack 1</v>
           </cell>
           <cell r="D48" t="str">
+            <v>에너지 상품1</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="F48" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E48">
+          <cell r="G48">
             <v>1</v>
           </cell>
-          <cell r="G48" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I48">
-            <v>49.99</v>
-          </cell>
-          <cell r="J48">
-            <v>65000</v>
+          <cell r="I48" t="b">
+            <v>0</v>
           </cell>
           <cell r="K48" t="str">
-            <v>cashshopenergy_5</v>
-          </cell>
-          <cell r="L48">
-            <v>950</v>
+            <v/>
+          </cell>
+          <cell r="L48" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M48">
-            <v>950</v>
-          </cell>
-          <cell r="N48" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N48">
+            <v>1100</v>
           </cell>
           <cell r="O48" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P48" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="P48">
+            <v>713</v>
           </cell>
           <cell r="Q48">
-            <v>1600</v>
+            <v>713</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>cashshopenergy_6</v>
+            <v>cashshopenergy_2</v>
           </cell>
           <cell r="C49" t="str">
-            <v>cashshopenergy_6</v>
+            <v>Energy Pack 2</v>
           </cell>
           <cell r="D49" t="str">
+            <v>에너지 상품2</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="F49" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E49">
+          <cell r="G49">
             <v>1</v>
           </cell>
-          <cell r="G49" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I49">
-            <v>99.99</v>
-          </cell>
-          <cell r="J49">
-            <v>119000</v>
+          <cell r="I49" t="b">
+            <v>0</v>
           </cell>
           <cell r="K49" t="str">
-            <v>cashshopenergy_6</v>
-          </cell>
-          <cell r="L49">
-            <v>490</v>
+            <v/>
+          </cell>
+          <cell r="L49" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M49">
-            <v>490</v>
-          </cell>
-          <cell r="N49" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N49">
+            <v>6000</v>
           </cell>
           <cell r="O49" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P49" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="P49">
+            <v>794</v>
           </cell>
           <cell r="Q49">
-            <v>3600</v>
+            <v>794</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>cashshopenergy_1_more</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>상점 에너지 200% 더</v>
+            <v>cashshopenergy_3</v>
           </cell>
           <cell r="C50" t="str">
-            <v>cashshopenergy_1_more</v>
+            <v>Energy Pack 3</v>
           </cell>
           <cell r="D50" t="str">
+            <v>에너지 상품3</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="F50" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E50">
+          <cell r="G50">
             <v>1</v>
           </cell>
-          <cell r="G50" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I50">
-            <v>0.99</v>
-          </cell>
-          <cell r="J50">
-            <v>1200</v>
+          <cell r="I50" t="b">
+            <v>0</v>
           </cell>
           <cell r="K50" t="str">
-            <v>cashshopenergy_1_more</v>
-          </cell>
-          <cell r="L50">
-            <v>338</v>
+            <v/>
+          </cell>
+          <cell r="L50" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M50">
-            <v>338</v>
-          </cell>
-          <cell r="N50" t="str">
-            <v>cu</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N50">
+            <v>12000</v>
           </cell>
           <cell r="O50" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P50" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="P50">
+            <v>121</v>
           </cell>
           <cell r="Q50">
-            <v>90</v>
+            <v>121</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>cashshopenergy_2_more</v>
+            <v>cashshopenergy_4</v>
           </cell>
           <cell r="C51" t="str">
-            <v>cashshopenergy_2_more</v>
+            <v>Energy Pack 4</v>
           </cell>
           <cell r="D51" t="str">
+            <v>에너지 상품4</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="F51" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E51">
+          <cell r="G51">
             <v>1</v>
           </cell>
-          <cell r="G51" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I51">
-            <v>4.99</v>
-          </cell>
-          <cell r="J51">
-            <v>5900</v>
+          <cell r="I51" t="b">
+            <v>0</v>
           </cell>
           <cell r="K51" t="str">
-            <v>cashshopenergy_2_more</v>
-          </cell>
-          <cell r="L51">
-            <v>215</v>
+            <v/>
+          </cell>
+          <cell r="L51" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M51">
-            <v>215</v>
-          </cell>
-          <cell r="N51" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N51">
+            <v>29000</v>
           </cell>
           <cell r="O51" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P51" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="P51">
+            <v>114</v>
           </cell>
           <cell r="Q51">
-            <v>270</v>
+            <v>114</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>cashshopenergy_3_more</v>
+            <v>cashshopenergy_5</v>
           </cell>
           <cell r="C52" t="str">
-            <v>cashshopenergy_3_more</v>
+            <v>Energy Pack 5</v>
           </cell>
           <cell r="D52" t="str">
+            <v>에너지 상품5</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="F52" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E52">
+          <cell r="G52">
             <v>1</v>
           </cell>
-          <cell r="G52" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I52">
-            <v>9.99</v>
-          </cell>
-          <cell r="J52">
-            <v>12000</v>
+          <cell r="I52" t="b">
+            <v>0</v>
           </cell>
           <cell r="K52" t="str">
-            <v>cashshopenergy_3_more</v>
-          </cell>
-          <cell r="L52">
-            <v>674</v>
+            <v/>
+          </cell>
+          <cell r="L52" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M52">
-            <v>674</v>
-          </cell>
-          <cell r="N52" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N52">
+            <v>45000</v>
           </cell>
           <cell r="O52" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P52" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="P52">
+            <v>950</v>
           </cell>
           <cell r="Q52">
-            <v>780</v>
+            <v>950</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>cashshopenergy_4_more</v>
+            <v>cashshopenergy_6</v>
           </cell>
           <cell r="C53" t="str">
-            <v>cashshopenergy_4_more</v>
+            <v>Energy Pack 6</v>
           </cell>
           <cell r="D53" t="str">
+            <v>에너지 상품6</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="F53" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E53">
+          <cell r="G53">
             <v>1</v>
           </cell>
-          <cell r="G53" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I53">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J53">
-            <v>25000</v>
+          <cell r="I53" t="b">
+            <v>0</v>
           </cell>
           <cell r="K53" t="str">
-            <v>cashshopenergy_4_more</v>
-          </cell>
-          <cell r="L53">
-            <v>145</v>
+            <v/>
+          </cell>
+          <cell r="L53" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M53">
-            <v>145</v>
-          </cell>
-          <cell r="N53" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N53">
+            <v>99000</v>
           </cell>
           <cell r="O53" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P53" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="P53">
+            <v>490</v>
           </cell>
           <cell r="Q53">
-            <v>1575</v>
+            <v>490</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>cashshopenergy_5_more</v>
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>상점 에너지 200% 더</v>
           </cell>
           <cell r="C54" t="str">
-            <v>cashshopenergy_5_more</v>
+            <v>Energy Pack 1</v>
           </cell>
           <cell r="D54" t="str">
+            <v>에너지 상품1</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="F54" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E54">
+          <cell r="G54">
             <v>1</v>
           </cell>
-          <cell r="G54" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I54">
-            <v>49.99</v>
-          </cell>
-          <cell r="J54">
-            <v>65000</v>
+          <cell r="I54" t="b">
+            <v>0</v>
           </cell>
           <cell r="K54" t="str">
-            <v>cashshopenergy_5_more</v>
-          </cell>
-          <cell r="L54">
-            <v>858</v>
+            <v/>
+          </cell>
+          <cell r="L54" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M54">
-            <v>858</v>
-          </cell>
-          <cell r="N54" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N54">
+            <v>1100</v>
           </cell>
           <cell r="O54" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P54" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="P54">
+            <v>338</v>
           </cell>
           <cell r="Q54">
-            <v>4800</v>
+            <v>338</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cashshopenergy_6_more</v>
+            <v>cashshopenergy_2_more</v>
           </cell>
           <cell r="C55" t="str">
-            <v>cashshopenergy_6_more</v>
+            <v>Energy Pack 2</v>
           </cell>
           <cell r="D55" t="str">
+            <v>에너지 상품2</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="F55" t="str">
             <v>cashshopenergy</v>
           </cell>
-          <cell r="E55">
+          <cell r="G55">
             <v>1</v>
           </cell>
-          <cell r="G55" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I55">
-            <v>99.99</v>
-          </cell>
-          <cell r="J55">
-            <v>119000</v>
+          <cell r="I55" t="b">
+            <v>0</v>
           </cell>
           <cell r="K55" t="str">
-            <v>cashshopenergy_6_more</v>
-          </cell>
-          <cell r="L55">
-            <v>173</v>
+            <v/>
+          </cell>
+          <cell r="L55" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M55">
-            <v>173</v>
-          </cell>
-          <cell r="N55" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N55">
+            <v>6000</v>
           </cell>
           <cell r="O55" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P55" t="str">
-            <v>EN</v>
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="P55">
+            <v>215</v>
           </cell>
           <cell r="Q55">
-            <v>10800</v>
+            <v>215</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cashshopgold_1</v>
+            <v>cashshopenergy_3_more</v>
           </cell>
           <cell r="C56" t="str">
-            <v>cashshopgold_1</v>
+            <v>Energy Pack 3</v>
           </cell>
           <cell r="D56" t="str">
-            <v>cashshopgold</v>
-          </cell>
-          <cell r="E56">
+            <v>에너지 상품3</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="G56">
             <v>1</v>
           </cell>
-          <cell r="G56" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I56">
-            <v>0.99</v>
-          </cell>
-          <cell r="J56">
-            <v>1200</v>
+          <cell r="I56" t="b">
+            <v>0</v>
           </cell>
           <cell r="K56" t="str">
-            <v>cashshopgold_1</v>
-          </cell>
-          <cell r="L56">
-            <v>201</v>
+            <v/>
+          </cell>
+          <cell r="L56" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M56">
-            <v>201</v>
-          </cell>
-          <cell r="N56" t="str">
-            <v>cu</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N56">
+            <v>12000</v>
           </cell>
           <cell r="O56" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P56" t="str">
-            <v>GO</v>
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="P56">
+            <v>674</v>
           </cell>
           <cell r="Q56">
-            <v>40000</v>
+            <v>674</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cashshopgold_2</v>
+            <v>cashshopenergy_4_more</v>
           </cell>
           <cell r="C57" t="str">
-            <v>cashshopgold_2</v>
+            <v>Energy Pack 4</v>
           </cell>
           <cell r="D57" t="str">
-            <v>cashshopgold</v>
-          </cell>
-          <cell r="E57">
+            <v>에너지 상품4</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="G57">
             <v>1</v>
           </cell>
-          <cell r="G57" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I57">
-            <v>4.99</v>
-          </cell>
-          <cell r="J57">
-            <v>5900</v>
+          <cell r="I57" t="b">
+            <v>0</v>
           </cell>
           <cell r="K57" t="str">
-            <v>cashshopgold_2</v>
-          </cell>
-          <cell r="L57">
-            <v>803</v>
+            <v/>
+          </cell>
+          <cell r="L57" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M57">
-            <v>803</v>
-          </cell>
-          <cell r="N57" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N57">
+            <v>29000</v>
           </cell>
           <cell r="O57" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P57" t="str">
-            <v>GO</v>
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="P57">
+            <v>145</v>
           </cell>
           <cell r="Q57">
-            <v>105000</v>
+            <v>145</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cashshopgold_3</v>
+            <v>cashshopenergy_5_more</v>
           </cell>
           <cell r="C58" t="str">
-            <v>cashshopgold_3</v>
+            <v>Energy Pack 5</v>
           </cell>
           <cell r="D58" t="str">
-            <v>cashshopgold</v>
-          </cell>
-          <cell r="E58">
+            <v>에너지 상품5</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="G58">
             <v>1</v>
           </cell>
-          <cell r="G58" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I58">
-            <v>9.99</v>
-          </cell>
-          <cell r="J58">
-            <v>12000</v>
+          <cell r="I58" t="b">
+            <v>0</v>
           </cell>
           <cell r="K58" t="str">
-            <v>cashshopgold_3</v>
-          </cell>
-          <cell r="L58">
-            <v>650</v>
+            <v/>
+          </cell>
+          <cell r="L58" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M58">
-            <v>650</v>
-          </cell>
-          <cell r="N58" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N58">
+            <v>45000</v>
           </cell>
           <cell r="O58" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P58" t="str">
-            <v>GO</v>
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="P58">
+            <v>858</v>
           </cell>
           <cell r="Q58">
-            <v>250000</v>
+            <v>858</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>cashshopgold_4</v>
+            <v>cashshopenergy_6_more</v>
           </cell>
           <cell r="C59" t="str">
-            <v>cashshopgold_4</v>
+            <v>Energy Pack 6</v>
           </cell>
           <cell r="D59" t="str">
-            <v>cashshopgold</v>
-          </cell>
-          <cell r="E59">
+            <v>에너지 상품6</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="G59">
             <v>1</v>
           </cell>
-          <cell r="G59" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I59">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J59">
-            <v>25000</v>
+          <cell r="I59" t="b">
+            <v>0</v>
           </cell>
           <cell r="K59" t="str">
-            <v>cashshopgold_4</v>
-          </cell>
-          <cell r="L59">
-            <v>953</v>
+            <v/>
+          </cell>
+          <cell r="L59" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M59">
-            <v>953</v>
-          </cell>
-          <cell r="N59" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N59">
+            <v>99000</v>
           </cell>
           <cell r="O59" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P59" t="str">
-            <v>GO</v>
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="P59">
+            <v>173</v>
           </cell>
           <cell r="Q59">
-            <v>600000</v>
+            <v>173</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cashshopgold_5</v>
+            <v>cashshopgold_1</v>
           </cell>
           <cell r="C60" t="str">
-            <v>cashshopgold_5</v>
+            <v>Gold Pack 1</v>
           </cell>
           <cell r="D60" t="str">
+            <v>골드 상품1</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="F60" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E60">
+          <cell r="G60">
             <v>1</v>
           </cell>
-          <cell r="G60" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I60">
-            <v>49.99</v>
-          </cell>
-          <cell r="J60">
-            <v>65000</v>
+          <cell r="I60" t="b">
+            <v>0</v>
           </cell>
           <cell r="K60" t="str">
-            <v>cashshopgold_5</v>
-          </cell>
-          <cell r="L60">
-            <v>640</v>
+            <v/>
+          </cell>
+          <cell r="L60" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M60">
-            <v>640</v>
-          </cell>
-          <cell r="N60" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N60">
+            <v>1100</v>
           </cell>
           <cell r="O60" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P60" t="str">
-            <v>GO</v>
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="P60">
+            <v>201</v>
           </cell>
           <cell r="Q60">
-            <v>1900000</v>
+            <v>201</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>cashshopgold_6</v>
+            <v>cashshopgold_2</v>
           </cell>
           <cell r="C61" t="str">
-            <v>cashshopgold_6</v>
+            <v>Gold Pack 2</v>
           </cell>
           <cell r="D61" t="str">
+            <v>골드 상품2</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="F61" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E61">
+          <cell r="G61">
             <v>1</v>
           </cell>
-          <cell r="G61" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I61">
-            <v>99.99</v>
-          </cell>
-          <cell r="J61">
-            <v>119000</v>
+          <cell r="I61" t="b">
+            <v>0</v>
           </cell>
           <cell r="K61" t="str">
-            <v>cashshopgold_6</v>
-          </cell>
-          <cell r="L61">
-            <v>553</v>
+            <v/>
+          </cell>
+          <cell r="L61" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M61">
-            <v>553</v>
-          </cell>
-          <cell r="N61" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N61">
+            <v>6000</v>
           </cell>
           <cell r="O61" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P61" t="str">
-            <v>GO</v>
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="P61">
+            <v>803</v>
           </cell>
           <cell r="Q61">
-            <v>4500000</v>
+            <v>803</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cashshopgold_1_more</v>
+            <v>cashshopgold_3</v>
           </cell>
           <cell r="C62" t="str">
-            <v>cashshopgold_1_more</v>
+            <v>Gold Pack 3</v>
           </cell>
           <cell r="D62" t="str">
+            <v>골드 상품3</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="F62" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E62">
+          <cell r="G62">
             <v>1</v>
           </cell>
-          <cell r="G62" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I62">
-            <v>0.99</v>
-          </cell>
-          <cell r="J62">
-            <v>1200</v>
+          <cell r="I62" t="b">
+            <v>0</v>
           </cell>
           <cell r="K62" t="str">
-            <v>cashshopgold_1_more</v>
-          </cell>
-          <cell r="L62">
-            <v>963</v>
+            <v/>
+          </cell>
+          <cell r="L62" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M62">
-            <v>963</v>
-          </cell>
-          <cell r="N62" t="str">
-            <v>cu</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N62">
+            <v>12000</v>
           </cell>
           <cell r="O62" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P62" t="str">
-            <v>GO</v>
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="P62">
+            <v>650</v>
           </cell>
           <cell r="Q62">
-            <v>120000</v>
+            <v>650</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>cashshopgold_2_more</v>
+            <v>cashshopgold_4</v>
           </cell>
           <cell r="C63" t="str">
-            <v>cashshopgold_2_more</v>
+            <v>Gold Pack 4</v>
           </cell>
           <cell r="D63" t="str">
+            <v>골드 상품4</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="F63" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E63">
+          <cell r="G63">
             <v>1</v>
           </cell>
-          <cell r="G63" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I63">
-            <v>4.99</v>
-          </cell>
-          <cell r="J63">
-            <v>5900</v>
+          <cell r="I63" t="b">
+            <v>0</v>
           </cell>
           <cell r="K63" t="str">
-            <v>cashshopgold_2_more</v>
-          </cell>
-          <cell r="L63">
-            <v>340</v>
+            <v/>
+          </cell>
+          <cell r="L63" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M63">
-            <v>340</v>
-          </cell>
-          <cell r="N63" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N63">
+            <v>29000</v>
           </cell>
           <cell r="O63" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P63" t="str">
-            <v>GO</v>
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="P63">
+            <v>953</v>
           </cell>
           <cell r="Q63">
-            <v>315000</v>
+            <v>953</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>cashshopgold_3_more</v>
+            <v>cashshopgold_5</v>
           </cell>
           <cell r="C64" t="str">
-            <v>cashshopgold_3_more</v>
+            <v>Gold Pack 5</v>
           </cell>
           <cell r="D64" t="str">
+            <v>골드 상품5</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="F64" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E64">
+          <cell r="G64">
             <v>1</v>
           </cell>
-          <cell r="G64" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I64">
-            <v>9.99</v>
-          </cell>
-          <cell r="J64">
-            <v>12000</v>
+          <cell r="I64" t="b">
+            <v>0</v>
           </cell>
           <cell r="K64" t="str">
-            <v>cashshopgold_3_more</v>
-          </cell>
-          <cell r="L64">
-            <v>420</v>
+            <v/>
+          </cell>
+          <cell r="L64" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M64">
-            <v>420</v>
-          </cell>
-          <cell r="N64" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N64">
+            <v>45000</v>
           </cell>
           <cell r="O64" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P64" t="str">
-            <v>GO</v>
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="P64">
+            <v>640</v>
           </cell>
           <cell r="Q64">
-            <v>750000</v>
+            <v>640</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>cashshopgold_4_more</v>
+            <v>cashshopgold_6</v>
           </cell>
           <cell r="C65" t="str">
-            <v>cashshopgold_4_more</v>
+            <v>Gold Pack 6</v>
           </cell>
           <cell r="D65" t="str">
+            <v>골드 상품6</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="F65" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E65">
+          <cell r="G65">
             <v>1</v>
           </cell>
-          <cell r="G65" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I65">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J65">
-            <v>25000</v>
+          <cell r="I65" t="b">
+            <v>0</v>
           </cell>
           <cell r="K65" t="str">
-            <v>cashshopgold_4_more</v>
-          </cell>
-          <cell r="L65">
-            <v>756</v>
+            <v/>
+          </cell>
+          <cell r="L65" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M65">
-            <v>756</v>
-          </cell>
-          <cell r="N65" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N65">
+            <v>99000</v>
           </cell>
           <cell r="O65" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P65" t="str">
-            <v>GO</v>
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="P65">
+            <v>553</v>
           </cell>
           <cell r="Q65">
-            <v>1800000</v>
+            <v>553</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>cashshopgold_5_more</v>
+            <v>cashshopgold_1_more</v>
           </cell>
           <cell r="C66" t="str">
-            <v>cashshopgold_5_more</v>
+            <v>Gold Pack 1</v>
           </cell>
           <cell r="D66" t="str">
+            <v>골드 상품1</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="F66" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E66">
+          <cell r="G66">
             <v>1</v>
           </cell>
-          <cell r="G66" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I66">
-            <v>49.99</v>
-          </cell>
-          <cell r="J66">
-            <v>65000</v>
+          <cell r="I66" t="b">
+            <v>0</v>
           </cell>
           <cell r="K66" t="str">
-            <v>cashshopgold_5_more</v>
-          </cell>
-          <cell r="L66">
-            <v>979</v>
+            <v/>
+          </cell>
+          <cell r="L66" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M66">
-            <v>979</v>
-          </cell>
-          <cell r="N66" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N66">
+            <v>1100</v>
           </cell>
           <cell r="O66" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P66" t="str">
-            <v>GO</v>
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="P66">
+            <v>963</v>
           </cell>
           <cell r="Q66">
-            <v>5700000</v>
+            <v>963</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>cashshopgold_6_more</v>
+            <v>cashshopgold_2_more</v>
           </cell>
           <cell r="C67" t="str">
-            <v>cashshopgold_6_more</v>
+            <v>Gold Pack 2</v>
           </cell>
           <cell r="D67" t="str">
+            <v>골드 상품2</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="F67" t="str">
             <v>cashshopgold</v>
           </cell>
-          <cell r="E67">
+          <cell r="G67">
             <v>1</v>
           </cell>
-          <cell r="G67" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I67">
-            <v>99.99</v>
-          </cell>
-          <cell r="J67">
-            <v>119000</v>
+          <cell r="I67" t="b">
+            <v>0</v>
           </cell>
           <cell r="K67" t="str">
-            <v>cashshopgold_6_more</v>
-          </cell>
-          <cell r="L67">
-            <v>435</v>
+            <v/>
+          </cell>
+          <cell r="L67" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M67">
-            <v>435</v>
-          </cell>
-          <cell r="N67" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N67">
+            <v>6000</v>
           </cell>
           <cell r="O67" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P67" t="str">
-            <v>GO</v>
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="P67">
+            <v>340</v>
           </cell>
           <cell r="Q67">
-            <v>13500000</v>
+            <v>340</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>petsale_1</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>펫 대량 판매</v>
+            <v>cashshopgold_3_more</v>
           </cell>
           <cell r="C68" t="str">
-            <v>petsale_1</v>
+            <v>Gold Pack 3</v>
           </cell>
           <cell r="D68" t="str">
-            <v>petsale</v>
-          </cell>
-          <cell r="E68">
+            <v>골드 상품3</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="G68">
             <v>1</v>
           </cell>
-          <cell r="G68" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I68">
-            <v>9.99</v>
-          </cell>
-          <cell r="J68">
-            <v>13000</v>
+          <cell r="I68" t="b">
+            <v>0</v>
           </cell>
           <cell r="K68" t="str">
-            <v>petsale_1</v>
-          </cell>
-          <cell r="L68">
-            <v>781</v>
+            <v/>
+          </cell>
+          <cell r="L68" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M68">
-            <v>781</v>
-          </cell>
-          <cell r="N68" t="str">
-            <v>it</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N68">
+            <v>12000</v>
           </cell>
           <cell r="O68" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P68" t="str">
-            <v>Cash_sPetSale</v>
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="P68">
+            <v>420</v>
           </cell>
           <cell r="Q68">
-            <v>1</v>
+            <v>420</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>petsale_2</v>
+            <v>cashshopgold_4_more</v>
           </cell>
           <cell r="C69" t="str">
-            <v>petsale_2</v>
+            <v>Gold Pack 4</v>
           </cell>
           <cell r="D69" t="str">
-            <v>petsale</v>
-          </cell>
-          <cell r="E69">
+            <v>골드 상품4</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="G69">
             <v>1</v>
           </cell>
-          <cell r="G69" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I69">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J69">
-            <v>19000</v>
+          <cell r="I69" t="b">
+            <v>0</v>
           </cell>
           <cell r="K69" t="str">
-            <v>petsale_2</v>
-          </cell>
-          <cell r="L69">
-            <v>142</v>
+            <v/>
+          </cell>
+          <cell r="L69" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M69">
-            <v>142</v>
-          </cell>
-          <cell r="N69" t="str">
-            <v>it</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N69">
+            <v>29000</v>
           </cell>
           <cell r="O69" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P69" t="str">
-            <v>Cash_sPetSale</v>
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="P69">
+            <v>756</v>
           </cell>
           <cell r="Q69">
-            <v>1</v>
+            <v>756</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>petsale_3</v>
+            <v>cashshopgold_5_more</v>
           </cell>
           <cell r="C70" t="str">
-            <v>petsale_3</v>
+            <v>Gold Pack 5</v>
           </cell>
           <cell r="D70" t="str">
-            <v>petsale</v>
-          </cell>
-          <cell r="E70">
+            <v>골드 상품5</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="G70">
             <v>1</v>
           </cell>
-          <cell r="G70" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I70">
+          <cell r="I70" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K70" t="str">
+            <v/>
+          </cell>
+          <cell r="L70" t="str">
+            <v>30Tier</v>
+          </cell>
+          <cell r="M70">
             <v>29.99</v>
           </cell>
-          <cell r="J70">
-            <v>39000</v>
-          </cell>
-          <cell r="K70" t="str">
-            <v>petsale_3</v>
-          </cell>
-          <cell r="L70">
-            <v>610</v>
-          </cell>
-          <cell r="M70">
-            <v>610</v>
-          </cell>
-          <cell r="N70" t="str">
-            <v>it</v>
+          <cell r="N70">
+            <v>45000</v>
           </cell>
           <cell r="O70" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P70" t="str">
-            <v>Cash_sPetSale</v>
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="P70">
+            <v>979</v>
           </cell>
           <cell r="Q70">
-            <v>1</v>
+            <v>979</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>petsale_4</v>
+            <v>cashshopgold_6_more</v>
           </cell>
           <cell r="C71" t="str">
-            <v>petsale_4</v>
+            <v>Gold Pack 6</v>
           </cell>
           <cell r="D71" t="str">
-            <v>petsale</v>
-          </cell>
-          <cell r="E71">
+            <v>골드 상품6</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="G71">
             <v>1</v>
           </cell>
-          <cell r="G71" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I71">
-            <v>39.99</v>
-          </cell>
-          <cell r="J71">
-            <v>48000</v>
+          <cell r="I71" t="b">
+            <v>0</v>
           </cell>
           <cell r="K71" t="str">
-            <v>petsale_4</v>
-          </cell>
-          <cell r="L71">
-            <v>433</v>
+            <v/>
+          </cell>
+          <cell r="L71" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M71">
-            <v>433</v>
-          </cell>
-          <cell r="N71" t="str">
-            <v>it</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N71">
+            <v>99000</v>
           </cell>
           <cell r="O71" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P71" t="str">
-            <v>Cash_sPetSale</v>
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="P71">
+            <v>435</v>
           </cell>
           <cell r="Q71">
-            <v>1</v>
+            <v>435</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>petsale_5</v>
+            <v>cashshopgem_1</v>
           </cell>
           <cell r="C72" t="str">
-            <v>petsale_5</v>
+            <v>Gem Pack 1</v>
           </cell>
           <cell r="D72" t="str">
-            <v>petsale</v>
-          </cell>
-          <cell r="E72">
+            <v>보석 상품1</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>cashshopgem_1</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G72">
             <v>1</v>
           </cell>
-          <cell r="G72" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I72">
-            <v>49.99</v>
-          </cell>
-          <cell r="J72">
-            <v>65000</v>
+          <cell r="I72" t="b">
+            <v>0</v>
           </cell>
           <cell r="K72" t="str">
-            <v>petsale_5</v>
-          </cell>
-          <cell r="L72">
-            <v>604</v>
+            <v/>
+          </cell>
+          <cell r="L72" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M72">
-            <v>604</v>
-          </cell>
-          <cell r="N72" t="str">
-            <v>it</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N72">
+            <v>1100</v>
           </cell>
           <cell r="O72" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P72" t="str">
-            <v>Cash_sPetSale</v>
+            <v>cashshopgem_1</v>
+          </cell>
+          <cell r="P72">
+            <v>407</v>
           </cell>
           <cell r="Q72">
-            <v>1</v>
+            <v>407</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>petcapture_better</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>펫 포획도구</v>
+            <v>cashshopgem_2</v>
           </cell>
           <cell r="C73" t="str">
-            <v>petcapture_better</v>
+            <v>Gem Pack 2</v>
           </cell>
           <cell r="D73" t="str">
-            <v>petcapture</v>
-          </cell>
-          <cell r="E73">
+            <v>보석 상품2</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>cashshopgem_2</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G73">
             <v>1</v>
           </cell>
-          <cell r="G73" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I73">
-            <v>0.99</v>
-          </cell>
-          <cell r="J73">
-            <v>1200</v>
+          <cell r="I73" t="b">
+            <v>0</v>
           </cell>
           <cell r="K73" t="str">
-            <v>petcapture_better</v>
-          </cell>
-          <cell r="L73">
-            <v>902</v>
+            <v/>
+          </cell>
+          <cell r="L73" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M73">
-            <v>902</v>
-          </cell>
-          <cell r="N73" t="str">
-            <v>it</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N73">
+            <v>6000</v>
           </cell>
           <cell r="O73" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P73" t="str">
-            <v>Item_cCaptureBetter</v>
+            <v>cashshopgem_2</v>
+          </cell>
+          <cell r="P73">
+            <v>934</v>
           </cell>
           <cell r="Q73">
-            <v>5</v>
+            <v>934</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>petcapture_best</v>
+            <v>cashshopgem_3</v>
           </cell>
           <cell r="C74" t="str">
-            <v>petcapture_best</v>
+            <v>Gem Pack 3</v>
           </cell>
           <cell r="D74" t="str">
-            <v>petcapture</v>
-          </cell>
-          <cell r="E74">
+            <v>보석 상품3</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>cashshopgem_3</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G74">
             <v>1</v>
           </cell>
-          <cell r="G74" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I74">
-            <v>4.99</v>
-          </cell>
-          <cell r="J74">
-            <v>5900</v>
+          <cell r="I74" t="b">
+            <v>0</v>
           </cell>
           <cell r="K74" t="str">
-            <v>petcapture_best</v>
-          </cell>
-          <cell r="L74">
-            <v>924</v>
+            <v/>
+          </cell>
+          <cell r="L74" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M74">
-            <v>924</v>
-          </cell>
-          <cell r="N74" t="str">
-            <v>it</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N74">
+            <v>12000</v>
           </cell>
           <cell r="O74" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P74" t="str">
-            <v>Item_cCaptureBest</v>
+            <v>cashshopgem_3</v>
+          </cell>
+          <cell r="P74">
+            <v>626</v>
           </cell>
           <cell r="Q74">
-            <v>5</v>
+            <v>626</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>stageclear_1</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>n층 돌파 패키지</v>
+            <v>cashshopgem_4</v>
           </cell>
           <cell r="C75" t="str">
-            <v>stageclear_1</v>
+            <v>Gem Pack 4</v>
           </cell>
           <cell r="D75" t="str">
-            <v>stageclear</v>
-          </cell>
-          <cell r="E75">
-            <v>4</v>
-          </cell>
-          <cell r="G75" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="H75">
-            <v>4</v>
-          </cell>
-          <cell r="I75">
-            <v>0.99</v>
-          </cell>
-          <cell r="J75">
-            <v>1200</v>
+            <v>보석 상품4</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>cashshopgem_4</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G75">
+            <v>1</v>
+          </cell>
+          <cell r="I75" t="b">
+            <v>0</v>
           </cell>
           <cell r="K75" t="str">
-            <v>stageclear_1</v>
-          </cell>
-          <cell r="L75">
-            <v>802</v>
+            <v/>
+          </cell>
+          <cell r="L75" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M75">
-            <v>802</v>
-          </cell>
-          <cell r="N75" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N75">
+            <v>29000</v>
           </cell>
           <cell r="O75" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P75" t="str">
-            <v>EN</v>
+            <v>cashshopgem_4</v>
+          </cell>
+          <cell r="P75">
+            <v>910</v>
           </cell>
           <cell r="Q75">
-            <v>30</v>
+            <v>910</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>stageclear_2</v>
+            <v>cashshopgem_5</v>
           </cell>
           <cell r="C76" t="str">
-            <v>stageclear_2</v>
+            <v>Gem Pack 5</v>
           </cell>
           <cell r="D76" t="str">
-            <v>stageclear</v>
-          </cell>
-          <cell r="E76">
-            <v>4</v>
-          </cell>
-          <cell r="G76" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="H76">
-            <v>4</v>
-          </cell>
-          <cell r="I76">
-            <v>4.99</v>
-          </cell>
-          <cell r="J76">
-            <v>5900</v>
+            <v>보석 상품5</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>cashshopgem_5</v>
+          </cell>
+          <cell r="F76" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G76">
+            <v>1</v>
+          </cell>
+          <cell r="I76" t="b">
+            <v>0</v>
           </cell>
           <cell r="K76" t="str">
-            <v>stageclear_2</v>
-          </cell>
-          <cell r="L76">
-            <v>585</v>
+            <v/>
+          </cell>
+          <cell r="L76" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M76">
-            <v>585</v>
-          </cell>
-          <cell r="N76" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N76">
+            <v>45000</v>
           </cell>
           <cell r="O76" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P76" t="str">
-            <v>EN</v>
+            <v>cashshopgem_5</v>
+          </cell>
+          <cell r="P76">
+            <v>258</v>
           </cell>
           <cell r="Q76">
-            <v>60</v>
+            <v>258</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>stageclear_3</v>
+            <v>cashshopgem_6</v>
           </cell>
           <cell r="C77" t="str">
-            <v>stageclear_3</v>
+            <v>Gem Pack 6</v>
           </cell>
           <cell r="D77" t="str">
-            <v>stageclear</v>
-          </cell>
-          <cell r="E77">
-            <v>4</v>
-          </cell>
-          <cell r="G77" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="H77">
-            <v>4</v>
-          </cell>
-          <cell r="I77">
-            <v>9.99</v>
-          </cell>
-          <cell r="J77">
-            <v>13000</v>
+            <v>보석 상품6</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>cashshopgem_6</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G77">
+            <v>1</v>
+          </cell>
+          <cell r="I77" t="b">
+            <v>0</v>
           </cell>
           <cell r="K77" t="str">
-            <v>stageclear_3</v>
-          </cell>
-          <cell r="L77">
-            <v>634</v>
+            <v/>
+          </cell>
+          <cell r="L77" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M77">
-            <v>634</v>
-          </cell>
-          <cell r="N77" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N77">
+            <v>99000</v>
           </cell>
           <cell r="O77" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P77" t="str">
-            <v>EN</v>
+            <v>cashshopgem_6</v>
+          </cell>
+          <cell r="P77">
+            <v>872</v>
           </cell>
           <cell r="Q77">
-            <v>90</v>
+            <v>872</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>stageclear_5</v>
+            <v>cashshopgem_1_more</v>
           </cell>
           <cell r="C78" t="str">
-            <v>stageclear_5</v>
+            <v>Gem Pack 1</v>
           </cell>
           <cell r="D78" t="str">
-            <v>stageclear</v>
-          </cell>
-          <cell r="E78">
-            <v>4</v>
-          </cell>
-          <cell r="G78" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="H78">
-            <v>4</v>
-          </cell>
-          <cell r="I78">
-            <v>9.99</v>
-          </cell>
-          <cell r="J78">
-            <v>13000</v>
+            <v>보석 상품1</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>cashshopgem_1_more</v>
+          </cell>
+          <cell r="F78" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G78">
+            <v>1</v>
+          </cell>
+          <cell r="I78" t="b">
+            <v>0</v>
           </cell>
           <cell r="K78" t="str">
-            <v>stageclear_5</v>
-          </cell>
-          <cell r="L78">
-            <v>791</v>
+            <v/>
+          </cell>
+          <cell r="L78" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M78">
-            <v>791</v>
-          </cell>
-          <cell r="N78" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N78">
+            <v>1100</v>
           </cell>
           <cell r="O78" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P78" t="str">
-            <v>EN</v>
+            <v>cashshopgem_1_more</v>
+          </cell>
+          <cell r="P78">
+            <v>357</v>
           </cell>
           <cell r="Q78">
-            <v>120</v>
+            <v>357</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>stageclear_10</v>
+            <v>cashshopgem_2_more</v>
           </cell>
           <cell r="C79" t="str">
-            <v>stageclear_10</v>
+            <v>Gem Pack 2</v>
           </cell>
           <cell r="D79" t="str">
-            <v>stageclear</v>
-          </cell>
-          <cell r="E79">
-            <v>4</v>
-          </cell>
-          <cell r="G79" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="H79">
-            <v>4</v>
-          </cell>
-          <cell r="I79">
-            <v>9.99</v>
-          </cell>
-          <cell r="J79">
-            <v>13000</v>
+            <v>보석 상품2</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>cashshopgem_2_more</v>
+          </cell>
+          <cell r="F79" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G79">
+            <v>1</v>
+          </cell>
+          <cell r="I79" t="b">
+            <v>0</v>
           </cell>
           <cell r="K79" t="str">
-            <v>stageclear_10</v>
-          </cell>
-          <cell r="L79">
-            <v>484</v>
+            <v/>
+          </cell>
+          <cell r="L79" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M79">
-            <v>484</v>
-          </cell>
-          <cell r="N79" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N79">
+            <v>6000</v>
           </cell>
           <cell r="O79" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P79" t="str">
-            <v>EN</v>
+            <v>cashshopgem_2_more</v>
+          </cell>
+          <cell r="P79">
+            <v>866</v>
           </cell>
           <cell r="Q79">
-            <v>150</v>
+            <v>866</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>dailygem</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>다이아 월정액</v>
+            <v>cashshopgem_3_more</v>
           </cell>
           <cell r="C80" t="str">
-            <v>dailygem</v>
+            <v>Gem Pack 3</v>
           </cell>
           <cell r="D80" t="str">
-            <v>dailygem</v>
-          </cell>
-          <cell r="E80">
-            <v>2</v>
-          </cell>
-          <cell r="G80" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I80">
-            <v>4.99</v>
-          </cell>
-          <cell r="J80">
-            <v>5900</v>
+            <v>보석 상품3</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>cashshopgem_3_more</v>
+          </cell>
+          <cell r="F80" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G80">
+            <v>1</v>
+          </cell>
+          <cell r="I80" t="b">
+            <v>0</v>
           </cell>
           <cell r="K80" t="str">
-            <v>dailygem</v>
-          </cell>
-          <cell r="L80">
-            <v>212</v>
+            <v/>
+          </cell>
+          <cell r="L80" t="str">
+            <v>8Tier</v>
           </cell>
           <cell r="M80">
-            <v>212</v>
-          </cell>
-          <cell r="N80" t="str">
-            <v>it</v>
+            <v>7.99</v>
+          </cell>
+          <cell r="N80">
+            <v>12000</v>
           </cell>
           <cell r="O80" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P80" t="str">
-            <v>Item_cDailyGem</v>
+            <v>cashshopgem_3_more</v>
+          </cell>
+          <cell r="P80">
+            <v>240</v>
           </cell>
           <cell r="Q80">
-            <v>15</v>
+            <v>240</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>researchboost</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>분석 월정액</v>
+            <v>cashshopgem_4_more</v>
           </cell>
           <cell r="C81" t="str">
-            <v>researchboost</v>
+            <v>Gem Pack 4</v>
           </cell>
           <cell r="D81" t="str">
-            <v>researchboost</v>
-          </cell>
-          <cell r="E81">
-            <v>2</v>
-          </cell>
-          <cell r="G81" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I81">
-            <v>4.99</v>
-          </cell>
-          <cell r="J81">
-            <v>5900</v>
+            <v>보석 상품4</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>cashshopgem_4_more</v>
+          </cell>
+          <cell r="F81" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G81">
+            <v>1</v>
+          </cell>
+          <cell r="I81" t="b">
+            <v>0</v>
           </cell>
           <cell r="K81" t="str">
-            <v>researchboost</v>
-          </cell>
-          <cell r="L81">
-            <v>131</v>
+            <v/>
+          </cell>
+          <cell r="L81" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M81">
-            <v>131</v>
-          </cell>
-          <cell r="N81" t="str">
-            <v>it</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N81">
+            <v>29000</v>
           </cell>
           <cell r="O81" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P81" t="str">
-            <v>Cash_sResearchBoost</v>
+            <v>cashshopgem_4_more</v>
+          </cell>
+          <cell r="P81">
+            <v>722</v>
           </cell>
           <cell r="Q81">
-            <v>1</v>
+            <v>722</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>relay_1</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>릴레이팩</v>
+            <v>cashshopgem_5_more</v>
           </cell>
           <cell r="C82" t="str">
-            <v>relay_1</v>
+            <v>Gem Pack 5</v>
           </cell>
           <cell r="D82" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E82">
-            <v>3</v>
-          </cell>
-          <cell r="G82" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I82">
-            <v>0.99</v>
-          </cell>
-          <cell r="J82">
-            <v>1200</v>
+            <v>보석 상품5</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>cashshopgem_5_more</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G82">
+            <v>1</v>
+          </cell>
+          <cell r="I82" t="b">
+            <v>0</v>
           </cell>
           <cell r="K82" t="str">
-            <v>relay_1</v>
-          </cell>
-          <cell r="L82">
-            <v>704</v>
+            <v/>
+          </cell>
+          <cell r="L82" t="str">
+            <v>30Tier</v>
           </cell>
           <cell r="M82">
-            <v>704</v>
-          </cell>
-          <cell r="N82" t="str">
-            <v>cu</v>
+            <v>29.99</v>
+          </cell>
+          <cell r="N82">
+            <v>45000</v>
           </cell>
           <cell r="O82" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P82" t="str">
-            <v>EN</v>
+            <v>cashshopgem_5_more</v>
+          </cell>
+          <cell r="P82">
+            <v>517</v>
           </cell>
           <cell r="Q82">
-            <v>30</v>
+            <v>517</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>relay_2</v>
+            <v>cashshopgem_6_more</v>
           </cell>
           <cell r="C83" t="str">
-            <v>relay_2</v>
+            <v>Gem Pack 6</v>
           </cell>
           <cell r="D83" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E83">
-            <v>3</v>
-          </cell>
-          <cell r="G83" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I83">
-            <v>0.99</v>
-          </cell>
-          <cell r="J83">
-            <v>1200</v>
+            <v>보석 상품6</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>cashshopgem_6_more</v>
+          </cell>
+          <cell r="F83" t="str">
+            <v>cashshopgem</v>
+          </cell>
+          <cell r="G83">
+            <v>1</v>
+          </cell>
+          <cell r="I83" t="b">
+            <v>0</v>
           </cell>
           <cell r="K83" t="str">
-            <v>relay_2</v>
-          </cell>
-          <cell r="L83">
-            <v>148</v>
+            <v/>
+          </cell>
+          <cell r="L83" t="str">
+            <v>53Tier</v>
           </cell>
           <cell r="M83">
-            <v>148</v>
-          </cell>
-          <cell r="N83" t="str">
-            <v>cu</v>
+            <v>64.989999999999995</v>
+          </cell>
+          <cell r="N83">
+            <v>99000</v>
           </cell>
           <cell r="O83" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P83" t="str">
-            <v>EN</v>
+            <v>cashshopgem_6_more</v>
+          </cell>
+          <cell r="P83">
+            <v>526</v>
           </cell>
           <cell r="Q83">
-            <v>60</v>
+            <v>526</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>relay_3</v>
+            <v>petsale_1</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>펫 대량 판매</v>
           </cell>
           <cell r="C84" t="str">
-            <v>relay_3</v>
+            <v>Massive Pets 1 Star</v>
           </cell>
           <cell r="D84" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E84">
-            <v>4</v>
-          </cell>
-          <cell r="G84" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I84">
-            <v>0.99</v>
-          </cell>
-          <cell r="J84">
-            <v>1200</v>
+            <v>펫 무리 1성</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="F84" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="G84">
+            <v>1</v>
+          </cell>
+          <cell r="I84" t="b">
+            <v>0</v>
           </cell>
           <cell r="K84" t="str">
-            <v>relay_3</v>
-          </cell>
-          <cell r="L84">
-            <v>784</v>
+            <v/>
+          </cell>
+          <cell r="L84" t="str">
+            <v>2Tier</v>
           </cell>
           <cell r="M84">
-            <v>784</v>
-          </cell>
-          <cell r="N84" t="str">
-            <v>cu</v>
+            <v>1.99</v>
+          </cell>
+          <cell r="N84">
+            <v>3000</v>
           </cell>
           <cell r="O84" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P84" t="str">
-            <v>EN</v>
+            <v>petsale_1</v>
+          </cell>
+          <cell r="P84">
+            <v>781</v>
           </cell>
           <cell r="Q84">
-            <v>90</v>
+            <v>781</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>relay_4</v>
+            <v>petsale_2</v>
           </cell>
           <cell r="C85" t="str">
-            <v>relay_4</v>
+            <v>Massive Pets 2 Star</v>
           </cell>
           <cell r="D85" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E85">
-            <v>3</v>
-          </cell>
-          <cell r="G85" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I85">
+            <v>펫 무리 2성</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="F85" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="G85">
+            <v>1</v>
+          </cell>
+          <cell r="I85" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K85" t="str">
+            <v/>
+          </cell>
+          <cell r="L85" t="str">
+            <v>5Tier</v>
+          </cell>
+          <cell r="M85">
             <v>4.99</v>
           </cell>
-          <cell r="J85">
-            <v>5900</v>
-          </cell>
-          <cell r="K85" t="str">
-            <v>relay_4</v>
-          </cell>
-          <cell r="L85">
-            <v>354</v>
-          </cell>
-          <cell r="M85">
-            <v>354</v>
-          </cell>
-          <cell r="N85" t="str">
-            <v>cu</v>
+          <cell r="N85">
+            <v>7500</v>
           </cell>
           <cell r="O85" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P85" t="str">
-            <v>EN</v>
+            <v>petsale_2</v>
+          </cell>
+          <cell r="P85">
+            <v>142</v>
           </cell>
           <cell r="Q85">
-            <v>30</v>
+            <v>142</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>relay_5</v>
+            <v>petsale_3</v>
           </cell>
           <cell r="C86" t="str">
-            <v>relay_5</v>
+            <v>Massive Pets 3 Star</v>
           </cell>
           <cell r="D86" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E86">
-            <v>3</v>
-          </cell>
-          <cell r="G86" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I86">
-            <v>4.99</v>
-          </cell>
-          <cell r="J86">
-            <v>5900</v>
+            <v>펫 무리 3성</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="F86" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="G86">
+            <v>1</v>
+          </cell>
+          <cell r="I86" t="b">
+            <v>0</v>
           </cell>
           <cell r="K86" t="str">
-            <v>relay_5</v>
-          </cell>
-          <cell r="L86">
-            <v>414</v>
+            <v/>
+          </cell>
+          <cell r="L86" t="str">
+            <v>9Tier</v>
           </cell>
           <cell r="M86">
-            <v>414</v>
-          </cell>
-          <cell r="N86" t="str">
-            <v>cu</v>
+            <v>8.99</v>
+          </cell>
+          <cell r="N86">
+            <v>14000</v>
           </cell>
           <cell r="O86" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P86" t="str">
-            <v>EN</v>
+            <v>petsale_3</v>
+          </cell>
+          <cell r="P86">
+            <v>610</v>
           </cell>
           <cell r="Q86">
-            <v>60</v>
+            <v>610</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>relay_6</v>
+            <v>petsale_4</v>
           </cell>
           <cell r="C87" t="str">
-            <v>relay_6</v>
+            <v>Massive Pets 4 Star</v>
           </cell>
           <cell r="D87" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E87">
-            <v>4</v>
-          </cell>
-          <cell r="G87" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I87">
-            <v>9.99</v>
-          </cell>
-          <cell r="J87">
-            <v>13000</v>
+            <v>펫 무리 4성</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="F87" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="G87">
+            <v>1</v>
+          </cell>
+          <cell r="I87" t="b">
+            <v>0</v>
           </cell>
           <cell r="K87" t="str">
-            <v>relay_6</v>
-          </cell>
-          <cell r="L87">
-            <v>726</v>
+            <v/>
+          </cell>
+          <cell r="L87" t="str">
+            <v>19Tier</v>
           </cell>
           <cell r="M87">
-            <v>726</v>
-          </cell>
-          <cell r="N87" t="str">
-            <v>cu</v>
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N87">
+            <v>29000</v>
           </cell>
           <cell r="O87" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P87" t="str">
-            <v>EN</v>
+            <v>petsale_4</v>
+          </cell>
+          <cell r="P87">
+            <v>433</v>
           </cell>
           <cell r="Q87">
-            <v>90</v>
+            <v>433</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>relay_7</v>
+            <v>petsale_5</v>
           </cell>
           <cell r="C88" t="str">
-            <v>relay_7</v>
+            <v>Massive Pets 5 Star</v>
           </cell>
           <cell r="D88" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E88">
-            <v>3</v>
-          </cell>
-          <cell r="G88" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I88">
-            <v>9.99</v>
-          </cell>
-          <cell r="J88">
-            <v>13000</v>
+            <v>펫 무리 5성</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="F88" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="G88">
+            <v>1</v>
+          </cell>
+          <cell r="I88" t="b">
+            <v>0</v>
           </cell>
           <cell r="K88" t="str">
-            <v>relay_7</v>
-          </cell>
-          <cell r="L88">
-            <v>679</v>
+            <v/>
+          </cell>
+          <cell r="L88" t="str">
+            <v>50Tier</v>
           </cell>
           <cell r="M88">
-            <v>679</v>
-          </cell>
-          <cell r="N88" t="str">
-            <v>cu</v>
+            <v>49.99</v>
+          </cell>
+          <cell r="N88">
+            <v>79000</v>
           </cell>
           <cell r="O88" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P88" t="str">
-            <v>EN</v>
+            <v>petsale_5</v>
+          </cell>
+          <cell r="P88">
+            <v>604</v>
           </cell>
           <cell r="Q88">
-            <v>30</v>
+            <v>604</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>relay_8</v>
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>펫 포획도구</v>
           </cell>
           <cell r="C89" t="str">
-            <v>relay_8</v>
+            <v>Superior Capture Tool</v>
           </cell>
           <cell r="D89" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E89">
-            <v>3</v>
-          </cell>
-          <cell r="G89" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I89">
-            <v>19.989999999999998</v>
-          </cell>
-          <cell r="J89">
-            <v>25000</v>
+            <v>상급 포획도구</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="F89" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="G89">
+            <v>1</v>
+          </cell>
+          <cell r="I89" t="b">
+            <v>0</v>
           </cell>
           <cell r="K89" t="str">
-            <v>relay_8</v>
-          </cell>
-          <cell r="L89">
-            <v>752</v>
+            <v/>
+          </cell>
+          <cell r="L89" t="str">
+            <v>1Tier</v>
           </cell>
           <cell r="M89">
-            <v>752</v>
-          </cell>
-          <cell r="N89" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N89">
+            <v>1100</v>
           </cell>
           <cell r="O89" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P89" t="str">
-            <v>EN</v>
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="P89">
+            <v>902</v>
           </cell>
           <cell r="Q89">
-            <v>30</v>
+            <v>902</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>relay_9</v>
+            <v>petcapture_best</v>
           </cell>
           <cell r="C90" t="str">
-            <v>relay_9</v>
+            <v>Supreme Capture Tool</v>
           </cell>
           <cell r="D90" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E90">
-            <v>3</v>
-          </cell>
-          <cell r="G90" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I90">
-            <v>39.99</v>
-          </cell>
-          <cell r="J90">
-            <v>48000</v>
+            <v>최상급 포획도구</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="F90" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="G90">
+            <v>1</v>
+          </cell>
+          <cell r="I90" t="b">
+            <v>0</v>
           </cell>
           <cell r="K90" t="str">
-            <v>relay_9</v>
-          </cell>
-          <cell r="L90">
-            <v>534</v>
+            <v/>
+          </cell>
+          <cell r="L90" t="str">
+            <v>4Tier</v>
           </cell>
           <cell r="M90">
-            <v>534</v>
-          </cell>
-          <cell r="N90" t="str">
-            <v>cu</v>
+            <v>3.99</v>
+          </cell>
+          <cell r="N90">
+            <v>6000</v>
           </cell>
           <cell r="O90" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P90" t="str">
-            <v>EN</v>
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="P90">
+            <v>924</v>
           </cell>
           <cell r="Q90">
-            <v>60</v>
+            <v>924</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>relay_10</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>relay_10</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>relay</v>
-          </cell>
-          <cell r="E91">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>n층 돌파 패키지</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="F91" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="G91">
             <v>4</v>
           </cell>
-          <cell r="G91" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I91">
-            <v>49.99</v>
+          <cell r="I91" t="b">
+            <v>0</v>
           </cell>
           <cell r="J91">
-            <v>69000</v>
+            <v>4</v>
           </cell>
           <cell r="K91" t="str">
-            <v>relay_10</v>
-          </cell>
-          <cell r="L91">
-            <v>243</v>
+            <v>가격필요</v>
           </cell>
           <cell r="M91">
-            <v>243</v>
-          </cell>
-          <cell r="N91" t="str">
-            <v>cu</v>
+            <v>0.99</v>
+          </cell>
+          <cell r="N91">
+            <v>1200</v>
           </cell>
           <cell r="O91" t="str">
-            <v>재화</v>
-          </cell>
-          <cell r="P91" t="str">
-            <v>EN</v>
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="P91">
+            <v>802</v>
           </cell>
           <cell r="Q91">
-            <v>90</v>
+            <v>802</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>autonew_1</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>없는 거 신규 패키지</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>autonew_1</v>
-          </cell>
-          <cell r="D92" t="str">
-            <v>autonew</v>
-          </cell>
-          <cell r="E92">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="F92" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="G92">
             <v>4</v>
           </cell>
-          <cell r="G92" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I92">
-            <v>99.99</v>
+          <cell r="I92" t="b">
+            <v>0</v>
           </cell>
           <cell r="J92">
-            <v>109000</v>
+            <v>4</v>
           </cell>
           <cell r="K92" t="str">
-            <v>autonew_1</v>
-          </cell>
-          <cell r="L92">
-            <v>792</v>
+            <v>가격필요</v>
           </cell>
           <cell r="M92">
-            <v>792</v>
-          </cell>
-          <cell r="N92" t="str">
-            <v>it</v>
+            <v>4.99</v>
+          </cell>
+          <cell r="N92">
+            <v>5900</v>
           </cell>
           <cell r="O92" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P92" t="str">
-            <v>Cash_sAutoNew</v>
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="P92">
+            <v>585</v>
           </cell>
           <cell r="Q92">
-            <v>1</v>
+            <v>585</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>analysisexpboost_1</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>분석 부스트</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>analysisexpboost_1</v>
-          </cell>
-          <cell r="D93" t="str">
-            <v>analysisexpboost</v>
-          </cell>
-          <cell r="E93">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="F93" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="G93">
             <v>4</v>
           </cell>
-          <cell r="G93" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I93">
-            <v>0.99</v>
+          <cell r="I93" t="b">
+            <v>0</v>
           </cell>
           <cell r="J93">
-            <v>1200</v>
+            <v>4</v>
           </cell>
           <cell r="K93" t="str">
-            <v>analysisexpboost_1</v>
-          </cell>
-          <cell r="L93">
-            <v>384</v>
+            <v>가격필요</v>
           </cell>
           <cell r="M93">
-            <v>384</v>
-          </cell>
-          <cell r="N93" t="str">
-            <v>it</v>
+            <v>9.99</v>
+          </cell>
+          <cell r="N93">
+            <v>13000</v>
           </cell>
           <cell r="O93" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P93" t="str">
-            <v>Cash_sAutoNew</v>
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="P93">
+            <v>634</v>
           </cell>
           <cell r="Q93">
-            <v>1</v>
+            <v>634</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>analysisexpboost_2</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>analysisexpboost_2</v>
-          </cell>
-          <cell r="D94" t="str">
-            <v>analysisexpboost</v>
-          </cell>
-          <cell r="E94">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="F94" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="G94">
             <v>4</v>
           </cell>
-          <cell r="G94" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I94">
-            <v>4.99</v>
+          <cell r="I94" t="b">
+            <v>0</v>
           </cell>
           <cell r="J94">
-            <v>5900</v>
+            <v>4</v>
           </cell>
           <cell r="K94" t="str">
-            <v>analysisexpboost_2</v>
-          </cell>
-          <cell r="L94">
-            <v>681</v>
+            <v>가격필요</v>
           </cell>
           <cell r="M94">
-            <v>681</v>
-          </cell>
-          <cell r="N94" t="str">
-            <v>it</v>
+            <v>9.99</v>
+          </cell>
+          <cell r="N94">
+            <v>13000</v>
           </cell>
           <cell r="O94" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P94" t="str">
-            <v>Cash_sAutoNew</v>
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="P94">
+            <v>791</v>
           </cell>
           <cell r="Q94">
-            <v>1</v>
+            <v>791</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>analysisexpboost_3</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>analysisexpboost_3</v>
-          </cell>
-          <cell r="D95" t="str">
-            <v>analysisexpboost</v>
-          </cell>
-          <cell r="E95">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="F95" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="G95">
             <v>4</v>
           </cell>
-          <cell r="G95" t="b">
-            <v>0</v>
-          </cell>
-          <cell r="I95">
+          <cell r="I95" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="J95">
+            <v>4</v>
+          </cell>
+          <cell r="K95" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M95">
             <v>9.99</v>
           </cell>
-          <cell r="J95">
+          <cell r="N95">
             <v>13000</v>
           </cell>
-          <cell r="K95" t="str">
-            <v>analysisexpboost_3</v>
-          </cell>
-          <cell r="L95">
+          <cell r="O95" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="P95">
+            <v>484</v>
+          </cell>
+          <cell r="Q95">
+            <v>484</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>다이아 월정액</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Daily Gems Pack</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>매일 매일 보석 팩</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="F96" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="G96">
+            <v>2</v>
+          </cell>
+          <cell r="I96" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K96" t="str">
+            <v/>
+          </cell>
+          <cell r="L96" t="str">
+            <v>7Tier</v>
+          </cell>
+          <cell r="M96">
+            <v>6.99</v>
+          </cell>
+          <cell r="N96">
+            <v>9900</v>
+          </cell>
+          <cell r="O96" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="P96">
+            <v>212</v>
+          </cell>
+          <cell r="Q96">
+            <v>212</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>릴레이팩</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="F97" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G97">
+            <v>3</v>
+          </cell>
+          <cell r="I97" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K97" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M97">
+            <v>0.99</v>
+          </cell>
+          <cell r="N97">
+            <v>1200</v>
+          </cell>
+          <cell r="O97" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="P97">
+            <v>704</v>
+          </cell>
+          <cell r="Q97">
+            <v>704</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="F98" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G98">
+            <v>3</v>
+          </cell>
+          <cell r="I98" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K98" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M98">
+            <v>0.99</v>
+          </cell>
+          <cell r="N98">
+            <v>1200</v>
+          </cell>
+          <cell r="O98" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="P98">
+            <v>148</v>
+          </cell>
+          <cell r="Q98">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="F99" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G99">
+            <v>4</v>
+          </cell>
+          <cell r="I99" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K99" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M99">
+            <v>0.99</v>
+          </cell>
+          <cell r="N99">
+            <v>1200</v>
+          </cell>
+          <cell r="O99" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="P99">
+            <v>784</v>
+          </cell>
+          <cell r="Q99">
+            <v>784</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="F100" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G100">
+            <v>3</v>
+          </cell>
+          <cell r="I100" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K100" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M100">
+            <v>4.99</v>
+          </cell>
+          <cell r="N100">
+            <v>5900</v>
+          </cell>
+          <cell r="O100" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="P100">
+            <v>354</v>
+          </cell>
+          <cell r="Q100">
+            <v>354</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="F101" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G101">
+            <v>3</v>
+          </cell>
+          <cell r="I101" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K101" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M101">
+            <v>4.99</v>
+          </cell>
+          <cell r="N101">
+            <v>5900</v>
+          </cell>
+          <cell r="O101" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="P101">
+            <v>414</v>
+          </cell>
+          <cell r="Q101">
+            <v>414</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="E102" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="F102" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G102">
+            <v>4</v>
+          </cell>
+          <cell r="I102" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K102" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M102">
+            <v>9.99</v>
+          </cell>
+          <cell r="N102">
+            <v>13000</v>
+          </cell>
+          <cell r="O102" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="P102">
+            <v>726</v>
+          </cell>
+          <cell r="Q102">
+            <v>726</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="F103" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G103">
+            <v>3</v>
+          </cell>
+          <cell r="I103" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K103" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M103">
+            <v>9.99</v>
+          </cell>
+          <cell r="N103">
+            <v>13000</v>
+          </cell>
+          <cell r="O103" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="P103">
+            <v>679</v>
+          </cell>
+          <cell r="Q103">
+            <v>679</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="E104" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="F104" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G104">
+            <v>3</v>
+          </cell>
+          <cell r="I104" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K104" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M104">
+            <v>19.989999999999998</v>
+          </cell>
+          <cell r="N104">
+            <v>25000</v>
+          </cell>
+          <cell r="O104" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="P104">
+            <v>752</v>
+          </cell>
+          <cell r="Q104">
+            <v>752</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="E105" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="F105" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G105">
+            <v>3</v>
+          </cell>
+          <cell r="I105" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K105" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M105">
+            <v>39.99</v>
+          </cell>
+          <cell r="N105">
+            <v>48000</v>
+          </cell>
+          <cell r="O105" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="P105">
+            <v>534</v>
+          </cell>
+          <cell r="Q105">
+            <v>534</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="F106" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="G106">
+            <v>4</v>
+          </cell>
+          <cell r="I106" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K106" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M106">
+            <v>49.99</v>
+          </cell>
+          <cell r="N106">
+            <v>69000</v>
+          </cell>
+          <cell r="O106" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="P106">
+            <v>243</v>
+          </cell>
+          <cell r="Q106">
+            <v>243</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>analysisboost_1</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>분석 부스트</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>Analysis Boost 1-Day Pack</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>분석 부스트 1일팩</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>analysisboost_1</v>
+          </cell>
+          <cell r="F107" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="G107">
+            <v>1</v>
+          </cell>
+          <cell r="I107" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K107" t="str">
+            <v/>
+          </cell>
+          <cell r="L107" t="str">
+            <v>1Tier</v>
+          </cell>
+          <cell r="M107">
+            <v>0.99</v>
+          </cell>
+          <cell r="N107">
+            <v>1100</v>
+          </cell>
+          <cell r="O107" t="str">
+            <v>analysisboost_1</v>
+          </cell>
+          <cell r="P107">
+            <v>384</v>
+          </cell>
+          <cell r="Q107">
+            <v>384</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>analysisboost_2</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>Analysis Boost 7-Day Pack</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>분석 부스트 7일팩</v>
+          </cell>
+          <cell r="E108" t="str">
+            <v>analysisboost_2</v>
+          </cell>
+          <cell r="F108" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="G108">
+            <v>1</v>
+          </cell>
+          <cell r="I108" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K108" t="str">
+            <v/>
+          </cell>
+          <cell r="L108" t="str">
+            <v>5Tier</v>
+          </cell>
+          <cell r="M108">
+            <v>4.99</v>
+          </cell>
+          <cell r="N108">
+            <v>7500</v>
+          </cell>
+          <cell r="O108" t="str">
+            <v>analysisboost_2</v>
+          </cell>
+          <cell r="P108">
+            <v>681</v>
+          </cell>
+          <cell r="Q108">
+            <v>681</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>analysisboost_3</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>Analysis Boost Bundle Pack</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>분석 부스트 가득 팩</v>
+          </cell>
+          <cell r="E109" t="str">
+            <v>analysisboost_3</v>
+          </cell>
+          <cell r="F109" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="G109">
+            <v>4</v>
+          </cell>
+          <cell r="I109" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K109" t="str">
+            <v/>
+          </cell>
+          <cell r="L109" t="str">
+            <v>19Tier</v>
+          </cell>
+          <cell r="M109">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="N109">
+            <v>29000</v>
+          </cell>
+          <cell r="O109" t="str">
+            <v>analysisboost_3</v>
+          </cell>
+          <cell r="P109">
             <v>813</v>
           </cell>
-          <cell r="M95">
+          <cell r="Q109">
             <v>813</v>
           </cell>
-          <cell r="N95" t="str">
-            <v>it</v>
-          </cell>
-          <cell r="O95" t="str">
-            <v>아이템</v>
-          </cell>
-          <cell r="P95" t="str">
-            <v>Cash_sAutoNew</v>
-          </cell>
-          <cell r="Q95">
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>ev14_unacquiredspell</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>없는 거 신규 패키지</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>Great Discount</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>특급 할인</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>ev14_unacquiredspell</v>
+          </cell>
+          <cell r="F110" t="str">
+            <v>ev14</v>
+          </cell>
+          <cell r="G110">
             <v>1</v>
+          </cell>
+          <cell r="I110" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K110" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M110">
+            <v>9.99</v>
+          </cell>
+          <cell r="N110">
+            <v>13000</v>
+          </cell>
+          <cell r="O110" t="str">
+            <v>ev14_unacquiredspell</v>
+          </cell>
+          <cell r="P110">
+            <v>178</v>
+          </cell>
+          <cell r="Q110">
+            <v>178</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>ev13_acquiredspell_0001</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>Special Offer</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>스페셜 오퍼</v>
+          </cell>
+          <cell r="E111" t="str">
+            <v>ev13_acquiredspell_0001</v>
+          </cell>
+          <cell r="F111" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="G111">
+            <v>1</v>
+          </cell>
+          <cell r="I111" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K111" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M111">
+            <v>9.99</v>
+          </cell>
+          <cell r="N111">
+            <v>13000</v>
+          </cell>
+          <cell r="O111" t="str">
+            <v>ev13_acquiredspell_0001</v>
+          </cell>
+          <cell r="P111">
+            <v>240</v>
+          </cell>
+          <cell r="Q111">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>ev13_acquiredspell_0002</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>Special Offer</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>스페셜 오퍼</v>
+          </cell>
+          <cell r="E112" t="str">
+            <v>ev13_acquiredspell_0002</v>
+          </cell>
+          <cell r="F112" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="G112">
+            <v>1</v>
+          </cell>
+          <cell r="I112" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K112" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M112">
+            <v>9.99</v>
+          </cell>
+          <cell r="N112">
+            <v>13000</v>
+          </cell>
+          <cell r="O112" t="str">
+            <v>ev13_acquiredspell_0002</v>
+          </cell>
+          <cell r="P112">
+            <v>652</v>
+          </cell>
+          <cell r="Q112">
+            <v>652</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>ev13_acquiredspell</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>Special Offer</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>스페셜 오퍼</v>
+          </cell>
+          <cell r="E113" t="str">
+            <v>ev13_acquiredspell</v>
+          </cell>
+          <cell r="F113" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="G113">
+            <v>1</v>
+          </cell>
+          <cell r="I113" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K113" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M113">
+            <v>9.99</v>
+          </cell>
+          <cell r="N113">
+            <v>13000</v>
+          </cell>
+          <cell r="O113" t="str">
+            <v>ev13_acquiredspell</v>
+          </cell>
+          <cell r="P113">
+            <v>358</v>
+          </cell>
+          <cell r="Q113">
+            <v>358</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>ev15_unacquiredcompanion</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>Legend Time</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>전설 출격</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>ev15_unacquiredcompanion</v>
+          </cell>
+          <cell r="F114" t="str">
+            <v>ev15</v>
+          </cell>
+          <cell r="G114">
+            <v>1</v>
+          </cell>
+          <cell r="I114" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K114" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M114">
+            <v>9.99</v>
+          </cell>
+          <cell r="N114">
+            <v>13000</v>
+          </cell>
+          <cell r="O114" t="str">
+            <v>ev15_unacquiredcompanion</v>
+          </cell>
+          <cell r="P114">
+            <v>717</v>
+          </cell>
+          <cell r="Q114">
+            <v>717</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>ev16_acquiredcompanion</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>Transcendence Power</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>초월의 힘</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>ev16_acquiredcompanion</v>
+          </cell>
+          <cell r="F115" t="str">
+            <v>ev16</v>
+          </cell>
+          <cell r="G115">
+            <v>1</v>
+          </cell>
+          <cell r="I115" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K115" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M115">
+            <v>9.99</v>
+          </cell>
+          <cell r="N115">
+            <v>13000</v>
+          </cell>
+          <cell r="O115" t="str">
+            <v>ev16_acquiredcompanion</v>
+          </cell>
+          <cell r="P115">
+            <v>569</v>
+          </cell>
+          <cell r="Q115">
+            <v>569</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>ev17_acquiredcompanionpp</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>Speedy Growth</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>폭풍 성장</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>ev17_acquiredcompanionpp</v>
+          </cell>
+          <cell r="F116" t="str">
+            <v>ev17</v>
+          </cell>
+          <cell r="G116">
+            <v>1</v>
+          </cell>
+          <cell r="I116" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K116" t="str">
+            <v>가격필요</v>
+          </cell>
+          <cell r="M116">
+            <v>9.99</v>
+          </cell>
+          <cell r="N116">
+            <v>13000</v>
+          </cell>
+          <cell r="O116" t="str">
+            <v>ev17_acquiredcompanionpp</v>
+          </cell>
+          <cell r="P116">
+            <v>880</v>
+          </cell>
+          <cell r="Q116">
+            <v>880</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>petpass</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>펫 성장 패스(28일)</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>Pet Growth Pass</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>펫 성장 패스</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>petpass</v>
+          </cell>
+          <cell r="F117" t="str">
+            <v>petpass</v>
+          </cell>
+          <cell r="G117">
+            <v>1</v>
+          </cell>
+          <cell r="I117" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K117" t="str">
+            <v/>
+          </cell>
+          <cell r="L117" t="str">
+            <v>4Tier</v>
+          </cell>
+          <cell r="M117">
+            <v>3.99</v>
+          </cell>
+          <cell r="N117">
+            <v>6000</v>
+          </cell>
+          <cell r="O117" t="str">
+            <v>petpass</v>
+          </cell>
+          <cell r="P117">
+            <v>406</v>
+          </cell>
+          <cell r="Q117">
+            <v>406</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>teampass</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>팀 전투 패스(14일)</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>Team Advance Pass</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>팀 향상 패스</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>teampass</v>
+          </cell>
+          <cell r="F118" t="str">
+            <v>teampass</v>
+          </cell>
+          <cell r="G118">
+            <v>1</v>
+          </cell>
+          <cell r="I118" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="K118" t="str">
+            <v/>
+          </cell>
+          <cell r="L118" t="str">
+            <v>5Tier</v>
+          </cell>
+          <cell r="M118">
+            <v>4.99</v>
+          </cell>
+          <cell r="N118">
+            <v>7500</v>
+          </cell>
+          <cell r="O118" t="str">
+            <v>teampass</v>
+          </cell>
+          <cell r="P118">
+            <v>841</v>
+          </cell>
+          <cell r="Q118">
+            <v>841</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5202,8 +6035,8 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f>C2*3</f>
-        <v>15</v>
+        <f t="shared" ref="D2:D34" si="0">C2*15</f>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -5224,11 +6057,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2" ca="1" si="0">IF(ROW()=2,K2,OFFSET(J2,-1,0)&amp;IF(LEN(K2)=0,"",","&amp;K2))</f>
+        <f t="shared" ref="J2" ca="1" si="1">IF(ROW()=2,K2,OFFSET(J2,-1,0)&amp;IF(LEN(K2)=0,"",","&amp;K2))</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K5" si="1">IF(C2&lt;&gt;1,"",""""&amp;A2&amp;"""")</f>
+        <f t="shared" ref="K2:K5" si="2">IF(C2&lt;&gt;1,"",""""&amp;A2&amp;"""")</f>
         <v/>
       </c>
       <c r="M2">
@@ -5256,15 +6089,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B34" si="2">"PetName_"&amp;E3</f>
+        <f t="shared" ref="B3:B34" si="3">"PetName_"&amp;E3</f>
         <v>PetName_TamporaB</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="3">C3*3</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -5289,7 +6122,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M3">
@@ -5308,15 +6141,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_TamporaA</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -5341,7 +6174,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M4">
@@ -5360,15 +6193,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_FirePigA</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -5393,7 +6226,7 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M5">
@@ -5412,15 +6245,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_FirePigB</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5464,15 +6297,15 @@
         <v>4</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_ShellfishA</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -5506,15 +6339,15 @@
         <v>47</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_ShellfishC</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -5548,15 +6381,15 @@
         <v>49</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_ShellfishE</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -5590,15 +6423,15 @@
         <v>51</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_StarfishC</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
@@ -5632,15 +6465,15 @@
         <v>53</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_StarfishD</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -5674,15 +6507,15 @@
         <v>55</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_StarfishE</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -5716,15 +6549,15 @@
         <v>81</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_BettyA</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -5758,15 +6591,15 @@
         <v>82</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_BettyC</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -5800,15 +6633,15 @@
         <v>83</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_CuteCrabA</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -5842,15 +6675,15 @@
         <v>84</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_CuteCrabB</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -5884,15 +6717,15 @@
         <v>85</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_DinoA</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
@@ -5926,15 +6759,15 @@
         <v>86</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_DinoB</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -5968,15 +6801,15 @@
         <v>87</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_DinoC</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
@@ -6010,15 +6843,15 @@
         <v>88</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_PlantaA</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -6052,15 +6885,15 @@
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_PlantaB</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
@@ -6094,15 +6927,15 @@
         <v>90</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_PuffeA</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -6136,15 +6969,15 @@
         <v>91</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_PuffeB</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -6178,15 +7011,15 @@
         <v>92</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_Rosehips</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -6220,15 +7053,15 @@
         <v>93</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon00</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -6262,15 +7095,15 @@
         <v>94</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon33</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -6304,15 +7137,15 @@
         <v>95</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon35</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
@@ -6346,15 +7179,15 @@
         <v>96</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon38</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -6388,15 +7221,15 @@
         <v>97</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon56</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -6430,15 +7263,15 @@
         <v>98</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon57</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -6472,15 +7305,15 @@
         <v>99</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_SdDragon68</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>77</v>
@@ -6514,15 +7347,15 @@
         <v>100</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_Swinecone</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
@@ -6556,15 +7389,15 @@
         <v>101</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_WhispaA</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>79</v>
@@ -6598,15 +7431,15 @@
         <v>102</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PetName_WhispaB</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
         <v>80</v>
@@ -9094,9 +9927,9 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="e">
         <f>VLOOKUP(G3,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9118,9 +9951,9 @@
       <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="e">
         <f>VLOOKUP(G4,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE10B0-B04C-4D36-956B-373B9AC8713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F7F50-F119-4BBA-AD8B-5EA90E8B9FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -603,11 +603,15 @@
       <sheetName val="LevelPassTable"/>
       <sheetName val="ConsumeItemTable"/>
       <sheetName val="StageClearTable"/>
+      <sheetName val="RelayPackTable"/>
       <sheetName val="PickOneSpellTable"/>
       <sheetName val="PickOneCharacterTable"/>
       <sheetName val="BrokenEnergyTable"/>
-      <sheetName val="PassAtkTable"/>
+      <sheetName val="passAtk만들기"/>
+      <sheetName val="itemAtk만들기"/>
       <sheetName val="PointShopTable"/>
+      <sheetName val="PointShopAtkTable"/>
+      <sheetName val="FreePackageTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -663,6 +667,18 @@
           <cell r="Q1" t="str">
             <v>key|Int</v>
           </cell>
+          <cell r="R1" t="str">
+            <v>tp1</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>vl1</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>cn1</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -710,6 +726,18 @@
           <cell r="Q2">
             <v>744</v>
           </cell>
+          <cell r="R2" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>Cash_bLevelPass</v>
+          </cell>
+          <cell r="U2">
+            <v>1</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -754,6 +782,18 @@
           <cell r="Q3">
             <v>493</v>
           </cell>
+          <cell r="R3" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="U3">
+            <v>1</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -798,6 +838,18 @@
           <cell r="Q4">
             <v>585</v>
           </cell>
+          <cell r="R4" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S4" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T4" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="U4">
+            <v>1</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -842,6 +894,18 @@
           <cell r="Q5">
             <v>752</v>
           </cell>
+          <cell r="R5" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="U5">
+            <v>1</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -886,6 +950,18 @@
           <cell r="Q6">
             <v>529</v>
           </cell>
+          <cell r="R6" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S6" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T6" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="U6">
+            <v>1</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -930,6 +1006,18 @@
           <cell r="Q7">
             <v>743</v>
           </cell>
+          <cell r="R7" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S7" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T7" t="str">
+            <v>Cash_sBrokenEnergy</v>
+          </cell>
+          <cell r="U7">
+            <v>1</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -977,6 +1065,18 @@
           <cell r="Q8">
             <v>234</v>
           </cell>
+          <cell r="R8" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S8" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T8" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U8">
+            <v>600</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -1021,6 +1121,18 @@
           <cell r="Q9">
             <v>125</v>
           </cell>
+          <cell r="R9" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S9" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U9">
+            <v>500</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -1065,6 +1177,18 @@
           <cell r="Q10">
             <v>348</v>
           </cell>
+          <cell r="R10" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S10" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T10" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U10">
+            <v>30</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -1109,6 +1233,18 @@
           <cell r="Q11">
             <v>431</v>
           </cell>
+          <cell r="R11" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S11" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T11" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U11">
+            <v>60</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -1153,6 +1289,18 @@
           <cell r="Q12">
             <v>969</v>
           </cell>
+          <cell r="R12" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S12" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T12" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U12">
+            <v>90</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -1188,6 +1336,18 @@
           <cell r="Q13">
             <v>987</v>
           </cell>
+          <cell r="R13" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S13" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T13" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U13">
+            <v>80</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -1223,6 +1383,18 @@
           <cell r="Q14">
             <v>261</v>
           </cell>
+          <cell r="R14" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S14" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T14" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U14">
+            <v>150</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -1261,6 +1433,18 @@
           <cell r="Q15">
             <v>390</v>
           </cell>
+          <cell r="R15" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S15" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T15" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U15">
+            <v>20000</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -1296,6 +1480,18 @@
           <cell r="Q16">
             <v>997</v>
           </cell>
+          <cell r="R16" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S16" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T16" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U16">
+            <v>150</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -1334,6 +1530,18 @@
           <cell r="Q17">
             <v>384</v>
           </cell>
+          <cell r="R17" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S17" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T17" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U17">
+            <v>350</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -1369,6 +1577,18 @@
           <cell r="Q18">
             <v>619</v>
           </cell>
+          <cell r="R18" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S18" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T18" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U18">
+            <v>50000</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -1404,6 +1624,18 @@
           <cell r="Q19">
             <v>150</v>
           </cell>
+          <cell r="R19" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S19" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T19" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U19">
+            <v>450</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -1448,6 +1680,18 @@
           <cell r="Q20">
             <v>682</v>
           </cell>
+          <cell r="R20" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S20" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T20" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U20">
+            <v>700</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -1492,6 +1736,18 @@
           <cell r="Q21">
             <v>601</v>
           </cell>
+          <cell r="R21" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S21" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T21" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U21">
+            <v>800</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -1536,6 +1792,18 @@
           <cell r="Q22">
             <v>797</v>
           </cell>
+          <cell r="R22" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S22" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T22" t="str">
+            <v>Cash_sFortuneWheel</v>
+          </cell>
+          <cell r="U22">
+            <v>1</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -1568,6 +1836,18 @@
           <cell r="Q23">
             <v>658</v>
           </cell>
+          <cell r="R23" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S23" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T23" t="str">
+            <v>Spell_0018</v>
+          </cell>
+          <cell r="U23">
+            <v>1</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
@@ -1615,6 +1895,18 @@
           <cell r="Q24">
             <v>386</v>
           </cell>
+          <cell r="R24" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S24" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T24" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U24">
+            <v>100</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -1659,6 +1951,18 @@
           <cell r="Q25">
             <v>582</v>
           </cell>
+          <cell r="R25" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S25" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T25" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U25">
+            <v>75</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -1703,6 +2007,18 @@
           <cell r="Q26">
             <v>538</v>
           </cell>
+          <cell r="R26" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S26" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T26" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U26">
+            <v>300</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
@@ -1747,6 +2063,18 @@
           <cell r="Q27">
             <v>620</v>
           </cell>
+          <cell r="R27" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S27" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T27" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U27">
+            <v>200</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -1791,6 +2119,18 @@
           <cell r="Q28">
             <v>474</v>
           </cell>
+          <cell r="R28" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S28" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T28" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U28">
+            <v>100</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -1835,6 +2175,18 @@
           <cell r="Q29">
             <v>244</v>
           </cell>
+          <cell r="R29" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S29" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T29" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U29">
+            <v>400</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -1879,6 +2231,18 @@
           <cell r="Q30">
             <v>944</v>
           </cell>
+          <cell r="R30" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S30" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T30" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U30">
+            <v>300</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -1923,6 +2287,18 @@
           <cell r="Q31">
             <v>383</v>
           </cell>
+          <cell r="R31" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S31" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T31" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U31">
+            <v>1200</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -1967,6 +2343,18 @@
           <cell r="Q32">
             <v>545</v>
           </cell>
+          <cell r="R32" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S32" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T32" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U32">
+            <v>100</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
@@ -2011,6 +2399,18 @@
           <cell r="Q33">
             <v>231</v>
           </cell>
+          <cell r="R33" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S33" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T33" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U33">
+            <v>300</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
@@ -2055,6 +2455,18 @@
           <cell r="Q34">
             <v>654</v>
           </cell>
+          <cell r="R34" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S34" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T34" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U34">
+            <v>300</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
@@ -2099,6 +2511,18 @@
           <cell r="Q35">
             <v>279</v>
           </cell>
+          <cell r="R35" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S35" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T35" t="str">
+            <v>Cash_sSevenTotal</v>
+          </cell>
+          <cell r="U35">
+            <v>1000</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
@@ -2146,6 +2570,18 @@
           <cell r="Q36">
             <v>359</v>
           </cell>
+          <cell r="R36" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S36" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U36">
+            <v>500</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
@@ -2190,6 +2626,18 @@
           <cell r="Q37">
             <v>881</v>
           </cell>
+          <cell r="R37" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S37" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T37" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U37">
+            <v>300</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -2234,6 +2682,18 @@
           <cell r="Q38">
             <v>108</v>
           </cell>
+          <cell r="R38" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S38" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T38" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U38">
+            <v>1500</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
@@ -2278,6 +2738,18 @@
           <cell r="Q39">
             <v>550</v>
           </cell>
+          <cell r="R39" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S39" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T39" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U39">
+            <v>100</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
@@ -2322,6 +2794,18 @@
           <cell r="Q40">
             <v>397</v>
           </cell>
+          <cell r="R40" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S40" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T40" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U40">
+            <v>500</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
@@ -2366,6 +2850,18 @@
           <cell r="Q41">
             <v>401</v>
           </cell>
+          <cell r="R41" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S41" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T41" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U41">
+            <v>300</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
@@ -2410,6 +2906,18 @@
           <cell r="Q42">
             <v>177</v>
           </cell>
+          <cell r="R42" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S42" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T42" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U42">
+            <v>1500</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
@@ -2454,6 +2962,18 @@
           <cell r="Q43">
             <v>506</v>
           </cell>
+          <cell r="R43" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S43" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T43" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U43">
+            <v>100</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
@@ -2498,6 +3018,18 @@
           <cell r="Q44">
             <v>741</v>
           </cell>
+          <cell r="R44" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S44" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T44" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U44">
+            <v>500</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
@@ -2542,6 +3074,18 @@
           <cell r="Q45">
             <v>578</v>
           </cell>
+          <cell r="R45" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S45" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T45" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U45">
+            <v>300</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
@@ -2586,6 +3130,18 @@
           <cell r="Q46">
             <v>106</v>
           </cell>
+          <cell r="R46" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S46" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T46" t="str">
+            <v>Cash_sFestivalTotal</v>
+          </cell>
+          <cell r="U46">
+            <v>1500</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
@@ -2630,6 +3186,18 @@
           <cell r="Q47">
             <v>440</v>
           </cell>
+          <cell r="R47" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S47" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T47" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U47">
+            <v>100</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
@@ -2677,6 +3245,18 @@
           <cell r="Q48">
             <v>713</v>
           </cell>
+          <cell r="R48" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S48" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T48" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U48">
+            <v>30</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
@@ -2721,6 +3301,18 @@
           <cell r="Q49">
             <v>794</v>
           </cell>
+          <cell r="R49" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S49" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T49" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U49">
+            <v>90</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
@@ -2765,6 +3357,18 @@
           <cell r="Q50">
             <v>121</v>
           </cell>
+          <cell r="R50" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S50" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T50" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U50">
+            <v>260</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
@@ -2809,6 +3413,18 @@
           <cell r="Q51">
             <v>114</v>
           </cell>
+          <cell r="R51" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S51" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T51" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U51">
+            <v>525</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
@@ -2853,6 +3469,18 @@
           <cell r="Q52">
             <v>950</v>
           </cell>
+          <cell r="R52" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S52" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T52" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U52">
+            <v>1600</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
@@ -2897,6 +3525,18 @@
           <cell r="Q53">
             <v>490</v>
           </cell>
+          <cell r="R53" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S53" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T53" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U53">
+            <v>3600</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
@@ -2944,6 +3584,18 @@
           <cell r="Q54">
             <v>338</v>
           </cell>
+          <cell r="R54" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S54" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T54" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U54">
+            <v>90</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
@@ -2988,6 +3640,18 @@
           <cell r="Q55">
             <v>215</v>
           </cell>
+          <cell r="R55" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S55" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T55" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U55">
+            <v>270</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
@@ -3032,6 +3696,18 @@
           <cell r="Q56">
             <v>674</v>
           </cell>
+          <cell r="R56" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S56" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T56" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U56">
+            <v>780</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
@@ -3076,6 +3752,18 @@
           <cell r="Q57">
             <v>145</v>
           </cell>
+          <cell r="R57" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S57" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T57" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U57">
+            <v>1575</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
@@ -3120,6 +3808,18 @@
           <cell r="Q58">
             <v>858</v>
           </cell>
+          <cell r="R58" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S58" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T58" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U58">
+            <v>4800</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
@@ -3164,6 +3864,18 @@
           <cell r="Q59">
             <v>173</v>
           </cell>
+          <cell r="R59" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S59" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T59" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U59">
+            <v>10800</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
@@ -3208,6 +3920,18 @@
           <cell r="Q60">
             <v>201</v>
           </cell>
+          <cell r="R60" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S60" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T60" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U60">
+            <v>400000</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
@@ -3252,6 +3976,18 @@
           <cell r="Q61">
             <v>803</v>
           </cell>
+          <cell r="R61" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S61" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T61" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U61">
+            <v>1050000</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
@@ -3296,6 +4032,18 @@
           <cell r="Q62">
             <v>650</v>
           </cell>
+          <cell r="R62" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S62" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T62" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U62">
+            <v>2500000</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
@@ -3340,6 +4088,18 @@
           <cell r="Q63">
             <v>953</v>
           </cell>
+          <cell r="R63" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S63" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T63" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U63">
+            <v>6000000</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
@@ -3384,6 +4144,18 @@
           <cell r="Q64">
             <v>640</v>
           </cell>
+          <cell r="R64" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S64" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T64" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U64">
+            <v>19000000</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
@@ -3428,6 +4200,18 @@
           <cell r="Q65">
             <v>553</v>
           </cell>
+          <cell r="R65" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S65" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T65" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U65">
+            <v>45000000</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
@@ -3472,6 +4256,18 @@
           <cell r="Q66">
             <v>963</v>
           </cell>
+          <cell r="R66" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S66" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T66" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U66">
+            <v>1200000</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
@@ -3516,6 +4312,18 @@
           <cell r="Q67">
             <v>340</v>
           </cell>
+          <cell r="R67" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S67" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T67" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U67">
+            <v>3150000</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
@@ -3560,6 +4368,18 @@
           <cell r="Q68">
             <v>420</v>
           </cell>
+          <cell r="R68" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S68" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T68" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U68">
+            <v>7500000</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -3604,6 +4424,18 @@
           <cell r="Q69">
             <v>756</v>
           </cell>
+          <cell r="R69" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S69" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T69" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U69">
+            <v>18000000</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
@@ -3648,6 +4480,18 @@
           <cell r="Q70">
             <v>979</v>
           </cell>
+          <cell r="R70" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S70" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T70" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U70">
+            <v>57000000</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
@@ -3692,6 +4536,18 @@
           <cell r="Q71">
             <v>435</v>
           </cell>
+          <cell r="R71" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S71" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T71" t="str">
+            <v>GO</v>
+          </cell>
+          <cell r="U71">
+            <v>135000000</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
@@ -3736,6 +4592,18 @@
           <cell r="Q72">
             <v>407</v>
           </cell>
+          <cell r="R72" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S72" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T72" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U72">
+            <v>400</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
@@ -3780,6 +4648,18 @@
           <cell r="Q73">
             <v>934</v>
           </cell>
+          <cell r="R73" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S73" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T73" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U73">
+            <v>1050</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
@@ -3824,6 +4704,18 @@
           <cell r="Q74">
             <v>626</v>
           </cell>
+          <cell r="R74" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S74" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T74" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U74">
+            <v>2500</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
@@ -3868,6 +4760,18 @@
           <cell r="Q75">
             <v>910</v>
           </cell>
+          <cell r="R75" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S75" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T75" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U75">
+            <v>6000</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
@@ -3912,6 +4816,18 @@
           <cell r="Q76">
             <v>258</v>
           </cell>
+          <cell r="R76" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S76" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T76" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U76">
+            <v>19000</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
@@ -3956,6 +4872,18 @@
           <cell r="Q77">
             <v>872</v>
           </cell>
+          <cell r="R77" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S77" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T77" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U77">
+            <v>45000</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
@@ -4000,6 +4928,18 @@
           <cell r="Q78">
             <v>357</v>
           </cell>
+          <cell r="R78" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S78" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T78" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U78">
+            <v>1200</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
@@ -4044,6 +4984,18 @@
           <cell r="Q79">
             <v>866</v>
           </cell>
+          <cell r="R79" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S79" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T79" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U79">
+            <v>3150</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
@@ -4088,6 +5040,18 @@
           <cell r="Q80">
             <v>240</v>
           </cell>
+          <cell r="R80" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S80" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T80" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U80">
+            <v>7500</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
@@ -4132,6 +5096,18 @@
           <cell r="Q81">
             <v>722</v>
           </cell>
+          <cell r="R81" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S81" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T81" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U81">
+            <v>18000</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
@@ -4176,6 +5152,18 @@
           <cell r="Q82">
             <v>517</v>
           </cell>
+          <cell r="R82" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S82" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T82" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U82">
+            <v>57000</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
@@ -4220,6 +5208,18 @@
           <cell r="Q83">
             <v>526</v>
           </cell>
+          <cell r="R83" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S83" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T83" t="str">
+            <v>DI</v>
+          </cell>
+          <cell r="U83">
+            <v>135000</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
@@ -4267,6 +5267,18 @@
           <cell r="Q84">
             <v>781</v>
           </cell>
+          <cell r="R84" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S84" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T84" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="U84">
+            <v>1</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
@@ -4311,6 +5323,18 @@
           <cell r="Q85">
             <v>142</v>
           </cell>
+          <cell r="R85" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S85" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T85" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="U85">
+            <v>1</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
@@ -4355,6 +5379,18 @@
           <cell r="Q86">
             <v>610</v>
           </cell>
+          <cell r="R86" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S86" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T86" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="U86">
+            <v>1</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
@@ -4399,6 +5435,18 @@
           <cell r="Q87">
             <v>433</v>
           </cell>
+          <cell r="R87" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S87" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T87" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="U87">
+            <v>1</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
@@ -4443,6 +5491,18 @@
           <cell r="Q88">
             <v>604</v>
           </cell>
+          <cell r="R88" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S88" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T88" t="str">
+            <v>Cash_sPetSale</v>
+          </cell>
+          <cell r="U88">
+            <v>1</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
@@ -4490,6 +5550,18 @@
           <cell r="Q89">
             <v>902</v>
           </cell>
+          <cell r="R89" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S89" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T89" t="str">
+            <v>Item_cCaptureBetter</v>
+          </cell>
+          <cell r="U89">
+            <v>5</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
@@ -4534,6 +5606,18 @@
           <cell r="Q90">
             <v>924</v>
           </cell>
+          <cell r="R90" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S90" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T90" t="str">
+            <v>Item_cCaptureBest</v>
+          </cell>
+          <cell r="U90">
+            <v>5</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
@@ -4575,6 +5659,18 @@
           <cell r="Q91">
             <v>802</v>
           </cell>
+          <cell r="R91" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S91" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T91" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U91">
+            <v>30</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
@@ -4613,6 +5709,18 @@
           <cell r="Q92">
             <v>585</v>
           </cell>
+          <cell r="R92" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S92" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T92" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U92">
+            <v>60</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
@@ -4651,6 +5759,18 @@
           <cell r="Q93">
             <v>634</v>
           </cell>
+          <cell r="R93" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S93" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T93" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U93">
+            <v>90</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
@@ -4689,6 +5809,18 @@
           <cell r="Q94">
             <v>791</v>
           </cell>
+          <cell r="R94" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S94" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T94" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U94">
+            <v>120</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
@@ -4727,6 +5859,18 @@
           <cell r="Q95">
             <v>484</v>
           </cell>
+          <cell r="R95" t="str">
+            <v>cu</v>
+          </cell>
+          <cell r="S95" t="str">
+            <v>재화</v>
+          </cell>
+          <cell r="T95" t="str">
+            <v>EN</v>
+          </cell>
+          <cell r="U95">
+            <v>150</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
@@ -4774,6 +5918,18 @@
           <cell r="Q96">
             <v>212</v>
           </cell>
+          <cell r="R96" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S96" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T96" t="str">
+            <v>Item_cDailyGem</v>
+          </cell>
+          <cell r="U96">
+            <v>15</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
@@ -4789,11 +5945,14 @@
             <v>relay</v>
           </cell>
           <cell r="G97">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I97" t="b">
             <v>0</v>
           </cell>
+          <cell r="J97">
+            <v>8</v>
+          </cell>
           <cell r="K97" t="str">
             <v>가격필요</v>
           </cell>
@@ -4811,6 +5970,18 @@
           </cell>
           <cell r="Q97">
             <v>704</v>
+          </cell>
+          <cell r="R97" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S97" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T97" t="str">
+            <v>RelayAtk_01</v>
+          </cell>
+          <cell r="U97">
+            <v>1</v>
           </cell>
         </row>
         <row r="98">
@@ -4824,11 +5995,14 @@
             <v>relay</v>
           </cell>
           <cell r="G98">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I98" t="b">
             <v>0</v>
           </cell>
+          <cell r="J98">
+            <v>8</v>
+          </cell>
           <cell r="K98" t="str">
             <v>가격필요</v>
           </cell>
@@ -4846,6 +6020,18 @@
           </cell>
           <cell r="Q98">
             <v>148</v>
+          </cell>
+          <cell r="R98" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S98" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T98" t="str">
+            <v>RelayAtk_02</v>
+          </cell>
+          <cell r="U98">
+            <v>1</v>
           </cell>
         </row>
         <row r="99">
@@ -4864,6 +6050,9 @@
           <cell r="I99" t="b">
             <v>0</v>
           </cell>
+          <cell r="J99">
+            <v>8</v>
+          </cell>
           <cell r="K99" t="str">
             <v>가격필요</v>
           </cell>
@@ -4881,6 +6070,18 @@
           </cell>
           <cell r="Q99">
             <v>784</v>
+          </cell>
+          <cell r="R99" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S99" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T99" t="str">
+            <v>RelayAtk_03</v>
+          </cell>
+          <cell r="U99">
+            <v>1</v>
           </cell>
         </row>
         <row r="100">
@@ -4894,11 +6095,14 @@
             <v>relay</v>
           </cell>
           <cell r="G100">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I100" t="b">
             <v>0</v>
           </cell>
+          <cell r="J100">
+            <v>8</v>
+          </cell>
           <cell r="K100" t="str">
             <v>가격필요</v>
           </cell>
@@ -4916,6 +6120,18 @@
           </cell>
           <cell r="Q100">
             <v>354</v>
+          </cell>
+          <cell r="R100" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S100" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T100" t="str">
+            <v>RelayAtk_04</v>
+          </cell>
+          <cell r="U100">
+            <v>1</v>
           </cell>
         </row>
         <row r="101">
@@ -4929,11 +6145,14 @@
             <v>relay</v>
           </cell>
           <cell r="G101">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I101" t="b">
             <v>0</v>
           </cell>
+          <cell r="J101">
+            <v>8</v>
+          </cell>
           <cell r="K101" t="str">
             <v>가격필요</v>
           </cell>
@@ -4951,6 +6170,18 @@
           </cell>
           <cell r="Q101">
             <v>414</v>
+          </cell>
+          <cell r="R101" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S101" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T101" t="str">
+            <v>RelayAtk_05</v>
+          </cell>
+          <cell r="U101">
+            <v>1</v>
           </cell>
         </row>
         <row r="102">
@@ -4969,6 +6200,9 @@
           <cell r="I102" t="b">
             <v>0</v>
           </cell>
+          <cell r="J102">
+            <v>8</v>
+          </cell>
           <cell r="K102" t="str">
             <v>가격필요</v>
           </cell>
@@ -4986,6 +6220,18 @@
           </cell>
           <cell r="Q102">
             <v>726</v>
+          </cell>
+          <cell r="R102" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S102" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T102" t="str">
+            <v>RelayAtk_06</v>
+          </cell>
+          <cell r="U102">
+            <v>1</v>
           </cell>
         </row>
         <row r="103">
@@ -4999,11 +6245,14 @@
             <v>relay</v>
           </cell>
           <cell r="G103">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I103" t="b">
             <v>0</v>
           </cell>
+          <cell r="J103">
+            <v>8</v>
+          </cell>
           <cell r="K103" t="str">
             <v>가격필요</v>
           </cell>
@@ -5021,6 +6270,18 @@
           </cell>
           <cell r="Q103">
             <v>679</v>
+          </cell>
+          <cell r="R103" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S103" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T103" t="str">
+            <v>RelayAtk_07</v>
+          </cell>
+          <cell r="U103">
+            <v>1</v>
           </cell>
         </row>
         <row r="104">
@@ -5034,11 +6295,14 @@
             <v>relay</v>
           </cell>
           <cell r="G104">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I104" t="b">
             <v>0</v>
           </cell>
+          <cell r="J104">
+            <v>8</v>
+          </cell>
           <cell r="K104" t="str">
             <v>가격필요</v>
           </cell>
@@ -5056,6 +6320,18 @@
           </cell>
           <cell r="Q104">
             <v>752</v>
+          </cell>
+          <cell r="R104" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S104" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T104" t="str">
+            <v>RelayAtk_08</v>
+          </cell>
+          <cell r="U104">
+            <v>1</v>
           </cell>
         </row>
         <row r="105">
@@ -5069,11 +6345,14 @@
             <v>relay</v>
           </cell>
           <cell r="G105">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="I105" t="b">
             <v>0</v>
           </cell>
+          <cell r="J105">
+            <v>8</v>
+          </cell>
           <cell r="K105" t="str">
             <v>가격필요</v>
           </cell>
@@ -5091,6 +6370,18 @@
           </cell>
           <cell r="Q105">
             <v>534</v>
+          </cell>
+          <cell r="R105" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S105" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T105" t="str">
+            <v>RelayAtk_09</v>
+          </cell>
+          <cell r="U105">
+            <v>1</v>
           </cell>
         </row>
         <row r="106">
@@ -5109,6 +6400,9 @@
           <cell r="I106" t="b">
             <v>0</v>
           </cell>
+          <cell r="J106">
+            <v>8</v>
+          </cell>
           <cell r="K106" t="str">
             <v>가격필요</v>
           </cell>
@@ -5126,6 +6420,18 @@
           </cell>
           <cell r="Q106">
             <v>243</v>
+          </cell>
+          <cell r="R106" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S106" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T106" t="str">
+            <v>RelayAtk_10</v>
+          </cell>
+          <cell r="U106">
+            <v>1</v>
           </cell>
         </row>
         <row r="107">
@@ -5174,6 +6480,18 @@
           <cell r="Q107">
             <v>384</v>
           </cell>
+          <cell r="R107" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S107" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T107" t="str">
+            <v>Cash_sAnalysisBoost</v>
+          </cell>
+          <cell r="U107">
+            <v>1</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
@@ -5218,6 +6536,18 @@
           <cell r="Q108">
             <v>681</v>
           </cell>
+          <cell r="R108" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S108" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T108" t="str">
+            <v>Cash_sAnalysisBoost</v>
+          </cell>
+          <cell r="U108">
+            <v>7</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
@@ -5262,6 +6592,18 @@
           <cell r="Q109">
             <v>813</v>
           </cell>
+          <cell r="R109" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S109" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T109" t="str">
+            <v>Cash_sAnalysisBoost</v>
+          </cell>
+          <cell r="U109">
+            <v>30</v>
+          </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
@@ -5306,6 +6648,18 @@
           <cell r="Q110">
             <v>178</v>
           </cell>
+          <cell r="R110" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S110" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T110" t="str">
+            <v>Cash_sUnacquiredSpell</v>
+          </cell>
+          <cell r="U110">
+            <v>1</v>
+          </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
@@ -5347,6 +6701,18 @@
           <cell r="Q111">
             <v>240</v>
           </cell>
+          <cell r="R111" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S111" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T111" t="str">
+            <v>Cash_sAcquiredSpell</v>
+          </cell>
+          <cell r="U111">
+            <v>1</v>
+          </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
@@ -5388,6 +6754,18 @@
           <cell r="Q112">
             <v>652</v>
           </cell>
+          <cell r="R112" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S112" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T112" t="str">
+            <v>Cash_sAcquiredSpell</v>
+          </cell>
+          <cell r="U112">
+            <v>1</v>
+          </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
@@ -5429,6 +6807,18 @@
           <cell r="Q113">
             <v>358</v>
           </cell>
+          <cell r="R113" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S113" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T113" t="str">
+            <v>Cash_sAcquiredSpell</v>
+          </cell>
+          <cell r="U113">
+            <v>1</v>
+          </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
@@ -5470,6 +6860,18 @@
           <cell r="Q114">
             <v>717</v>
           </cell>
+          <cell r="R114" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S114" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T114" t="str">
+            <v>Cash_sUnacquiredCompanion</v>
+          </cell>
+          <cell r="U114">
+            <v>1</v>
+          </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
@@ -5511,6 +6913,18 @@
           <cell r="Q115">
             <v>569</v>
           </cell>
+          <cell r="R115" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S115" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T115" t="str">
+            <v>Cash_sAcquiredCompanion</v>
+          </cell>
+          <cell r="U115">
+            <v>1</v>
+          </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
@@ -5552,6 +6966,18 @@
           <cell r="Q116">
             <v>880</v>
           </cell>
+          <cell r="R116" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S116" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T116" t="str">
+            <v>Cash_sAcquiredCompanionPp</v>
+          </cell>
+          <cell r="U116">
+            <v>1</v>
+          </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
@@ -5599,6 +7025,18 @@
           <cell r="Q117">
             <v>406</v>
           </cell>
+          <cell r="R117" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S117" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T117" t="str">
+            <v>Cash_sPetPass</v>
+          </cell>
+          <cell r="U117">
+            <v>1</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
@@ -5645,6 +7083,332 @@
           </cell>
           <cell r="Q118">
             <v>841</v>
+          </cell>
+          <cell r="R118" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S118" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T118" t="str">
+            <v>Cash_sTeamPass</v>
+          </cell>
+          <cell r="U118">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>freelevel_1</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>조건형 무료팩 플레이어레벨1</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>freelevel_1</v>
+          </cell>
+          <cell r="F119" t="str">
+            <v>freelevel</v>
+          </cell>
+          <cell r="G119">
+            <v>4</v>
+          </cell>
+          <cell r="I119" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K119" t="str">
+            <v/>
+          </cell>
+          <cell r="M119" t="str">
+            <v/>
+          </cell>
+          <cell r="N119" t="str">
+            <v/>
+          </cell>
+          <cell r="P119">
+            <v>574</v>
+          </cell>
+          <cell r="Q119">
+            <v>574</v>
+          </cell>
+          <cell r="R119" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S119" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T119" t="str">
+            <v>FreeLevelAtk_01</v>
+          </cell>
+          <cell r="U119">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>freelevel_2</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>freelevel_2</v>
+          </cell>
+          <cell r="F120" t="str">
+            <v>freelevel</v>
+          </cell>
+          <cell r="G120">
+            <v>4</v>
+          </cell>
+          <cell r="I120" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K120" t="str">
+            <v/>
+          </cell>
+          <cell r="M120" t="str">
+            <v/>
+          </cell>
+          <cell r="N120" t="str">
+            <v/>
+          </cell>
+          <cell r="P120">
+            <v>318</v>
+          </cell>
+          <cell r="Q120">
+            <v>318</v>
+          </cell>
+          <cell r="R120" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S120" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T120" t="str">
+            <v>FreeLevelAtk_02</v>
+          </cell>
+          <cell r="U120">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>freelevel_3</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>freelevel_3</v>
+          </cell>
+          <cell r="F121" t="str">
+            <v>freelevel</v>
+          </cell>
+          <cell r="G121">
+            <v>4</v>
+          </cell>
+          <cell r="I121" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K121" t="str">
+            <v/>
+          </cell>
+          <cell r="M121" t="str">
+            <v/>
+          </cell>
+          <cell r="N121" t="str">
+            <v/>
+          </cell>
+          <cell r="P121">
+            <v>830</v>
+          </cell>
+          <cell r="Q121">
+            <v>830</v>
+          </cell>
+          <cell r="R121" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S121" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T121" t="str">
+            <v>FreeLevelAtk_03</v>
+          </cell>
+          <cell r="U121">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>freestage_1</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>조건형 무료팩 스테이지1</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>freestage_1</v>
+          </cell>
+          <cell r="F122" t="str">
+            <v>freestage</v>
+          </cell>
+          <cell r="G122">
+            <v>4</v>
+          </cell>
+          <cell r="I122" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K122" t="str">
+            <v/>
+          </cell>
+          <cell r="M122" t="str">
+            <v/>
+          </cell>
+          <cell r="N122" t="str">
+            <v/>
+          </cell>
+          <cell r="P122">
+            <v>843</v>
+          </cell>
+          <cell r="Q122">
+            <v>843</v>
+          </cell>
+          <cell r="R122" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S122" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T122" t="str">
+            <v>FreeStageAtk_01</v>
+          </cell>
+          <cell r="U122">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>freestage_2</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>freestage_2</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>freestage</v>
+          </cell>
+          <cell r="G123">
+            <v>4</v>
+          </cell>
+          <cell r="I123" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K123" t="str">
+            <v/>
+          </cell>
+          <cell r="M123" t="str">
+            <v/>
+          </cell>
+          <cell r="N123" t="str">
+            <v/>
+          </cell>
+          <cell r="P123">
+            <v>501</v>
+          </cell>
+          <cell r="Q123">
+            <v>501</v>
+          </cell>
+          <cell r="R123" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S123" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T123" t="str">
+            <v>FreeStageAtk_02</v>
+          </cell>
+          <cell r="U123">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>freestage_3</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>freestage_3</v>
+          </cell>
+          <cell r="F124" t="str">
+            <v>freestage</v>
+          </cell>
+          <cell r="G124">
+            <v>4</v>
+          </cell>
+          <cell r="I124" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K124" t="str">
+            <v/>
+          </cell>
+          <cell r="M124" t="str">
+            <v/>
+          </cell>
+          <cell r="N124" t="str">
+            <v/>
+          </cell>
+          <cell r="P124">
+            <v>407</v>
+          </cell>
+          <cell r="Q124">
+            <v>407</v>
+          </cell>
+          <cell r="R124" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S124" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T124" t="str">
+            <v>FreeStageAtk_03</v>
+          </cell>
+          <cell r="U124">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>freestage_4</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>freestage_4</v>
+          </cell>
+          <cell r="F125" t="str">
+            <v>freestage</v>
+          </cell>
+          <cell r="G125">
+            <v>4</v>
+          </cell>
+          <cell r="I125" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="K125" t="str">
+            <v/>
+          </cell>
+          <cell r="M125" t="str">
+            <v/>
+          </cell>
+          <cell r="N125" t="str">
+            <v/>
+          </cell>
+          <cell r="P125">
+            <v>193</v>
+          </cell>
+          <cell r="Q125">
+            <v>193</v>
+          </cell>
+          <cell r="R125" t="str">
+            <v>it</v>
+          </cell>
+          <cell r="S125" t="str">
+            <v>아이템</v>
+          </cell>
+          <cell r="T125" t="str">
+            <v>FreeStageAtk_04</v>
+          </cell>
+          <cell r="U125">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5656,6 +7420,10 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6035,8 +7803,8 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D34" si="0">C2*15</f>
-        <v>75</v>
+        <f t="shared" ref="D2:D34" si="0">C2*25</f>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -6097,7 +7865,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -6149,7 +7917,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -6201,7 +7969,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -6253,7 +8021,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -6305,7 +8073,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -6347,7 +8115,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -6389,7 +8157,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -6431,7 +8199,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
@@ -6473,7 +8241,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -6515,7 +8283,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -6557,7 +8325,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -6599,7 +8367,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -6641,7 +8409,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -6683,7 +8451,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -6725,7 +8493,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
@@ -6767,7 +8535,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -6809,7 +8577,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
@@ -6851,7 +8619,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -6893,7 +8661,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
@@ -6935,7 +8703,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -6977,7 +8745,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -7019,7 +8787,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -7061,7 +8829,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -7103,7 +8871,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -7145,7 +8913,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
@@ -7187,7 +8955,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -7229,7 +8997,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -7271,7 +9039,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -7313,7 +9081,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>77</v>
@@ -7355,7 +9123,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
@@ -7397,7 +9165,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>79</v>
@@ -7439,7 +9207,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>80</v>
@@ -7566,9 +9334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA705A78-4828-4BDB-845D-5DE50EB15A79}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -9927,9 +11693,9 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3" t="e">
-        <f>VLOOKUP(G3,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
-        <v>#N/A</v>
+      <c r="F3">
+        <f>VLOOKUP(G3,[1]ShopProductTable!$A:$U,MATCH("cn1",[1]ShopProductTable!$A$1:$U$1,0),0)</f>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9951,9 +11717,9 @@
       <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="F4" t="e">
-        <f>VLOOKUP(G4,[1]ShopProductTable!$A:$Q,MATCH("cn1",[1]ShopProductTable!$A$1:$Q$1,0),0)</f>
-        <v>#N/A</v>
+      <c r="F4">
+        <f>VLOOKUP(G4,[1]ShopProductTable!$A:$U,MATCH("cn1",[1]ShopProductTable!$A$1:$U$1,0),0)</f>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>

--- a/Excel/작업Pet.xlsx
+++ b/Excel/작업Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F7F50-F119-4BBA-AD8B-5EA90E8B9FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7B7AD-0AA7-426C-9CD8-AFFBB90B1141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{94774C01-942F-4B58-BDE5-15A7ADFE430A}"/>
   </bookViews>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="O2">
         <f>COUNTIF(C:C,M2)</f>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O4">
         <f t="shared" si="8"/>
@@ -8001,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="O5">
         <f t="shared" si="8"/>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I33">
         <v>0</v>
